--- a/tests/fixtures/orderforms/1508.27.mip_rna.xlsx
+++ b/tests/fixtures/orderforms/1508.27.mip_rna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent.janvid/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED2B9D-7C4F-B94E-A075-4478D6394DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BE26DD-1985-4049-9FCC-95312B50720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10260" windowWidth="51080" windowHeight="26280" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28920" yWindow="-10300" windowWidth="51080" windowHeight="26280" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="710">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3079,6 +3079,21 @@
   <si>
     <t>Reference Genome</t>
   </si>
+  <si>
+    <t>Fastq + Scout</t>
+  </si>
+  <si>
+    <t>cust902</t>
+  </si>
+  <si>
+    <t>cust903</t>
+  </si>
+  <si>
+    <t>cust904</t>
+  </si>
+  <si>
+    <t>cust905</t>
+  </si>
 </sst>
 </file>
 
@@ -4175,39 +4190,6 @@
     <xf numFmtId="0" fontId="53" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4282,6 +4264,39 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Excel Built-in Normal" xfId="24" xr:uid="{2D3F3DDE-6807-9E4B-ADD1-9595EBE890AB}"/>
@@ -5375,8 +5390,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -5404,8 +5419,8 @@
     <col min="26" max="26" width="17.1640625" style="2" customWidth="1"/>
     <col min="27" max="27" width="6.6640625" style="2" customWidth="1"/>
     <col min="28" max="31" width="8.83203125" style="2"/>
-    <col min="32" max="32" width="15.6640625" style="187" customWidth="1"/>
-    <col min="33" max="33" width="8.83203125" style="187"/>
+    <col min="32" max="32" width="15.6640625" style="176" customWidth="1"/>
+    <col min="33" max="33" width="8.83203125" style="176"/>
     <col min="34" max="35" width="10.6640625" style="2" customWidth="1"/>
     <col min="36" max="36" width="8.83203125" style="6"/>
     <col min="37" max="37" width="8.83203125" style="2"/>
@@ -5445,8 +5460,8 @@
       <c r="AC1" s="7"/>
       <c r="AD1" s="7"/>
       <c r="AE1" s="7"/>
-      <c r="AF1" s="175"/>
-      <c r="AG1" s="175"/>
+      <c r="AF1" s="164"/>
+      <c r="AG1" s="164"/>
       <c r="AH1" s="7"/>
       <c r="AI1" s="7"/>
       <c r="AJ1" s="9"/>
@@ -6477,8 +6492,8 @@
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="175"/>
+      <c r="AF2" s="164"/>
+      <c r="AG2" s="164"/>
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
       <c r="AJ2"/>
@@ -7508,8 +7523,8 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="176"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="165"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
       <c r="AK3"/>
@@ -7548,8 +7563,8 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="176"/>
-      <c r="AG4" s="176"/>
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="165"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
       <c r="AJ4"/>
@@ -8580,8 +8595,8 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="176"/>
-      <c r="AG5" s="176"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
       <c r="AJ5"/>
@@ -9610,8 +9625,8 @@
       <c r="AC6" s="15"/>
       <c r="AD6" s="15"/>
       <c r="AE6" s="15"/>
-      <c r="AF6" s="176"/>
-      <c r="AG6" s="176"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
       <c r="AH6" s="15"/>
       <c r="AI6" s="15"/>
       <c r="AJ6"/>
@@ -10644,8 +10659,8 @@
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
-      <c r="AF7" s="175"/>
-      <c r="AG7" s="175"/>
+      <c r="AF7" s="164"/>
+      <c r="AG7" s="164"/>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7"/>
@@ -11674,8 +11689,8 @@
       <c r="AC8" s="30"/>
       <c r="AD8" s="30"/>
       <c r="AE8" s="30"/>
-      <c r="AF8" s="177"/>
-      <c r="AG8" s="177"/>
+      <c r="AF8" s="166"/>
+      <c r="AG8" s="166"/>
       <c r="AH8" s="30"/>
       <c r="AI8" s="30"/>
       <c r="AJ8" s="32"/>
@@ -11683,34 +11698,34 @@
       <c r="AL8" s="33"/>
     </row>
     <row r="9" spans="1:1028" s="39" customFormat="1" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="143"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="178"/>
+      <c r="M9" s="178"/>
+      <c r="N9" s="179"/>
       <c r="O9" s="35"/>
-      <c r="P9" s="145" t="s">
+      <c r="P9" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="145"/>
+      <c r="Q9" s="181"/>
       <c r="R9" s="116"/>
-      <c r="S9" s="146" t="s">
+      <c r="S9" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="148"/>
+      <c r="T9" s="183"/>
+      <c r="U9" s="183"/>
+      <c r="V9" s="184"/>
       <c r="W9" s="36"/>
       <c r="X9" s="37" t="s">
         <v>15</v>
@@ -11720,23 +11735,23 @@
         <v>16</v>
       </c>
       <c r="AA9" s="38"/>
-      <c r="AB9" s="144" t="s">
+      <c r="AB9" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="AC9" s="144"/>
-      <c r="AD9" s="144"/>
+      <c r="AC9" s="180"/>
+      <c r="AD9" s="180"/>
       <c r="AE9" s="36"/>
-      <c r="AF9" s="178" t="s">
+      <c r="AF9" s="167" t="s">
         <v>702</v>
       </c>
-      <c r="AG9" s="179"/>
-      <c r="AH9" s="149" t="s">
+      <c r="AG9" s="168"/>
+      <c r="AH9" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="AI9" s="150"/>
-      <c r="AJ9" s="150"/>
-      <c r="AK9" s="150"/>
-      <c r="AL9" s="151"/>
+      <c r="AI9" s="186"/>
+      <c r="AJ9" s="186"/>
+      <c r="AK9" s="186"/>
+      <c r="AL9" s="187"/>
     </row>
     <row r="10" spans="1:1028" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="40" t="s">
@@ -11772,8 +11787,8 @@
       <c r="AC10" s="36"/>
       <c r="AD10" s="36"/>
       <c r="AE10" s="36"/>
-      <c r="AF10" s="179"/>
-      <c r="AG10" s="179"/>
+      <c r="AF10" s="168"/>
+      <c r="AG10" s="168"/>
       <c r="AH10" s="36"/>
       <c r="AI10" s="36"/>
       <c r="AJ10" s="41"/>
@@ -12852,10 +12867,10 @@
         <v>40</v>
       </c>
       <c r="AE11" s="53"/>
-      <c r="AF11" s="180" t="s">
+      <c r="AF11" s="169" t="s">
         <v>703</v>
       </c>
-      <c r="AG11" s="181"/>
+      <c r="AG11" s="170"/>
       <c r="AH11" s="43" t="s">
         <v>543</v>
       </c>
@@ -12906,8 +12921,8 @@
       <c r="AC12" s="57"/>
       <c r="AD12" s="57"/>
       <c r="AE12" s="57"/>
-      <c r="AF12" s="181"/>
-      <c r="AG12" s="181"/>
+      <c r="AF12" s="170"/>
+      <c r="AG12" s="170"/>
       <c r="AH12" s="53"/>
       <c r="AI12" s="53"/>
       <c r="AJ12" s="56"/>
@@ -12996,10 +13011,10 @@
         <v>65</v>
       </c>
       <c r="AE13" s="69"/>
-      <c r="AF13" s="182" t="s">
+      <c r="AF13" s="171" t="s">
         <v>704</v>
       </c>
-      <c r="AG13" s="183"/>
+      <c r="AG13" s="172"/>
       <c r="AH13" s="62" t="s">
         <v>531</v>
       </c>
@@ -13050,8 +13065,8 @@
       <c r="AC14" s="57"/>
       <c r="AD14" s="57"/>
       <c r="AE14" s="57"/>
-      <c r="AF14" s="181"/>
-      <c r="AG14" s="181"/>
+      <c r="AF14" s="170"/>
+      <c r="AG14" s="170"/>
       <c r="AH14" s="53"/>
       <c r="AI14" s="44"/>
       <c r="AJ14" s="56"/>
@@ -13141,7 +13156,7 @@
       <c r="AF15" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG15" s="184"/>
+      <c r="AG15" s="173"/>
       <c r="AH15" s="96" t="s">
         <v>533</v>
       </c>
@@ -14219,7 +14234,7 @@
       <c r="AF16" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG16" s="184"/>
+      <c r="AG16" s="173"/>
       <c r="AH16" s="96" t="s">
         <v>534</v>
       </c>
@@ -15287,7 +15302,7 @@
       <c r="AF17" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG17" s="184"/>
+      <c r="AG17" s="173"/>
       <c r="AH17" s="96"/>
       <c r="AI17" s="99"/>
       <c r="AJ17" s="81"/>
@@ -16353,7 +16368,7 @@
       <c r="AF18" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG18" s="184"/>
+      <c r="AG18" s="173"/>
       <c r="AH18" s="96"/>
       <c r="AI18" s="99"/>
       <c r="AJ18" s="81"/>
@@ -17419,7 +17434,7 @@
       <c r="AF19" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG19" s="184"/>
+      <c r="AG19" s="173"/>
       <c r="AH19" s="96"/>
       <c r="AI19" s="99"/>
       <c r="AJ19" s="81"/>
@@ -18485,7 +18500,7 @@
       <c r="AF20" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG20" s="184"/>
+      <c r="AG20" s="173"/>
       <c r="AH20" s="96"/>
       <c r="AI20" s="99"/>
       <c r="AJ20" s="81"/>
@@ -19551,7 +19566,7 @@
       <c r="AF21" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG21" s="184"/>
+      <c r="AG21" s="173"/>
       <c r="AH21" s="96"/>
       <c r="AI21" s="99"/>
       <c r="AJ21" s="81"/>
@@ -20617,7 +20632,7 @@
       <c r="AF22" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG22" s="184"/>
+      <c r="AG22" s="173"/>
       <c r="AH22" s="96"/>
       <c r="AI22" s="99"/>
       <c r="AJ22" s="81"/>
@@ -21683,7 +21698,7 @@
       <c r="AF23" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG23" s="184"/>
+      <c r="AG23" s="173"/>
       <c r="AH23" s="96"/>
       <c r="AI23" s="99"/>
       <c r="AJ23" s="81"/>
@@ -22749,7 +22764,7 @@
       <c r="AF24" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG24" s="184"/>
+      <c r="AG24" s="173"/>
       <c r="AH24" s="96"/>
       <c r="AI24" s="99"/>
       <c r="AJ24" s="81"/>
@@ -23815,7 +23830,7 @@
       <c r="AF25" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG25" s="184"/>
+      <c r="AG25" s="173"/>
       <c r="AH25" s="96"/>
       <c r="AI25" s="99"/>
       <c r="AJ25" s="81"/>
@@ -24881,7 +24896,7 @@
       <c r="AF26" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG26" s="184"/>
+      <c r="AG26" s="173"/>
       <c r="AH26" s="96"/>
       <c r="AI26" s="99"/>
       <c r="AJ26" s="81"/>
@@ -25947,7 +25962,7 @@
       <c r="AF27" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG27" s="184"/>
+      <c r="AG27" s="173"/>
       <c r="AH27" s="96"/>
       <c r="AI27" s="99"/>
       <c r="AJ27" s="81"/>
@@ -26023,7 +26038,7 @@
       <c r="AF28" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG28" s="184"/>
+      <c r="AG28" s="173"/>
       <c r="AH28" s="96"/>
       <c r="AI28" s="99"/>
       <c r="AJ28" s="81"/>
@@ -27089,7 +27104,7 @@
       <c r="AF29" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG29" s="184"/>
+      <c r="AG29" s="173"/>
       <c r="AH29" s="96"/>
       <c r="AI29" s="99"/>
       <c r="AJ29" s="81"/>
@@ -28155,7 +28170,7 @@
       <c r="AF30" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG30" s="184"/>
+      <c r="AG30" s="173"/>
       <c r="AH30" s="96"/>
       <c r="AI30" s="99"/>
       <c r="AJ30" s="81"/>
@@ -29221,7 +29236,7 @@
       <c r="AF31" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG31" s="184"/>
+      <c r="AG31" s="173"/>
       <c r="AH31" s="96"/>
       <c r="AI31" s="99"/>
       <c r="AJ31" s="81"/>
@@ -30287,7 +30302,7 @@
       <c r="AF32" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG32" s="184"/>
+      <c r="AG32" s="173"/>
       <c r="AH32" s="96"/>
       <c r="AI32" s="99"/>
       <c r="AJ32" s="81"/>
@@ -31353,7 +31368,7 @@
       <c r="AF33" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG33" s="184"/>
+      <c r="AG33" s="173"/>
       <c r="AH33" s="96"/>
       <c r="AI33" s="99"/>
       <c r="AJ33" s="81"/>
@@ -32419,7 +32434,7 @@
       <c r="AF34" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG34" s="184"/>
+      <c r="AG34" s="173"/>
       <c r="AH34" s="96"/>
       <c r="AI34" s="99"/>
       <c r="AJ34" s="81"/>
@@ -33485,7 +33500,7 @@
       <c r="AF35" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG35" s="184"/>
+      <c r="AG35" s="173"/>
       <c r="AH35" s="96"/>
       <c r="AI35" s="99"/>
       <c r="AJ35" s="81"/>
@@ -34551,7 +34566,7 @@
       <c r="AF36" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG36" s="184"/>
+      <c r="AG36" s="173"/>
       <c r="AH36" s="96"/>
       <c r="AI36" s="99"/>
       <c r="AJ36" s="81"/>
@@ -34627,7 +34642,7 @@
       <c r="AF37" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG37" s="184"/>
+      <c r="AG37" s="173"/>
       <c r="AH37" s="96"/>
       <c r="AI37" s="99"/>
       <c r="AJ37" s="81"/>
@@ -34705,7 +34720,7 @@
       <c r="AF38" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG38" s="184"/>
+      <c r="AG38" s="173"/>
       <c r="AH38" s="96"/>
       <c r="AI38" s="99"/>
       <c r="AJ38" s="81"/>
@@ -34783,7 +34798,7 @@
       <c r="AF39" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG39" s="184"/>
+      <c r="AG39" s="173"/>
       <c r="AH39" s="96"/>
       <c r="AI39" s="99"/>
       <c r="AJ39" s="81"/>
@@ -35851,7 +35866,7 @@
       <c r="AF40" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG40" s="184"/>
+      <c r="AG40" s="173"/>
       <c r="AH40" s="96"/>
       <c r="AI40" s="99"/>
       <c r="AJ40" s="81"/>
@@ -36919,7 +36934,7 @@
       <c r="AF41" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG41" s="184"/>
+      <c r="AG41" s="173"/>
       <c r="AH41" s="96"/>
       <c r="AI41" s="99"/>
       <c r="AJ41" s="81"/>
@@ -37987,7 +38002,7 @@
       <c r="AF42" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG42" s="184"/>
+      <c r="AG42" s="173"/>
       <c r="AH42" s="96"/>
       <c r="AI42" s="99"/>
       <c r="AJ42" s="81"/>
@@ -39055,7 +39070,7 @@
       <c r="AF43" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG43" s="184"/>
+      <c r="AG43" s="173"/>
       <c r="AH43" s="96"/>
       <c r="AI43" s="99"/>
       <c r="AJ43" s="81"/>
@@ -40123,7 +40138,7 @@
       <c r="AF44" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG44" s="184"/>
+      <c r="AG44" s="173"/>
       <c r="AH44" s="96"/>
       <c r="AI44" s="99"/>
       <c r="AJ44" s="81"/>
@@ -41191,7 +41206,7 @@
       <c r="AF45" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG45" s="184"/>
+      <c r="AG45" s="173"/>
       <c r="AH45" s="96"/>
       <c r="AI45" s="99"/>
       <c r="AJ45" s="81"/>
@@ -42259,7 +42274,7 @@
       <c r="AF46" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG46" s="184"/>
+      <c r="AG46" s="173"/>
       <c r="AH46" s="96"/>
       <c r="AI46" s="99"/>
       <c r="AJ46" s="81"/>
@@ -43327,7 +43342,7 @@
       <c r="AF47" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG47" s="184"/>
+      <c r="AG47" s="173"/>
       <c r="AH47" s="96"/>
       <c r="AI47" s="99"/>
       <c r="AJ47" s="81"/>
@@ -44395,7 +44410,7 @@
       <c r="AF48" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG48" s="184"/>
+      <c r="AG48" s="173"/>
       <c r="AH48" s="96"/>
       <c r="AI48" s="99"/>
       <c r="AJ48" s="81"/>
@@ -45463,7 +45478,7 @@
       <c r="AF49" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG49" s="184"/>
+      <c r="AG49" s="173"/>
       <c r="AH49" s="96"/>
       <c r="AI49" s="99"/>
       <c r="AJ49" s="81"/>
@@ -46531,7 +46546,7 @@
       <c r="AF50" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG50" s="184"/>
+      <c r="AG50" s="173"/>
       <c r="AH50" s="96"/>
       <c r="AI50" s="99"/>
       <c r="AJ50" s="81"/>
@@ -46609,7 +46624,7 @@
       <c r="AF51" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG51" s="184"/>
+      <c r="AG51" s="173"/>
       <c r="AH51" s="96"/>
       <c r="AI51" s="99"/>
       <c r="AJ51" s="81"/>
@@ -47677,7 +47692,7 @@
       <c r="AF52" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG52" s="184"/>
+      <c r="AG52" s="173"/>
       <c r="AH52" s="96"/>
       <c r="AI52" s="99"/>
       <c r="AJ52" s="81"/>
@@ -48745,7 +48760,7 @@
       <c r="AF53" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG53" s="184"/>
+      <c r="AG53" s="173"/>
       <c r="AH53" s="96"/>
       <c r="AI53" s="99"/>
       <c r="AJ53" s="81"/>
@@ -49813,7 +49828,7 @@
       <c r="AF54" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG54" s="184"/>
+      <c r="AG54" s="173"/>
       <c r="AH54" s="96"/>
       <c r="AI54" s="99"/>
       <c r="AJ54" s="81"/>
@@ -50881,7 +50896,7 @@
       <c r="AF55" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG55" s="184"/>
+      <c r="AG55" s="173"/>
       <c r="AH55" s="96"/>
       <c r="AI55" s="99"/>
       <c r="AJ55" s="81"/>
@@ -51949,7 +51964,7 @@
       <c r="AF56" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="AG56" s="184"/>
+      <c r="AG56" s="173"/>
       <c r="AH56" s="96"/>
       <c r="AI56" s="99"/>
       <c r="AJ56" s="81"/>
@@ -52979,7 +52994,7 @@
       <c r="AD57" s="102"/>
       <c r="AE57" s="55"/>
       <c r="AF57" s="102"/>
-      <c r="AG57" s="184"/>
+      <c r="AG57" s="173"/>
       <c r="AH57" s="96"/>
       <c r="AI57" s="99"/>
       <c r="AJ57" s="81"/>
@@ -54009,7 +54024,7 @@
       <c r="AD58" s="102"/>
       <c r="AE58" s="55"/>
       <c r="AF58" s="102"/>
-      <c r="AG58" s="184"/>
+      <c r="AG58" s="173"/>
       <c r="AH58" s="96"/>
       <c r="AI58" s="99"/>
       <c r="AJ58" s="81"/>
@@ -55039,7 +55054,7 @@
       <c r="AD59" s="102"/>
       <c r="AE59" s="55"/>
       <c r="AF59" s="102"/>
-      <c r="AG59" s="184"/>
+      <c r="AG59" s="173"/>
       <c r="AH59" s="96"/>
       <c r="AI59" s="99"/>
       <c r="AJ59" s="81"/>
@@ -56069,7 +56084,7 @@
       <c r="AD60" s="102"/>
       <c r="AE60" s="55"/>
       <c r="AF60" s="102"/>
-      <c r="AG60" s="184"/>
+      <c r="AG60" s="173"/>
       <c r="AH60" s="96"/>
       <c r="AI60" s="99"/>
       <c r="AJ60" s="81"/>
@@ -57099,7 +57114,7 @@
       <c r="AD61" s="102"/>
       <c r="AE61" s="55"/>
       <c r="AF61" s="102"/>
-      <c r="AG61" s="184"/>
+      <c r="AG61" s="173"/>
       <c r="AH61" s="96"/>
       <c r="AI61" s="99"/>
       <c r="AJ61" s="81"/>
@@ -58129,7 +58144,7 @@
       <c r="AD62" s="102"/>
       <c r="AE62" s="55"/>
       <c r="AF62" s="102"/>
-      <c r="AG62" s="184"/>
+      <c r="AG62" s="173"/>
       <c r="AH62" s="96"/>
       <c r="AI62" s="99"/>
       <c r="AJ62" s="81"/>
@@ -59159,7 +59174,7 @@
       <c r="AD63" s="102"/>
       <c r="AE63" s="55"/>
       <c r="AF63" s="102"/>
-      <c r="AG63" s="184"/>
+      <c r="AG63" s="173"/>
       <c r="AH63" s="96"/>
       <c r="AI63" s="99"/>
       <c r="AJ63" s="81"/>
@@ -59199,7 +59214,7 @@
       <c r="AD64" s="102"/>
       <c r="AE64" s="55"/>
       <c r="AF64" s="102"/>
-      <c r="AG64" s="184"/>
+      <c r="AG64" s="173"/>
       <c r="AH64" s="96"/>
       <c r="AI64" s="99"/>
       <c r="AJ64" s="81"/>
@@ -59239,7 +59254,7 @@
       <c r="AD65" s="102"/>
       <c r="AE65" s="55"/>
       <c r="AF65" s="102"/>
-      <c r="AG65" s="184"/>
+      <c r="AG65" s="173"/>
       <c r="AH65" s="96"/>
       <c r="AI65" s="99"/>
       <c r="AJ65" s="81"/>
@@ -59279,7 +59294,7 @@
       <c r="AD66" s="102"/>
       <c r="AE66" s="55"/>
       <c r="AF66" s="102"/>
-      <c r="AG66" s="184"/>
+      <c r="AG66" s="173"/>
       <c r="AH66" s="96"/>
       <c r="AI66" s="99"/>
       <c r="AJ66" s="81"/>
@@ -59319,7 +59334,7 @@
       <c r="AD67" s="102"/>
       <c r="AE67" s="55"/>
       <c r="AF67" s="102"/>
-      <c r="AG67" s="184"/>
+      <c r="AG67" s="173"/>
       <c r="AH67" s="96"/>
       <c r="AI67" s="99"/>
       <c r="AJ67" s="81"/>
@@ -59359,7 +59374,7 @@
       <c r="AD68" s="102"/>
       <c r="AE68" s="55"/>
       <c r="AF68" s="102"/>
-      <c r="AG68" s="184"/>
+      <c r="AG68" s="173"/>
       <c r="AH68" s="96"/>
       <c r="AI68" s="99"/>
       <c r="AJ68" s="81"/>
@@ -59399,7 +59414,7 @@
       <c r="AD69" s="102"/>
       <c r="AE69" s="55"/>
       <c r="AF69" s="102"/>
-      <c r="AG69" s="184"/>
+      <c r="AG69" s="173"/>
       <c r="AH69" s="96"/>
       <c r="AI69" s="99"/>
       <c r="AJ69" s="81"/>
@@ -59439,7 +59454,7 @@
       <c r="AD70" s="102"/>
       <c r="AE70" s="55"/>
       <c r="AF70" s="102"/>
-      <c r="AG70" s="184"/>
+      <c r="AG70" s="173"/>
       <c r="AH70" s="96"/>
       <c r="AI70" s="99"/>
       <c r="AJ70" s="81"/>
@@ -59479,7 +59494,7 @@
       <c r="AD71" s="102"/>
       <c r="AE71" s="55"/>
       <c r="AF71" s="102"/>
-      <c r="AG71" s="184"/>
+      <c r="AG71" s="173"/>
       <c r="AH71" s="96"/>
       <c r="AI71" s="99"/>
       <c r="AJ71" s="81"/>
@@ -59519,7 +59534,7 @@
       <c r="AD72" s="102"/>
       <c r="AE72" s="55"/>
       <c r="AF72" s="102"/>
-      <c r="AG72" s="184"/>
+      <c r="AG72" s="173"/>
       <c r="AH72" s="96"/>
       <c r="AI72" s="99"/>
       <c r="AJ72" s="81"/>
@@ -59559,7 +59574,7 @@
       <c r="AD73" s="102"/>
       <c r="AE73" s="55"/>
       <c r="AF73" s="102"/>
-      <c r="AG73" s="184"/>
+      <c r="AG73" s="173"/>
       <c r="AH73" s="96"/>
       <c r="AI73" s="99"/>
       <c r="AJ73" s="81"/>
@@ -59599,7 +59614,7 @@
       <c r="AD74" s="102"/>
       <c r="AE74" s="55"/>
       <c r="AF74" s="102"/>
-      <c r="AG74" s="184"/>
+      <c r="AG74" s="173"/>
       <c r="AH74" s="96"/>
       <c r="AI74" s="99"/>
       <c r="AJ74" s="81"/>
@@ -59639,7 +59654,7 @@
       <c r="AD75" s="102"/>
       <c r="AE75" s="55"/>
       <c r="AF75" s="102"/>
-      <c r="AG75" s="184"/>
+      <c r="AG75" s="173"/>
       <c r="AH75" s="96"/>
       <c r="AI75" s="99"/>
       <c r="AJ75" s="81"/>
@@ -59679,7 +59694,7 @@
       <c r="AD76" s="102"/>
       <c r="AE76" s="55"/>
       <c r="AF76" s="102"/>
-      <c r="AG76" s="184"/>
+      <c r="AG76" s="173"/>
       <c r="AH76" s="96"/>
       <c r="AI76" s="99"/>
       <c r="AJ76" s="81"/>
@@ -59719,7 +59734,7 @@
       <c r="AD77" s="102"/>
       <c r="AE77" s="55"/>
       <c r="AF77" s="102"/>
-      <c r="AG77" s="184"/>
+      <c r="AG77" s="173"/>
       <c r="AH77" s="96"/>
       <c r="AI77" s="99"/>
       <c r="AJ77" s="81"/>
@@ -59759,7 +59774,7 @@
       <c r="AD78" s="102"/>
       <c r="AE78" s="55"/>
       <c r="AF78" s="102"/>
-      <c r="AG78" s="184"/>
+      <c r="AG78" s="173"/>
       <c r="AH78" s="96"/>
       <c r="AI78" s="99"/>
       <c r="AJ78" s="81"/>
@@ -59799,7 +59814,7 @@
       <c r="AD79" s="102"/>
       <c r="AE79" s="55"/>
       <c r="AF79" s="102"/>
-      <c r="AG79" s="184"/>
+      <c r="AG79" s="173"/>
       <c r="AH79" s="96"/>
       <c r="AI79" s="99"/>
       <c r="AJ79" s="81"/>
@@ -59839,7 +59854,7 @@
       <c r="AD80" s="102"/>
       <c r="AE80" s="55"/>
       <c r="AF80" s="102"/>
-      <c r="AG80" s="184"/>
+      <c r="AG80" s="173"/>
       <c r="AH80" s="96"/>
       <c r="AI80" s="99"/>
       <c r="AJ80" s="81"/>
@@ -59879,7 +59894,7 @@
       <c r="AD81" s="102"/>
       <c r="AE81" s="55"/>
       <c r="AF81" s="102"/>
-      <c r="AG81" s="184"/>
+      <c r="AG81" s="173"/>
       <c r="AH81" s="96"/>
       <c r="AI81" s="99"/>
       <c r="AJ81" s="81"/>
@@ -59919,7 +59934,7 @@
       <c r="AD82" s="102"/>
       <c r="AE82" s="55"/>
       <c r="AF82" s="102"/>
-      <c r="AG82" s="184"/>
+      <c r="AG82" s="173"/>
       <c r="AH82" s="96"/>
       <c r="AI82" s="99"/>
       <c r="AJ82" s="81"/>
@@ -59959,7 +59974,7 @@
       <c r="AD83" s="102"/>
       <c r="AE83" s="55"/>
       <c r="AF83" s="102"/>
-      <c r="AG83" s="184"/>
+      <c r="AG83" s="173"/>
       <c r="AH83" s="96"/>
       <c r="AI83" s="99"/>
       <c r="AJ83" s="81"/>
@@ -59999,7 +60014,7 @@
       <c r="AD84" s="102"/>
       <c r="AE84" s="55"/>
       <c r="AF84" s="102"/>
-      <c r="AG84" s="184"/>
+      <c r="AG84" s="173"/>
       <c r="AH84" s="96"/>
       <c r="AI84" s="99"/>
       <c r="AJ84" s="81"/>
@@ -60039,7 +60054,7 @@
       <c r="AD85" s="102"/>
       <c r="AE85" s="55"/>
       <c r="AF85" s="102"/>
-      <c r="AG85" s="184"/>
+      <c r="AG85" s="173"/>
       <c r="AH85" s="96"/>
       <c r="AI85" s="99"/>
       <c r="AJ85" s="81"/>
@@ -60079,7 +60094,7 @@
       <c r="AD86" s="102"/>
       <c r="AE86" s="55"/>
       <c r="AF86" s="102"/>
-      <c r="AG86" s="184"/>
+      <c r="AG86" s="173"/>
       <c r="AH86" s="96"/>
       <c r="AI86" s="99"/>
       <c r="AJ86" s="81"/>
@@ -60119,7 +60134,7 @@
       <c r="AD87" s="102"/>
       <c r="AE87" s="55"/>
       <c r="AF87" s="102"/>
-      <c r="AG87" s="184"/>
+      <c r="AG87" s="173"/>
       <c r="AH87" s="96"/>
       <c r="AI87" s="99"/>
       <c r="AJ87" s="81"/>
@@ -60159,7 +60174,7 @@
       <c r="AD88" s="102"/>
       <c r="AE88" s="55"/>
       <c r="AF88" s="102"/>
-      <c r="AG88" s="184"/>
+      <c r="AG88" s="173"/>
       <c r="AH88" s="96"/>
       <c r="AI88" s="99"/>
       <c r="AJ88" s="81"/>
@@ -60199,7 +60214,7 @@
       <c r="AD89" s="102"/>
       <c r="AE89" s="55"/>
       <c r="AF89" s="102"/>
-      <c r="AG89" s="184"/>
+      <c r="AG89" s="173"/>
       <c r="AH89" s="96"/>
       <c r="AI89" s="99"/>
       <c r="AJ89" s="81"/>
@@ -60239,7 +60254,7 @@
       <c r="AD90" s="102"/>
       <c r="AE90" s="55"/>
       <c r="AF90" s="102"/>
-      <c r="AG90" s="184"/>
+      <c r="AG90" s="173"/>
       <c r="AH90" s="96"/>
       <c r="AI90" s="99"/>
       <c r="AJ90" s="81"/>
@@ -60279,7 +60294,7 @@
       <c r="AD91" s="102"/>
       <c r="AE91" s="55"/>
       <c r="AF91" s="102"/>
-      <c r="AG91" s="184"/>
+      <c r="AG91" s="173"/>
       <c r="AH91" s="96"/>
       <c r="AI91" s="99"/>
       <c r="AJ91" s="81"/>
@@ -60319,7 +60334,7 @@
       <c r="AD92" s="102"/>
       <c r="AE92" s="55"/>
       <c r="AF92" s="102"/>
-      <c r="AG92" s="184"/>
+      <c r="AG92" s="173"/>
       <c r="AH92" s="96"/>
       <c r="AI92" s="99"/>
       <c r="AJ92" s="81"/>
@@ -60359,7 +60374,7 @@
       <c r="AD93" s="102"/>
       <c r="AE93" s="55"/>
       <c r="AF93" s="102"/>
-      <c r="AG93" s="184"/>
+      <c r="AG93" s="173"/>
       <c r="AH93" s="96"/>
       <c r="AI93" s="99"/>
       <c r="AJ93" s="81"/>
@@ -60399,7 +60414,7 @@
       <c r="AD94" s="102"/>
       <c r="AE94" s="55"/>
       <c r="AF94" s="102"/>
-      <c r="AG94" s="184"/>
+      <c r="AG94" s="173"/>
       <c r="AH94" s="96"/>
       <c r="AI94" s="99"/>
       <c r="AJ94" s="81"/>
@@ -60439,7 +60454,7 @@
       <c r="AD95" s="102"/>
       <c r="AE95" s="55"/>
       <c r="AF95" s="102"/>
-      <c r="AG95" s="184"/>
+      <c r="AG95" s="173"/>
       <c r="AH95" s="96"/>
       <c r="AI95" s="99"/>
       <c r="AJ95" s="81"/>
@@ -60479,7 +60494,7 @@
       <c r="AD96" s="102"/>
       <c r="AE96" s="55"/>
       <c r="AF96" s="102"/>
-      <c r="AG96" s="184"/>
+      <c r="AG96" s="173"/>
       <c r="AH96" s="96"/>
       <c r="AI96" s="99"/>
       <c r="AJ96" s="81"/>
@@ -60519,7 +60534,7 @@
       <c r="AD97" s="102"/>
       <c r="AE97" s="55"/>
       <c r="AF97" s="102"/>
-      <c r="AG97" s="184"/>
+      <c r="AG97" s="173"/>
       <c r="AH97" s="96"/>
       <c r="AI97" s="99"/>
       <c r="AJ97" s="81"/>
@@ -60559,7 +60574,7 @@
       <c r="AD98" s="102"/>
       <c r="AE98" s="55"/>
       <c r="AF98" s="102"/>
-      <c r="AG98" s="184"/>
+      <c r="AG98" s="173"/>
       <c r="AH98" s="96"/>
       <c r="AI98" s="99"/>
       <c r="AJ98" s="81"/>
@@ -60599,7 +60614,7 @@
       <c r="AD99" s="102"/>
       <c r="AE99" s="55"/>
       <c r="AF99" s="102"/>
-      <c r="AG99" s="184"/>
+      <c r="AG99" s="173"/>
       <c r="AH99" s="96"/>
       <c r="AI99" s="99"/>
       <c r="AJ99" s="81"/>
@@ -60639,7 +60654,7 @@
       <c r="AD100" s="102"/>
       <c r="AE100" s="55"/>
       <c r="AF100" s="102"/>
-      <c r="AG100" s="184"/>
+      <c r="AG100" s="173"/>
       <c r="AH100" s="96"/>
       <c r="AI100" s="99"/>
       <c r="AJ100" s="81"/>
@@ -60679,7 +60694,7 @@
       <c r="AD101" s="102"/>
       <c r="AE101" s="55"/>
       <c r="AF101" s="102"/>
-      <c r="AG101" s="184"/>
+      <c r="AG101" s="173"/>
       <c r="AH101" s="96"/>
       <c r="AI101" s="99"/>
       <c r="AJ101" s="81"/>
@@ -60719,7 +60734,7 @@
       <c r="AD102" s="102"/>
       <c r="AE102" s="55"/>
       <c r="AF102" s="102"/>
-      <c r="AG102" s="184"/>
+      <c r="AG102" s="173"/>
       <c r="AH102" s="96"/>
       <c r="AI102" s="99"/>
       <c r="AJ102" s="81"/>
@@ -60759,7 +60774,7 @@
       <c r="AD103" s="102"/>
       <c r="AE103" s="55"/>
       <c r="AF103" s="102"/>
-      <c r="AG103" s="184"/>
+      <c r="AG103" s="173"/>
       <c r="AH103" s="96"/>
       <c r="AI103" s="99"/>
       <c r="AJ103" s="81"/>
@@ -60799,7 +60814,7 @@
       <c r="AD104" s="102"/>
       <c r="AE104" s="55"/>
       <c r="AF104" s="102"/>
-      <c r="AG104" s="184"/>
+      <c r="AG104" s="173"/>
       <c r="AH104" s="96"/>
       <c r="AI104" s="99"/>
       <c r="AJ104" s="81"/>
@@ -60839,7 +60854,7 @@
       <c r="AD105" s="102"/>
       <c r="AE105" s="55"/>
       <c r="AF105" s="102"/>
-      <c r="AG105" s="184"/>
+      <c r="AG105" s="173"/>
       <c r="AH105" s="96"/>
       <c r="AI105" s="99"/>
       <c r="AJ105" s="81"/>
@@ -60879,7 +60894,7 @@
       <c r="AD106" s="102"/>
       <c r="AE106" s="55"/>
       <c r="AF106" s="102"/>
-      <c r="AG106" s="184"/>
+      <c r="AG106" s="173"/>
       <c r="AH106" s="96"/>
       <c r="AI106" s="99"/>
       <c r="AJ106" s="81"/>
@@ -60919,7 +60934,7 @@
       <c r="AD107" s="102"/>
       <c r="AE107" s="55"/>
       <c r="AF107" s="102"/>
-      <c r="AG107" s="184"/>
+      <c r="AG107" s="173"/>
       <c r="AH107" s="96"/>
       <c r="AI107" s="99"/>
       <c r="AJ107" s="81"/>
@@ -60959,7 +60974,7 @@
       <c r="AD108" s="102"/>
       <c r="AE108" s="55"/>
       <c r="AF108" s="102"/>
-      <c r="AG108" s="184"/>
+      <c r="AG108" s="173"/>
       <c r="AH108" s="96"/>
       <c r="AI108" s="99"/>
       <c r="AJ108" s="81"/>
@@ -60999,7 +61014,7 @@
       <c r="AD109" s="102"/>
       <c r="AE109" s="55"/>
       <c r="AF109" s="102"/>
-      <c r="AG109" s="184"/>
+      <c r="AG109" s="173"/>
       <c r="AH109" s="96"/>
       <c r="AI109" s="99"/>
       <c r="AJ109" s="81"/>
@@ -61039,7 +61054,7 @@
       <c r="AD110" s="102"/>
       <c r="AE110" s="55"/>
       <c r="AF110" s="102"/>
-      <c r="AG110" s="184"/>
+      <c r="AG110" s="173"/>
       <c r="AH110" s="96"/>
       <c r="AI110" s="99"/>
       <c r="AJ110" s="81"/>
@@ -61079,7 +61094,7 @@
       <c r="AD111" s="102"/>
       <c r="AE111" s="55"/>
       <c r="AF111" s="102"/>
-      <c r="AG111" s="184"/>
+      <c r="AG111" s="173"/>
       <c r="AH111" s="96"/>
       <c r="AI111" s="99"/>
       <c r="AJ111" s="81"/>
@@ -61119,7 +61134,7 @@
       <c r="AD112" s="102"/>
       <c r="AE112" s="55"/>
       <c r="AF112" s="102"/>
-      <c r="AG112" s="184"/>
+      <c r="AG112" s="173"/>
       <c r="AH112" s="96"/>
       <c r="AI112" s="99"/>
       <c r="AJ112" s="81"/>
@@ -61159,7 +61174,7 @@
       <c r="AD113" s="102"/>
       <c r="AE113" s="55"/>
       <c r="AF113" s="102"/>
-      <c r="AG113" s="184"/>
+      <c r="AG113" s="173"/>
       <c r="AH113" s="96"/>
       <c r="AI113" s="99"/>
       <c r="AJ113" s="81"/>
@@ -61199,7 +61214,7 @@
       <c r="AD114" s="102"/>
       <c r="AE114" s="55"/>
       <c r="AF114" s="102"/>
-      <c r="AG114" s="184"/>
+      <c r="AG114" s="173"/>
       <c r="AH114" s="96"/>
       <c r="AI114" s="99"/>
       <c r="AJ114" s="81"/>
@@ -61239,7 +61254,7 @@
       <c r="AD115" s="102"/>
       <c r="AE115" s="55"/>
       <c r="AF115" s="102"/>
-      <c r="AG115" s="184"/>
+      <c r="AG115" s="173"/>
       <c r="AH115" s="96"/>
       <c r="AI115" s="99"/>
       <c r="AJ115" s="81"/>
@@ -61279,7 +61294,7 @@
       <c r="AD116" s="102"/>
       <c r="AE116" s="55"/>
       <c r="AF116" s="102"/>
-      <c r="AG116" s="184"/>
+      <c r="AG116" s="173"/>
       <c r="AH116" s="96"/>
       <c r="AI116" s="99"/>
       <c r="AJ116" s="81"/>
@@ -61319,7 +61334,7 @@
       <c r="AD117" s="102"/>
       <c r="AE117" s="55"/>
       <c r="AF117" s="102"/>
-      <c r="AG117" s="184"/>
+      <c r="AG117" s="173"/>
       <c r="AH117" s="96"/>
       <c r="AI117" s="99"/>
       <c r="AJ117" s="81"/>
@@ -61359,7 +61374,7 @@
       <c r="AD118" s="102"/>
       <c r="AE118" s="55"/>
       <c r="AF118" s="102"/>
-      <c r="AG118" s="184"/>
+      <c r="AG118" s="173"/>
       <c r="AH118" s="96"/>
       <c r="AI118" s="99"/>
       <c r="AJ118" s="81"/>
@@ -61399,7 +61414,7 @@
       <c r="AD119" s="102"/>
       <c r="AE119" s="55"/>
       <c r="AF119" s="102"/>
-      <c r="AG119" s="184"/>
+      <c r="AG119" s="173"/>
       <c r="AH119" s="96"/>
       <c r="AI119" s="99"/>
       <c r="AJ119" s="81"/>
@@ -61439,7 +61454,7 @@
       <c r="AD120" s="102"/>
       <c r="AE120" s="55"/>
       <c r="AF120" s="102"/>
-      <c r="AG120" s="184"/>
+      <c r="AG120" s="173"/>
       <c r="AH120" s="96"/>
       <c r="AI120" s="99"/>
       <c r="AJ120" s="81"/>
@@ -61479,7 +61494,7 @@
       <c r="AD121" s="102"/>
       <c r="AE121" s="55"/>
       <c r="AF121" s="102"/>
-      <c r="AG121" s="184"/>
+      <c r="AG121" s="173"/>
       <c r="AH121" s="96"/>
       <c r="AI121" s="99"/>
       <c r="AJ121" s="81"/>
@@ -61519,7 +61534,7 @@
       <c r="AD122" s="102"/>
       <c r="AE122" s="55"/>
       <c r="AF122" s="102"/>
-      <c r="AG122" s="184"/>
+      <c r="AG122" s="173"/>
       <c r="AH122" s="96"/>
       <c r="AI122" s="99"/>
       <c r="AJ122" s="81"/>
@@ -61559,7 +61574,7 @@
       <c r="AD123" s="102"/>
       <c r="AE123" s="55"/>
       <c r="AF123" s="102"/>
-      <c r="AG123" s="184"/>
+      <c r="AG123" s="173"/>
       <c r="AH123" s="96"/>
       <c r="AI123" s="99"/>
       <c r="AJ123" s="81"/>
@@ -61599,7 +61614,7 @@
       <c r="AD124" s="102"/>
       <c r="AE124" s="55"/>
       <c r="AF124" s="102"/>
-      <c r="AG124" s="184"/>
+      <c r="AG124" s="173"/>
       <c r="AH124" s="96"/>
       <c r="AI124" s="99"/>
       <c r="AJ124" s="81"/>
@@ -61639,7 +61654,7 @@
       <c r="AD125" s="102"/>
       <c r="AE125" s="55"/>
       <c r="AF125" s="102"/>
-      <c r="AG125" s="184"/>
+      <c r="AG125" s="173"/>
       <c r="AH125" s="96"/>
       <c r="AI125" s="99"/>
       <c r="AJ125" s="81"/>
@@ -61679,7 +61694,7 @@
       <c r="AD126" s="102"/>
       <c r="AE126" s="55"/>
       <c r="AF126" s="102"/>
-      <c r="AG126" s="184"/>
+      <c r="AG126" s="173"/>
       <c r="AH126" s="96"/>
       <c r="AI126" s="99"/>
       <c r="AJ126" s="81"/>
@@ -61719,7 +61734,7 @@
       <c r="AD127" s="102"/>
       <c r="AE127" s="55"/>
       <c r="AF127" s="102"/>
-      <c r="AG127" s="184"/>
+      <c r="AG127" s="173"/>
       <c r="AH127" s="96"/>
       <c r="AI127" s="99"/>
       <c r="AJ127" s="81"/>
@@ -61759,7 +61774,7 @@
       <c r="AD128" s="102"/>
       <c r="AE128" s="55"/>
       <c r="AF128" s="102"/>
-      <c r="AG128" s="184"/>
+      <c r="AG128" s="173"/>
       <c r="AH128" s="96"/>
       <c r="AI128" s="99"/>
       <c r="AJ128" s="81"/>
@@ -61799,7 +61814,7 @@
       <c r="AD129" s="102"/>
       <c r="AE129" s="55"/>
       <c r="AF129" s="102"/>
-      <c r="AG129" s="184"/>
+      <c r="AG129" s="173"/>
       <c r="AH129" s="96"/>
       <c r="AI129" s="99"/>
       <c r="AJ129" s="81"/>
@@ -61839,7 +61854,7 @@
       <c r="AD130" s="102"/>
       <c r="AE130" s="55"/>
       <c r="AF130" s="102"/>
-      <c r="AG130" s="184"/>
+      <c r="AG130" s="173"/>
       <c r="AH130" s="96"/>
       <c r="AI130" s="99"/>
       <c r="AJ130" s="81"/>
@@ -61879,7 +61894,7 @@
       <c r="AD131" s="102"/>
       <c r="AE131" s="55"/>
       <c r="AF131" s="102"/>
-      <c r="AG131" s="184"/>
+      <c r="AG131" s="173"/>
       <c r="AH131" s="96"/>
       <c r="AI131" s="99"/>
       <c r="AJ131" s="81"/>
@@ -61919,7 +61934,7 @@
       <c r="AD132" s="102"/>
       <c r="AE132" s="55"/>
       <c r="AF132" s="102"/>
-      <c r="AG132" s="184"/>
+      <c r="AG132" s="173"/>
       <c r="AH132" s="96"/>
       <c r="AI132" s="99"/>
       <c r="AJ132" s="81"/>
@@ -61959,7 +61974,7 @@
       <c r="AD133" s="102"/>
       <c r="AE133" s="55"/>
       <c r="AF133" s="102"/>
-      <c r="AG133" s="184"/>
+      <c r="AG133" s="173"/>
       <c r="AH133" s="96"/>
       <c r="AI133" s="99"/>
       <c r="AJ133" s="81"/>
@@ -61999,7 +62014,7 @@
       <c r="AD134" s="102"/>
       <c r="AE134" s="55"/>
       <c r="AF134" s="102"/>
-      <c r="AG134" s="184"/>
+      <c r="AG134" s="173"/>
       <c r="AH134" s="96"/>
       <c r="AI134" s="99"/>
       <c r="AJ134" s="81"/>
@@ -62039,7 +62054,7 @@
       <c r="AD135" s="102"/>
       <c r="AE135" s="55"/>
       <c r="AF135" s="102"/>
-      <c r="AG135" s="184"/>
+      <c r="AG135" s="173"/>
       <c r="AH135" s="96"/>
       <c r="AI135" s="99"/>
       <c r="AJ135" s="81"/>
@@ -62079,7 +62094,7 @@
       <c r="AD136" s="102"/>
       <c r="AE136" s="55"/>
       <c r="AF136" s="102"/>
-      <c r="AG136" s="184"/>
+      <c r="AG136" s="173"/>
       <c r="AH136" s="96"/>
       <c r="AI136" s="99"/>
       <c r="AJ136" s="81"/>
@@ -62119,7 +62134,7 @@
       <c r="AD137" s="102"/>
       <c r="AE137" s="55"/>
       <c r="AF137" s="102"/>
-      <c r="AG137" s="184"/>
+      <c r="AG137" s="173"/>
       <c r="AH137" s="96"/>
       <c r="AI137" s="99"/>
       <c r="AJ137" s="81"/>
@@ -62159,7 +62174,7 @@
       <c r="AD138" s="102"/>
       <c r="AE138" s="55"/>
       <c r="AF138" s="102"/>
-      <c r="AG138" s="184"/>
+      <c r="AG138" s="173"/>
       <c r="AH138" s="96"/>
       <c r="AI138" s="99"/>
       <c r="AJ138" s="81"/>
@@ -62199,7 +62214,7 @@
       <c r="AD139" s="102"/>
       <c r="AE139" s="55"/>
       <c r="AF139" s="102"/>
-      <c r="AG139" s="184"/>
+      <c r="AG139" s="173"/>
       <c r="AH139" s="96"/>
       <c r="AI139" s="99"/>
       <c r="AJ139" s="81"/>
@@ -62239,7 +62254,7 @@
       <c r="AD140" s="102"/>
       <c r="AE140" s="55"/>
       <c r="AF140" s="102"/>
-      <c r="AG140" s="184"/>
+      <c r="AG140" s="173"/>
       <c r="AH140" s="96"/>
       <c r="AI140" s="99"/>
       <c r="AJ140" s="81"/>
@@ -62279,7 +62294,7 @@
       <c r="AD141" s="102"/>
       <c r="AE141" s="55"/>
       <c r="AF141" s="102"/>
-      <c r="AG141" s="184"/>
+      <c r="AG141" s="173"/>
       <c r="AH141" s="96"/>
       <c r="AI141" s="99"/>
       <c r="AJ141" s="81"/>
@@ -62319,7 +62334,7 @@
       <c r="AD142" s="102"/>
       <c r="AE142" s="55"/>
       <c r="AF142" s="102"/>
-      <c r="AG142" s="184"/>
+      <c r="AG142" s="173"/>
       <c r="AH142" s="96"/>
       <c r="AI142" s="99"/>
       <c r="AJ142" s="81"/>
@@ -62359,7 +62374,7 @@
       <c r="AD143" s="102"/>
       <c r="AE143" s="55"/>
       <c r="AF143" s="102"/>
-      <c r="AG143" s="184"/>
+      <c r="AG143" s="173"/>
       <c r="AH143" s="96"/>
       <c r="AI143" s="99"/>
       <c r="AJ143" s="81"/>
@@ -62399,7 +62414,7 @@
       <c r="AD144" s="102"/>
       <c r="AE144" s="55"/>
       <c r="AF144" s="102"/>
-      <c r="AG144" s="184"/>
+      <c r="AG144" s="173"/>
       <c r="AH144" s="96"/>
       <c r="AI144" s="99"/>
       <c r="AJ144" s="81"/>
@@ -62439,7 +62454,7 @@
       <c r="AD145" s="102"/>
       <c r="AE145" s="55"/>
       <c r="AF145" s="102"/>
-      <c r="AG145" s="184"/>
+      <c r="AG145" s="173"/>
       <c r="AH145" s="96"/>
       <c r="AI145" s="99"/>
       <c r="AJ145" s="81"/>
@@ -62479,7 +62494,7 @@
       <c r="AD146" s="102"/>
       <c r="AE146" s="55"/>
       <c r="AF146" s="102"/>
-      <c r="AG146" s="184"/>
+      <c r="AG146" s="173"/>
       <c r="AH146" s="96"/>
       <c r="AI146" s="99"/>
       <c r="AJ146" s="81"/>
@@ -62519,7 +62534,7 @@
       <c r="AD147" s="102"/>
       <c r="AE147" s="55"/>
       <c r="AF147" s="102"/>
-      <c r="AG147" s="184"/>
+      <c r="AG147" s="173"/>
       <c r="AH147" s="96"/>
       <c r="AI147" s="99"/>
       <c r="AJ147" s="81"/>
@@ -62559,7 +62574,7 @@
       <c r="AD148" s="102"/>
       <c r="AE148" s="55"/>
       <c r="AF148" s="102"/>
-      <c r="AG148" s="184"/>
+      <c r="AG148" s="173"/>
       <c r="AH148" s="96"/>
       <c r="AI148" s="99"/>
       <c r="AJ148" s="81"/>
@@ -62599,7 +62614,7 @@
       <c r="AD149" s="102"/>
       <c r="AE149" s="55"/>
       <c r="AF149" s="102"/>
-      <c r="AG149" s="184"/>
+      <c r="AG149" s="173"/>
       <c r="AH149" s="96"/>
       <c r="AI149" s="99"/>
       <c r="AJ149" s="81"/>
@@ -62639,7 +62654,7 @@
       <c r="AD150" s="102"/>
       <c r="AE150" s="55"/>
       <c r="AF150" s="102"/>
-      <c r="AG150" s="184"/>
+      <c r="AG150" s="173"/>
       <c r="AH150" s="96"/>
       <c r="AI150" s="99"/>
       <c r="AJ150" s="81"/>
@@ -62679,7 +62694,7 @@
       <c r="AD151" s="102"/>
       <c r="AE151" s="55"/>
       <c r="AF151" s="102"/>
-      <c r="AG151" s="184"/>
+      <c r="AG151" s="173"/>
       <c r="AH151" s="96"/>
       <c r="AI151" s="99"/>
       <c r="AJ151" s="81"/>
@@ -62719,7 +62734,7 @@
       <c r="AD152" s="102"/>
       <c r="AE152" s="55"/>
       <c r="AF152" s="102"/>
-      <c r="AG152" s="184"/>
+      <c r="AG152" s="173"/>
       <c r="AH152" s="96"/>
       <c r="AI152" s="99"/>
       <c r="AJ152" s="81"/>
@@ -62759,7 +62774,7 @@
       <c r="AD153" s="102"/>
       <c r="AE153" s="55"/>
       <c r="AF153" s="102"/>
-      <c r="AG153" s="184"/>
+      <c r="AG153" s="173"/>
       <c r="AH153" s="96"/>
       <c r="AI153" s="99"/>
       <c r="AJ153" s="81"/>
@@ -62799,7 +62814,7 @@
       <c r="AD154" s="102"/>
       <c r="AE154" s="55"/>
       <c r="AF154" s="102"/>
-      <c r="AG154" s="184"/>
+      <c r="AG154" s="173"/>
       <c r="AH154" s="96"/>
       <c r="AI154" s="99"/>
       <c r="AJ154" s="81"/>
@@ -62839,7 +62854,7 @@
       <c r="AD155" s="102"/>
       <c r="AE155" s="55"/>
       <c r="AF155" s="102"/>
-      <c r="AG155" s="184"/>
+      <c r="AG155" s="173"/>
       <c r="AH155" s="96"/>
       <c r="AI155" s="99"/>
       <c r="AJ155" s="81"/>
@@ -62879,7 +62894,7 @@
       <c r="AD156" s="102"/>
       <c r="AE156" s="55"/>
       <c r="AF156" s="102"/>
-      <c r="AG156" s="184"/>
+      <c r="AG156" s="173"/>
       <c r="AH156" s="96"/>
       <c r="AI156" s="99"/>
       <c r="AJ156" s="81"/>
@@ -62919,7 +62934,7 @@
       <c r="AD157" s="102"/>
       <c r="AE157" s="55"/>
       <c r="AF157" s="102"/>
-      <c r="AG157" s="184"/>
+      <c r="AG157" s="173"/>
       <c r="AH157" s="96"/>
       <c r="AI157" s="99"/>
       <c r="AJ157" s="81"/>
@@ -62959,7 +62974,7 @@
       <c r="AD158" s="102"/>
       <c r="AE158" s="55"/>
       <c r="AF158" s="102"/>
-      <c r="AG158" s="184"/>
+      <c r="AG158" s="173"/>
       <c r="AH158" s="96"/>
       <c r="AI158" s="99"/>
       <c r="AJ158" s="81"/>
@@ -62999,7 +63014,7 @@
       <c r="AD159" s="102"/>
       <c r="AE159" s="55"/>
       <c r="AF159" s="102"/>
-      <c r="AG159" s="184"/>
+      <c r="AG159" s="173"/>
       <c r="AH159" s="96"/>
       <c r="AI159" s="99"/>
       <c r="AJ159" s="81"/>
@@ -63039,7 +63054,7 @@
       <c r="AD160" s="102"/>
       <c r="AE160" s="55"/>
       <c r="AF160" s="102"/>
-      <c r="AG160" s="184"/>
+      <c r="AG160" s="173"/>
       <c r="AH160" s="96"/>
       <c r="AI160" s="99"/>
       <c r="AJ160" s="81"/>
@@ -63079,7 +63094,7 @@
       <c r="AD161" s="102"/>
       <c r="AE161" s="55"/>
       <c r="AF161" s="102"/>
-      <c r="AG161" s="184"/>
+      <c r="AG161" s="173"/>
       <c r="AH161" s="96"/>
       <c r="AI161" s="99"/>
       <c r="AJ161" s="81"/>
@@ -63119,7 +63134,7 @@
       <c r="AD162" s="102"/>
       <c r="AE162" s="55"/>
       <c r="AF162" s="102"/>
-      <c r="AG162" s="184"/>
+      <c r="AG162" s="173"/>
       <c r="AH162" s="96"/>
       <c r="AI162" s="99"/>
       <c r="AJ162" s="81"/>
@@ -63159,7 +63174,7 @@
       <c r="AD163" s="102"/>
       <c r="AE163" s="55"/>
       <c r="AF163" s="102"/>
-      <c r="AG163" s="184"/>
+      <c r="AG163" s="173"/>
       <c r="AH163" s="96"/>
       <c r="AI163" s="99"/>
       <c r="AJ163" s="81"/>
@@ -63199,7 +63214,7 @@
       <c r="AD164" s="102"/>
       <c r="AE164" s="55"/>
       <c r="AF164" s="102"/>
-      <c r="AG164" s="184"/>
+      <c r="AG164" s="173"/>
       <c r="AH164" s="96"/>
       <c r="AI164" s="99"/>
       <c r="AJ164" s="81"/>
@@ -63239,7 +63254,7 @@
       <c r="AD165" s="102"/>
       <c r="AE165" s="55"/>
       <c r="AF165" s="102"/>
-      <c r="AG165" s="184"/>
+      <c r="AG165" s="173"/>
       <c r="AH165" s="96"/>
       <c r="AI165" s="99"/>
       <c r="AJ165" s="81"/>
@@ -63279,7 +63294,7 @@
       <c r="AD166" s="102"/>
       <c r="AE166" s="55"/>
       <c r="AF166" s="102"/>
-      <c r="AG166" s="184"/>
+      <c r="AG166" s="173"/>
       <c r="AH166" s="96"/>
       <c r="AI166" s="99"/>
       <c r="AJ166" s="81"/>
@@ -63319,7 +63334,7 @@
       <c r="AD167" s="102"/>
       <c r="AE167" s="55"/>
       <c r="AF167" s="102"/>
-      <c r="AG167" s="184"/>
+      <c r="AG167" s="173"/>
       <c r="AH167" s="96"/>
       <c r="AI167" s="99"/>
       <c r="AJ167" s="81"/>
@@ -63359,7 +63374,7 @@
       <c r="AD168" s="102"/>
       <c r="AE168" s="55"/>
       <c r="AF168" s="102"/>
-      <c r="AG168" s="184"/>
+      <c r="AG168" s="173"/>
       <c r="AH168" s="96"/>
       <c r="AI168" s="99"/>
       <c r="AJ168" s="81"/>
@@ -63399,7 +63414,7 @@
       <c r="AD169" s="102"/>
       <c r="AE169" s="55"/>
       <c r="AF169" s="102"/>
-      <c r="AG169" s="184"/>
+      <c r="AG169" s="173"/>
       <c r="AH169" s="96"/>
       <c r="AI169" s="99"/>
       <c r="AJ169" s="81"/>
@@ -63439,7 +63454,7 @@
       <c r="AD170" s="102"/>
       <c r="AE170" s="55"/>
       <c r="AF170" s="102"/>
-      <c r="AG170" s="184"/>
+      <c r="AG170" s="173"/>
       <c r="AH170" s="96"/>
       <c r="AI170" s="99"/>
       <c r="AJ170" s="81"/>
@@ -63479,7 +63494,7 @@
       <c r="AD171" s="102"/>
       <c r="AE171" s="55"/>
       <c r="AF171" s="102"/>
-      <c r="AG171" s="184"/>
+      <c r="AG171" s="173"/>
       <c r="AH171" s="96"/>
       <c r="AI171" s="99"/>
       <c r="AJ171" s="81"/>
@@ -63519,7 +63534,7 @@
       <c r="AD172" s="102"/>
       <c r="AE172" s="55"/>
       <c r="AF172" s="102"/>
-      <c r="AG172" s="184"/>
+      <c r="AG172" s="173"/>
       <c r="AH172" s="96"/>
       <c r="AI172" s="99"/>
       <c r="AJ172" s="81"/>
@@ -63559,7 +63574,7 @@
       <c r="AD173" s="102"/>
       <c r="AE173" s="55"/>
       <c r="AF173" s="102"/>
-      <c r="AG173" s="184"/>
+      <c r="AG173" s="173"/>
       <c r="AH173" s="96"/>
       <c r="AI173" s="99"/>
       <c r="AJ173" s="81"/>
@@ -63599,7 +63614,7 @@
       <c r="AD174" s="102"/>
       <c r="AE174" s="55"/>
       <c r="AF174" s="102"/>
-      <c r="AG174" s="184"/>
+      <c r="AG174" s="173"/>
       <c r="AH174" s="96"/>
       <c r="AI174" s="99"/>
       <c r="AJ174" s="81"/>
@@ -63639,7 +63654,7 @@
       <c r="AD175" s="102"/>
       <c r="AE175" s="55"/>
       <c r="AF175" s="102"/>
-      <c r="AG175" s="184"/>
+      <c r="AG175" s="173"/>
       <c r="AH175" s="96"/>
       <c r="AI175" s="99"/>
       <c r="AJ175" s="81"/>
@@ -63679,7 +63694,7 @@
       <c r="AD176" s="102"/>
       <c r="AE176" s="55"/>
       <c r="AF176" s="102"/>
-      <c r="AG176" s="184"/>
+      <c r="AG176" s="173"/>
       <c r="AH176" s="96"/>
       <c r="AI176" s="99"/>
       <c r="AJ176" s="81"/>
@@ -63719,7 +63734,7 @@
       <c r="AD177" s="102"/>
       <c r="AE177" s="55"/>
       <c r="AF177" s="102"/>
-      <c r="AG177" s="184"/>
+      <c r="AG177" s="173"/>
       <c r="AH177" s="96"/>
       <c r="AI177" s="99"/>
       <c r="AJ177" s="81"/>
@@ -63759,7 +63774,7 @@
       <c r="AD178" s="102"/>
       <c r="AE178" s="55"/>
       <c r="AF178" s="102"/>
-      <c r="AG178" s="184"/>
+      <c r="AG178" s="173"/>
       <c r="AH178" s="96"/>
       <c r="AI178" s="99"/>
       <c r="AJ178" s="81"/>
@@ -63799,7 +63814,7 @@
       <c r="AD179" s="102"/>
       <c r="AE179" s="55"/>
       <c r="AF179" s="102"/>
-      <c r="AG179" s="184"/>
+      <c r="AG179" s="173"/>
       <c r="AH179" s="96"/>
       <c r="AI179" s="99"/>
       <c r="AJ179" s="81"/>
@@ -63839,7 +63854,7 @@
       <c r="AD180" s="102"/>
       <c r="AE180" s="55"/>
       <c r="AF180" s="102"/>
-      <c r="AG180" s="184"/>
+      <c r="AG180" s="173"/>
       <c r="AH180" s="96"/>
       <c r="AI180" s="99"/>
       <c r="AJ180" s="81"/>
@@ -63879,7 +63894,7 @@
       <c r="AD181" s="102"/>
       <c r="AE181" s="55"/>
       <c r="AF181" s="102"/>
-      <c r="AG181" s="184"/>
+      <c r="AG181" s="173"/>
       <c r="AH181" s="96"/>
       <c r="AI181" s="99"/>
       <c r="AJ181" s="81"/>
@@ -63919,7 +63934,7 @@
       <c r="AD182" s="102"/>
       <c r="AE182" s="55"/>
       <c r="AF182" s="102"/>
-      <c r="AG182" s="184"/>
+      <c r="AG182" s="173"/>
       <c r="AH182" s="96"/>
       <c r="AI182" s="99"/>
       <c r="AJ182" s="81"/>
@@ -63959,7 +63974,7 @@
       <c r="AD183" s="102"/>
       <c r="AE183" s="55"/>
       <c r="AF183" s="102"/>
-      <c r="AG183" s="184"/>
+      <c r="AG183" s="173"/>
       <c r="AH183" s="96"/>
       <c r="AI183" s="99"/>
       <c r="AJ183" s="81"/>
@@ -63999,7 +64014,7 @@
       <c r="AD184" s="102"/>
       <c r="AE184" s="55"/>
       <c r="AF184" s="102"/>
-      <c r="AG184" s="184"/>
+      <c r="AG184" s="173"/>
       <c r="AH184" s="96"/>
       <c r="AI184" s="99"/>
       <c r="AJ184" s="81"/>
@@ -64039,7 +64054,7 @@
       <c r="AD185" s="102"/>
       <c r="AE185" s="55"/>
       <c r="AF185" s="102"/>
-      <c r="AG185" s="184"/>
+      <c r="AG185" s="173"/>
       <c r="AH185" s="96"/>
       <c r="AI185" s="99"/>
       <c r="AJ185" s="81"/>
@@ -64079,7 +64094,7 @@
       <c r="AD186" s="102"/>
       <c r="AE186" s="55"/>
       <c r="AF186" s="102"/>
-      <c r="AG186" s="184"/>
+      <c r="AG186" s="173"/>
       <c r="AH186" s="96"/>
       <c r="AI186" s="99"/>
       <c r="AJ186" s="81"/>
@@ -64119,7 +64134,7 @@
       <c r="AD187" s="102"/>
       <c r="AE187" s="55"/>
       <c r="AF187" s="102"/>
-      <c r="AG187" s="184"/>
+      <c r="AG187" s="173"/>
       <c r="AH187" s="96"/>
       <c r="AI187" s="99"/>
       <c r="AJ187" s="81"/>
@@ -64159,7 +64174,7 @@
       <c r="AD188" s="102"/>
       <c r="AE188" s="55"/>
       <c r="AF188" s="102"/>
-      <c r="AG188" s="184"/>
+      <c r="AG188" s="173"/>
       <c r="AH188" s="96"/>
       <c r="AI188" s="99"/>
       <c r="AJ188" s="81"/>
@@ -64199,7 +64214,7 @@
       <c r="AD189" s="102"/>
       <c r="AE189" s="55"/>
       <c r="AF189" s="102"/>
-      <c r="AG189" s="184"/>
+      <c r="AG189" s="173"/>
       <c r="AH189" s="96"/>
       <c r="AI189" s="99"/>
       <c r="AJ189" s="81"/>
@@ -64239,7 +64254,7 @@
       <c r="AD190" s="102"/>
       <c r="AE190" s="55"/>
       <c r="AF190" s="102"/>
-      <c r="AG190" s="184"/>
+      <c r="AG190" s="173"/>
       <c r="AH190" s="96"/>
       <c r="AI190" s="99"/>
       <c r="AJ190" s="81"/>
@@ -64279,7 +64294,7 @@
       <c r="AD191" s="102"/>
       <c r="AE191" s="55"/>
       <c r="AF191" s="102"/>
-      <c r="AG191" s="184"/>
+      <c r="AG191" s="173"/>
       <c r="AH191" s="96"/>
       <c r="AI191" s="99"/>
       <c r="AJ191" s="81"/>
@@ -64319,7 +64334,7 @@
       <c r="AD192" s="102"/>
       <c r="AE192" s="55"/>
       <c r="AF192" s="102"/>
-      <c r="AG192" s="184"/>
+      <c r="AG192" s="173"/>
       <c r="AH192" s="96"/>
       <c r="AI192" s="99"/>
       <c r="AJ192" s="81"/>
@@ -64359,7 +64374,7 @@
       <c r="AD193" s="102"/>
       <c r="AE193" s="55"/>
       <c r="AF193" s="102"/>
-      <c r="AG193" s="184"/>
+      <c r="AG193" s="173"/>
       <c r="AH193" s="96"/>
       <c r="AI193" s="99"/>
       <c r="AJ193" s="81"/>
@@ -64399,7 +64414,7 @@
       <c r="AD194" s="102"/>
       <c r="AE194" s="55"/>
       <c r="AF194" s="102"/>
-      <c r="AG194" s="184"/>
+      <c r="AG194" s="173"/>
       <c r="AH194" s="96"/>
       <c r="AI194" s="99"/>
       <c r="AJ194" s="81"/>
@@ -64439,7 +64454,7 @@
       <c r="AD195" s="102"/>
       <c r="AE195" s="55"/>
       <c r="AF195" s="102"/>
-      <c r="AG195" s="184"/>
+      <c r="AG195" s="173"/>
       <c r="AH195" s="96"/>
       <c r="AI195" s="99"/>
       <c r="AJ195" s="81"/>
@@ -64479,7 +64494,7 @@
       <c r="AD196" s="102"/>
       <c r="AE196" s="55"/>
       <c r="AF196" s="102"/>
-      <c r="AG196" s="184"/>
+      <c r="AG196" s="173"/>
       <c r="AH196" s="96"/>
       <c r="AI196" s="99"/>
       <c r="AJ196" s="81"/>
@@ -64519,7 +64534,7 @@
       <c r="AD197" s="102"/>
       <c r="AE197" s="55"/>
       <c r="AF197" s="102"/>
-      <c r="AG197" s="184"/>
+      <c r="AG197" s="173"/>
       <c r="AH197" s="96"/>
       <c r="AI197" s="99"/>
       <c r="AJ197" s="81"/>
@@ -64559,7 +64574,7 @@
       <c r="AD198" s="102"/>
       <c r="AE198" s="55"/>
       <c r="AF198" s="102"/>
-      <c r="AG198" s="184"/>
+      <c r="AG198" s="173"/>
       <c r="AH198" s="96"/>
       <c r="AI198" s="99"/>
       <c r="AJ198" s="81"/>
@@ -64599,7 +64614,7 @@
       <c r="AD199" s="102"/>
       <c r="AE199" s="55"/>
       <c r="AF199" s="102"/>
-      <c r="AG199" s="184"/>
+      <c r="AG199" s="173"/>
       <c r="AH199" s="96"/>
       <c r="AI199" s="99"/>
       <c r="AJ199" s="81"/>
@@ -64639,7 +64654,7 @@
       <c r="AD200" s="102"/>
       <c r="AE200" s="55"/>
       <c r="AF200" s="102"/>
-      <c r="AG200" s="184"/>
+      <c r="AG200" s="173"/>
       <c r="AH200" s="96"/>
       <c r="AI200" s="99"/>
       <c r="AJ200" s="81"/>
@@ -64679,7 +64694,7 @@
       <c r="AD201" s="102"/>
       <c r="AE201" s="55"/>
       <c r="AF201" s="102"/>
-      <c r="AG201" s="184"/>
+      <c r="AG201" s="173"/>
       <c r="AH201" s="96"/>
       <c r="AI201" s="99"/>
       <c r="AJ201" s="81"/>
@@ -64719,7 +64734,7 @@
       <c r="AD202" s="102"/>
       <c r="AE202" s="55"/>
       <c r="AF202" s="102"/>
-      <c r="AG202" s="184"/>
+      <c r="AG202" s="173"/>
       <c r="AH202" s="96"/>
       <c r="AI202" s="99"/>
       <c r="AJ202" s="81"/>
@@ -64759,7 +64774,7 @@
       <c r="AD203" s="102"/>
       <c r="AE203" s="55"/>
       <c r="AF203" s="102"/>
-      <c r="AG203" s="184"/>
+      <c r="AG203" s="173"/>
       <c r="AH203" s="96"/>
       <c r="AI203" s="99"/>
       <c r="AJ203" s="81"/>
@@ -64799,7 +64814,7 @@
       <c r="AD204" s="102"/>
       <c r="AE204" s="55"/>
       <c r="AF204" s="102"/>
-      <c r="AG204" s="184"/>
+      <c r="AG204" s="173"/>
       <c r="AH204" s="96"/>
       <c r="AI204" s="99"/>
       <c r="AJ204" s="81"/>
@@ -64839,7 +64854,7 @@
       <c r="AD205" s="102"/>
       <c r="AE205" s="55"/>
       <c r="AF205" s="102"/>
-      <c r="AG205" s="184"/>
+      <c r="AG205" s="173"/>
       <c r="AH205" s="96"/>
       <c r="AI205" s="99"/>
       <c r="AJ205" s="81"/>
@@ -64879,7 +64894,7 @@
       <c r="AD206" s="102"/>
       <c r="AE206" s="55"/>
       <c r="AF206" s="102"/>
-      <c r="AG206" s="184"/>
+      <c r="AG206" s="173"/>
       <c r="AH206" s="96"/>
       <c r="AI206" s="99"/>
       <c r="AJ206" s="81"/>
@@ -64919,7 +64934,7 @@
       <c r="AD207" s="102"/>
       <c r="AE207" s="55"/>
       <c r="AF207" s="102"/>
-      <c r="AG207" s="184"/>
+      <c r="AG207" s="173"/>
       <c r="AH207" s="96"/>
       <c r="AI207" s="99"/>
       <c r="AJ207" s="81"/>
@@ -64959,7 +64974,7 @@
       <c r="AD208" s="102"/>
       <c r="AE208" s="55"/>
       <c r="AF208" s="102"/>
-      <c r="AG208" s="184"/>
+      <c r="AG208" s="173"/>
       <c r="AH208" s="96"/>
       <c r="AI208" s="99"/>
       <c r="AJ208" s="81"/>
@@ -64999,7 +65014,7 @@
       <c r="AD209" s="102"/>
       <c r="AE209" s="55"/>
       <c r="AF209" s="102"/>
-      <c r="AG209" s="184"/>
+      <c r="AG209" s="173"/>
       <c r="AH209" s="96"/>
       <c r="AI209" s="99"/>
       <c r="AJ209" s="81"/>
@@ -65039,7 +65054,7 @@
       <c r="AD210" s="102"/>
       <c r="AE210" s="55"/>
       <c r="AF210" s="102"/>
-      <c r="AG210" s="184"/>
+      <c r="AG210" s="173"/>
       <c r="AH210" s="96"/>
       <c r="AI210" s="99"/>
       <c r="AJ210" s="81"/>
@@ -65079,7 +65094,7 @@
       <c r="AD211" s="102"/>
       <c r="AE211" s="55"/>
       <c r="AF211" s="102"/>
-      <c r="AG211" s="184"/>
+      <c r="AG211" s="173"/>
       <c r="AH211" s="96"/>
       <c r="AI211" s="99"/>
       <c r="AJ211" s="81"/>
@@ -65119,7 +65134,7 @@
       <c r="AD212" s="102"/>
       <c r="AE212" s="55"/>
       <c r="AF212" s="102"/>
-      <c r="AG212" s="184"/>
+      <c r="AG212" s="173"/>
       <c r="AH212" s="96"/>
       <c r="AI212" s="99"/>
       <c r="AJ212" s="81"/>
@@ -65159,7 +65174,7 @@
       <c r="AD213" s="102"/>
       <c r="AE213" s="55"/>
       <c r="AF213" s="102"/>
-      <c r="AG213" s="184"/>
+      <c r="AG213" s="173"/>
       <c r="AH213" s="96"/>
       <c r="AI213" s="99"/>
       <c r="AJ213" s="81"/>
@@ -65199,7 +65214,7 @@
       <c r="AD214" s="102"/>
       <c r="AE214" s="55"/>
       <c r="AF214" s="102"/>
-      <c r="AG214" s="184"/>
+      <c r="AG214" s="173"/>
       <c r="AH214" s="96"/>
       <c r="AI214" s="99"/>
       <c r="AJ214" s="81"/>
@@ -65239,7 +65254,7 @@
       <c r="AD215" s="102"/>
       <c r="AE215" s="55"/>
       <c r="AF215" s="102"/>
-      <c r="AG215" s="184"/>
+      <c r="AG215" s="173"/>
       <c r="AH215" s="96"/>
       <c r="AI215" s="99"/>
       <c r="AJ215" s="81"/>
@@ -65279,7 +65294,7 @@
       <c r="AD216" s="102"/>
       <c r="AE216" s="55"/>
       <c r="AF216" s="102"/>
-      <c r="AG216" s="184"/>
+      <c r="AG216" s="173"/>
       <c r="AH216" s="96"/>
       <c r="AI216" s="99"/>
       <c r="AJ216" s="81"/>
@@ -65319,7 +65334,7 @@
       <c r="AD217" s="102"/>
       <c r="AE217" s="55"/>
       <c r="AF217" s="102"/>
-      <c r="AG217" s="184"/>
+      <c r="AG217" s="173"/>
       <c r="AH217" s="96"/>
       <c r="AI217" s="99"/>
       <c r="AJ217" s="81"/>
@@ -65359,7 +65374,7 @@
       <c r="AD218" s="102"/>
       <c r="AE218" s="55"/>
       <c r="AF218" s="102"/>
-      <c r="AG218" s="184"/>
+      <c r="AG218" s="173"/>
       <c r="AH218" s="96"/>
       <c r="AI218" s="99"/>
       <c r="AJ218" s="81"/>
@@ -65399,7 +65414,7 @@
       <c r="AD219" s="102"/>
       <c r="AE219" s="55"/>
       <c r="AF219" s="102"/>
-      <c r="AG219" s="184"/>
+      <c r="AG219" s="173"/>
       <c r="AH219" s="96"/>
       <c r="AI219" s="99"/>
       <c r="AJ219" s="81"/>
@@ -65439,7 +65454,7 @@
       <c r="AD220" s="102"/>
       <c r="AE220" s="55"/>
       <c r="AF220" s="102"/>
-      <c r="AG220" s="184"/>
+      <c r="AG220" s="173"/>
       <c r="AH220" s="96"/>
       <c r="AI220" s="99"/>
       <c r="AJ220" s="81"/>
@@ -65479,7 +65494,7 @@
       <c r="AD221" s="102"/>
       <c r="AE221" s="55"/>
       <c r="AF221" s="102"/>
-      <c r="AG221" s="184"/>
+      <c r="AG221" s="173"/>
       <c r="AH221" s="96"/>
       <c r="AI221" s="99"/>
       <c r="AJ221" s="81"/>
@@ -65519,7 +65534,7 @@
       <c r="AD222" s="102"/>
       <c r="AE222" s="55"/>
       <c r="AF222" s="102"/>
-      <c r="AG222" s="184"/>
+      <c r="AG222" s="173"/>
       <c r="AH222" s="96"/>
       <c r="AI222" s="99"/>
       <c r="AJ222" s="81"/>
@@ -65559,7 +65574,7 @@
       <c r="AD223" s="102"/>
       <c r="AE223" s="55"/>
       <c r="AF223" s="102"/>
-      <c r="AG223" s="184"/>
+      <c r="AG223" s="173"/>
       <c r="AH223" s="96"/>
       <c r="AI223" s="99"/>
       <c r="AJ223" s="81"/>
@@ -65599,7 +65614,7 @@
       <c r="AD224" s="102"/>
       <c r="AE224" s="55"/>
       <c r="AF224" s="102"/>
-      <c r="AG224" s="184"/>
+      <c r="AG224" s="173"/>
       <c r="AH224" s="96"/>
       <c r="AI224" s="99"/>
       <c r="AJ224" s="81"/>
@@ -65639,7 +65654,7 @@
       <c r="AD225" s="102"/>
       <c r="AE225" s="55"/>
       <c r="AF225" s="102"/>
-      <c r="AG225" s="184"/>
+      <c r="AG225" s="173"/>
       <c r="AH225" s="96"/>
       <c r="AI225" s="99"/>
       <c r="AJ225" s="81"/>
@@ -65679,7 +65694,7 @@
       <c r="AD226" s="102"/>
       <c r="AE226" s="55"/>
       <c r="AF226" s="102"/>
-      <c r="AG226" s="184"/>
+      <c r="AG226" s="173"/>
       <c r="AH226" s="96"/>
       <c r="AI226" s="99"/>
       <c r="AJ226" s="81"/>
@@ -65719,7 +65734,7 @@
       <c r="AD227" s="102"/>
       <c r="AE227" s="55"/>
       <c r="AF227" s="102"/>
-      <c r="AG227" s="184"/>
+      <c r="AG227" s="173"/>
       <c r="AH227" s="96"/>
       <c r="AI227" s="99"/>
       <c r="AJ227" s="81"/>
@@ -65759,7 +65774,7 @@
       <c r="AD228" s="102"/>
       <c r="AE228" s="55"/>
       <c r="AF228" s="102"/>
-      <c r="AG228" s="184"/>
+      <c r="AG228" s="173"/>
       <c r="AH228" s="96"/>
       <c r="AI228" s="99"/>
       <c r="AJ228" s="81"/>
@@ -65799,7 +65814,7 @@
       <c r="AD229" s="102"/>
       <c r="AE229" s="55"/>
       <c r="AF229" s="102"/>
-      <c r="AG229" s="184"/>
+      <c r="AG229" s="173"/>
       <c r="AH229" s="96"/>
       <c r="AI229" s="99"/>
       <c r="AJ229" s="81"/>
@@ -65839,7 +65854,7 @@
       <c r="AD230" s="102"/>
       <c r="AE230" s="55"/>
       <c r="AF230" s="102"/>
-      <c r="AG230" s="184"/>
+      <c r="AG230" s="173"/>
       <c r="AH230" s="96"/>
       <c r="AI230" s="99"/>
       <c r="AJ230" s="81"/>
@@ -65879,7 +65894,7 @@
       <c r="AD231" s="102"/>
       <c r="AE231" s="55"/>
       <c r="AF231" s="102"/>
-      <c r="AG231" s="184"/>
+      <c r="AG231" s="173"/>
       <c r="AH231" s="96"/>
       <c r="AI231" s="99"/>
       <c r="AJ231" s="81"/>
@@ -65919,7 +65934,7 @@
       <c r="AD232" s="102"/>
       <c r="AE232" s="55"/>
       <c r="AF232" s="102"/>
-      <c r="AG232" s="184"/>
+      <c r="AG232" s="173"/>
       <c r="AH232" s="96"/>
       <c r="AI232" s="99"/>
       <c r="AJ232" s="81"/>
@@ -65959,7 +65974,7 @@
       <c r="AD233" s="102"/>
       <c r="AE233" s="55"/>
       <c r="AF233" s="102"/>
-      <c r="AG233" s="184"/>
+      <c r="AG233" s="173"/>
       <c r="AH233" s="96"/>
       <c r="AI233" s="99"/>
       <c r="AJ233" s="81"/>
@@ -65999,7 +66014,7 @@
       <c r="AD234" s="102"/>
       <c r="AE234" s="55"/>
       <c r="AF234" s="102"/>
-      <c r="AG234" s="184"/>
+      <c r="AG234" s="173"/>
       <c r="AH234" s="96"/>
       <c r="AI234" s="99"/>
       <c r="AJ234" s="81"/>
@@ -66039,7 +66054,7 @@
       <c r="AD235" s="102"/>
       <c r="AE235" s="55"/>
       <c r="AF235" s="102"/>
-      <c r="AG235" s="184"/>
+      <c r="AG235" s="173"/>
       <c r="AH235" s="96"/>
       <c r="AI235" s="99"/>
       <c r="AJ235" s="81"/>
@@ -66079,7 +66094,7 @@
       <c r="AD236" s="102"/>
       <c r="AE236" s="55"/>
       <c r="AF236" s="102"/>
-      <c r="AG236" s="184"/>
+      <c r="AG236" s="173"/>
       <c r="AH236" s="96"/>
       <c r="AI236" s="99"/>
       <c r="AJ236" s="81"/>
@@ -66119,7 +66134,7 @@
       <c r="AD237" s="102"/>
       <c r="AE237" s="55"/>
       <c r="AF237" s="102"/>
-      <c r="AG237" s="184"/>
+      <c r="AG237" s="173"/>
       <c r="AH237" s="96"/>
       <c r="AI237" s="99"/>
       <c r="AJ237" s="81"/>
@@ -66159,7 +66174,7 @@
       <c r="AD238" s="102"/>
       <c r="AE238" s="55"/>
       <c r="AF238" s="102"/>
-      <c r="AG238" s="184"/>
+      <c r="AG238" s="173"/>
       <c r="AH238" s="96"/>
       <c r="AI238" s="99"/>
       <c r="AJ238" s="81"/>
@@ -66199,7 +66214,7 @@
       <c r="AD239" s="102"/>
       <c r="AE239" s="55"/>
       <c r="AF239" s="102"/>
-      <c r="AG239" s="184"/>
+      <c r="AG239" s="173"/>
       <c r="AH239" s="96"/>
       <c r="AI239" s="99"/>
       <c r="AJ239" s="81"/>
@@ -66239,7 +66254,7 @@
       <c r="AD240" s="102"/>
       <c r="AE240" s="55"/>
       <c r="AF240" s="102"/>
-      <c r="AG240" s="184"/>
+      <c r="AG240" s="173"/>
       <c r="AH240" s="96"/>
       <c r="AI240" s="99"/>
       <c r="AJ240" s="81"/>
@@ -66279,7 +66294,7 @@
       <c r="AD241" s="102"/>
       <c r="AE241" s="55"/>
       <c r="AF241" s="102"/>
-      <c r="AG241" s="184"/>
+      <c r="AG241" s="173"/>
       <c r="AH241" s="96"/>
       <c r="AI241" s="99"/>
       <c r="AJ241" s="81"/>
@@ -66319,7 +66334,7 @@
       <c r="AD242" s="102"/>
       <c r="AE242" s="55"/>
       <c r="AF242" s="102"/>
-      <c r="AG242" s="184"/>
+      <c r="AG242" s="173"/>
       <c r="AH242" s="96"/>
       <c r="AI242" s="99"/>
       <c r="AJ242" s="81"/>
@@ -66359,7 +66374,7 @@
       <c r="AD243" s="102"/>
       <c r="AE243" s="55"/>
       <c r="AF243" s="102"/>
-      <c r="AG243" s="184"/>
+      <c r="AG243" s="173"/>
       <c r="AH243" s="96"/>
       <c r="AI243" s="99"/>
       <c r="AJ243" s="81"/>
@@ -66399,7 +66414,7 @@
       <c r="AD244" s="102"/>
       <c r="AE244" s="55"/>
       <c r="AF244" s="102"/>
-      <c r="AG244" s="184"/>
+      <c r="AG244" s="173"/>
       <c r="AH244" s="96"/>
       <c r="AI244" s="99"/>
       <c r="AJ244" s="81"/>
@@ -66439,7 +66454,7 @@
       <c r="AD245" s="102"/>
       <c r="AE245" s="55"/>
       <c r="AF245" s="102"/>
-      <c r="AG245" s="184"/>
+      <c r="AG245" s="173"/>
       <c r="AH245" s="96"/>
       <c r="AI245" s="99"/>
       <c r="AJ245" s="81"/>
@@ -66479,7 +66494,7 @@
       <c r="AD246" s="102"/>
       <c r="AE246" s="55"/>
       <c r="AF246" s="102"/>
-      <c r="AG246" s="184"/>
+      <c r="AG246" s="173"/>
       <c r="AH246" s="96"/>
       <c r="AI246" s="99"/>
       <c r="AJ246" s="81"/>
@@ -66519,7 +66534,7 @@
       <c r="AD247" s="102"/>
       <c r="AE247" s="55"/>
       <c r="AF247" s="102"/>
-      <c r="AG247" s="184"/>
+      <c r="AG247" s="173"/>
       <c r="AH247" s="96"/>
       <c r="AI247" s="99"/>
       <c r="AJ247" s="81"/>
@@ -66559,7 +66574,7 @@
       <c r="AD248" s="102"/>
       <c r="AE248" s="55"/>
       <c r="AF248" s="102"/>
-      <c r="AG248" s="184"/>
+      <c r="AG248" s="173"/>
       <c r="AH248" s="96"/>
       <c r="AI248" s="99"/>
       <c r="AJ248" s="81"/>
@@ -66599,7 +66614,7 @@
       <c r="AD249" s="102"/>
       <c r="AE249" s="55"/>
       <c r="AF249" s="102"/>
-      <c r="AG249" s="184"/>
+      <c r="AG249" s="173"/>
       <c r="AH249" s="96"/>
       <c r="AI249" s="99"/>
       <c r="AJ249" s="81"/>
@@ -66639,7 +66654,7 @@
       <c r="AD250" s="102"/>
       <c r="AE250" s="55"/>
       <c r="AF250" s="102"/>
-      <c r="AG250" s="184"/>
+      <c r="AG250" s="173"/>
       <c r="AH250" s="96"/>
       <c r="AI250" s="99"/>
       <c r="AJ250" s="81"/>
@@ -66679,7 +66694,7 @@
       <c r="AD251" s="102"/>
       <c r="AE251" s="55"/>
       <c r="AF251" s="102"/>
-      <c r="AG251" s="184"/>
+      <c r="AG251" s="173"/>
       <c r="AH251" s="96"/>
       <c r="AI251" s="99"/>
       <c r="AJ251" s="81"/>
@@ -66719,7 +66734,7 @@
       <c r="AD252" s="102"/>
       <c r="AE252" s="55"/>
       <c r="AF252" s="102"/>
-      <c r="AG252" s="184"/>
+      <c r="AG252" s="173"/>
       <c r="AH252" s="96"/>
       <c r="AI252" s="99"/>
       <c r="AJ252" s="81"/>
@@ -66759,7 +66774,7 @@
       <c r="AD253" s="102"/>
       <c r="AE253" s="55"/>
       <c r="AF253" s="102"/>
-      <c r="AG253" s="184"/>
+      <c r="AG253" s="173"/>
       <c r="AH253" s="96"/>
       <c r="AI253" s="99"/>
       <c r="AJ253" s="81"/>
@@ -66799,7 +66814,7 @@
       <c r="AD254" s="102"/>
       <c r="AE254" s="55"/>
       <c r="AF254" s="102"/>
-      <c r="AG254" s="184"/>
+      <c r="AG254" s="173"/>
       <c r="AH254" s="96"/>
       <c r="AI254" s="99"/>
       <c r="AJ254" s="81"/>
@@ -66839,7 +66854,7 @@
       <c r="AD255" s="102"/>
       <c r="AE255" s="55"/>
       <c r="AF255" s="102"/>
-      <c r="AG255" s="184"/>
+      <c r="AG255" s="173"/>
       <c r="AH255" s="96"/>
       <c r="AI255" s="99"/>
       <c r="AJ255" s="81"/>
@@ -66879,7 +66894,7 @@
       <c r="AD256" s="102"/>
       <c r="AE256" s="55"/>
       <c r="AF256" s="102"/>
-      <c r="AG256" s="184"/>
+      <c r="AG256" s="173"/>
       <c r="AH256" s="96"/>
       <c r="AI256" s="99"/>
       <c r="AJ256" s="81"/>
@@ -66919,7 +66934,7 @@
       <c r="AD257" s="102"/>
       <c r="AE257" s="55"/>
       <c r="AF257" s="102"/>
-      <c r="AG257" s="184"/>
+      <c r="AG257" s="173"/>
       <c r="AH257" s="96"/>
       <c r="AI257" s="99"/>
       <c r="AJ257" s="81"/>
@@ -66959,7 +66974,7 @@
       <c r="AD258" s="102"/>
       <c r="AE258" s="55"/>
       <c r="AF258" s="102"/>
-      <c r="AG258" s="184"/>
+      <c r="AG258" s="173"/>
       <c r="AH258" s="96"/>
       <c r="AI258" s="99"/>
       <c r="AJ258" s="81"/>
@@ -66999,7 +67014,7 @@
       <c r="AD259" s="102"/>
       <c r="AE259" s="55"/>
       <c r="AF259" s="102"/>
-      <c r="AG259" s="184"/>
+      <c r="AG259" s="173"/>
       <c r="AH259" s="96"/>
       <c r="AI259" s="99"/>
       <c r="AJ259" s="81"/>
@@ -67039,7 +67054,7 @@
       <c r="AD260" s="102"/>
       <c r="AE260" s="55"/>
       <c r="AF260" s="102"/>
-      <c r="AG260" s="184"/>
+      <c r="AG260" s="173"/>
       <c r="AH260" s="96"/>
       <c r="AI260" s="99"/>
       <c r="AJ260" s="81"/>
@@ -67079,7 +67094,7 @@
       <c r="AD261" s="102"/>
       <c r="AE261" s="55"/>
       <c r="AF261" s="102"/>
-      <c r="AG261" s="184"/>
+      <c r="AG261" s="173"/>
       <c r="AH261" s="96"/>
       <c r="AI261" s="99"/>
       <c r="AJ261" s="81"/>
@@ -67119,7 +67134,7 @@
       <c r="AD262" s="102"/>
       <c r="AE262" s="55"/>
       <c r="AF262" s="102"/>
-      <c r="AG262" s="184"/>
+      <c r="AG262" s="173"/>
       <c r="AH262" s="96"/>
       <c r="AI262" s="99"/>
       <c r="AJ262" s="81"/>
@@ -67159,7 +67174,7 @@
       <c r="AD263" s="102"/>
       <c r="AE263" s="55"/>
       <c r="AF263" s="102"/>
-      <c r="AG263" s="184"/>
+      <c r="AG263" s="173"/>
       <c r="AH263" s="96"/>
       <c r="AI263" s="99"/>
       <c r="AJ263" s="81"/>
@@ -67199,7 +67214,7 @@
       <c r="AD264" s="102"/>
       <c r="AE264" s="55"/>
       <c r="AF264" s="102"/>
-      <c r="AG264" s="184"/>
+      <c r="AG264" s="173"/>
       <c r="AH264" s="96"/>
       <c r="AI264" s="99"/>
       <c r="AJ264" s="81"/>
@@ -67239,7 +67254,7 @@
       <c r="AD265" s="102"/>
       <c r="AE265" s="55"/>
       <c r="AF265" s="102"/>
-      <c r="AG265" s="184"/>
+      <c r="AG265" s="173"/>
       <c r="AH265" s="96"/>
       <c r="AI265" s="99"/>
       <c r="AJ265" s="81"/>
@@ -67279,7 +67294,7 @@
       <c r="AD266" s="102"/>
       <c r="AE266" s="55"/>
       <c r="AF266" s="102"/>
-      <c r="AG266" s="184"/>
+      <c r="AG266" s="173"/>
       <c r="AH266" s="96"/>
       <c r="AI266" s="99"/>
       <c r="AJ266" s="81"/>
@@ -67319,7 +67334,7 @@
       <c r="AD267" s="102"/>
       <c r="AE267" s="55"/>
       <c r="AF267" s="102"/>
-      <c r="AG267" s="184"/>
+      <c r="AG267" s="173"/>
       <c r="AH267" s="96"/>
       <c r="AI267" s="99"/>
       <c r="AJ267" s="81"/>
@@ -67359,7 +67374,7 @@
       <c r="AD268" s="102"/>
       <c r="AE268" s="55"/>
       <c r="AF268" s="102"/>
-      <c r="AG268" s="184"/>
+      <c r="AG268" s="173"/>
       <c r="AH268" s="96"/>
       <c r="AI268" s="99"/>
       <c r="AJ268" s="81"/>
@@ -67399,7 +67414,7 @@
       <c r="AD269" s="102"/>
       <c r="AE269" s="55"/>
       <c r="AF269" s="102"/>
-      <c r="AG269" s="184"/>
+      <c r="AG269" s="173"/>
       <c r="AH269" s="96"/>
       <c r="AI269" s="99"/>
       <c r="AJ269" s="81"/>
@@ -67439,7 +67454,7 @@
       <c r="AD270" s="102"/>
       <c r="AE270" s="55"/>
       <c r="AF270" s="102"/>
-      <c r="AG270" s="184"/>
+      <c r="AG270" s="173"/>
       <c r="AH270" s="96"/>
       <c r="AI270" s="99"/>
       <c r="AJ270" s="81"/>
@@ -67479,7 +67494,7 @@
       <c r="AD271" s="102"/>
       <c r="AE271" s="55"/>
       <c r="AF271" s="102"/>
-      <c r="AG271" s="184"/>
+      <c r="AG271" s="173"/>
       <c r="AH271" s="96"/>
       <c r="AI271" s="99"/>
       <c r="AJ271" s="81"/>
@@ -67519,7 +67534,7 @@
       <c r="AD272" s="102"/>
       <c r="AE272" s="55"/>
       <c r="AF272" s="102"/>
-      <c r="AG272" s="184"/>
+      <c r="AG272" s="173"/>
       <c r="AH272" s="96"/>
       <c r="AI272" s="99"/>
       <c r="AJ272" s="81"/>
@@ -67559,7 +67574,7 @@
       <c r="AD273" s="102"/>
       <c r="AE273" s="55"/>
       <c r="AF273" s="102"/>
-      <c r="AG273" s="184"/>
+      <c r="AG273" s="173"/>
       <c r="AH273" s="96"/>
       <c r="AI273" s="99"/>
       <c r="AJ273" s="81"/>
@@ -67599,7 +67614,7 @@
       <c r="AD274" s="102"/>
       <c r="AE274" s="55"/>
       <c r="AF274" s="102"/>
-      <c r="AG274" s="184"/>
+      <c r="AG274" s="173"/>
       <c r="AH274" s="96"/>
       <c r="AI274" s="99"/>
       <c r="AJ274" s="81"/>
@@ -67639,7 +67654,7 @@
       <c r="AD275" s="102"/>
       <c r="AE275" s="55"/>
       <c r="AF275" s="102"/>
-      <c r="AG275" s="184"/>
+      <c r="AG275" s="173"/>
       <c r="AH275" s="96"/>
       <c r="AI275" s="99"/>
       <c r="AJ275" s="81"/>
@@ -67679,7 +67694,7 @@
       <c r="AD276" s="102"/>
       <c r="AE276" s="55"/>
       <c r="AF276" s="102"/>
-      <c r="AG276" s="184"/>
+      <c r="AG276" s="173"/>
       <c r="AH276" s="96"/>
       <c r="AI276" s="99"/>
       <c r="AJ276" s="81"/>
@@ -67719,7 +67734,7 @@
       <c r="AD277" s="102"/>
       <c r="AE277" s="55"/>
       <c r="AF277" s="102"/>
-      <c r="AG277" s="184"/>
+      <c r="AG277" s="173"/>
       <c r="AH277" s="96"/>
       <c r="AI277" s="99"/>
       <c r="AJ277" s="81"/>
@@ -67759,7 +67774,7 @@
       <c r="AD278" s="102"/>
       <c r="AE278" s="55"/>
       <c r="AF278" s="102"/>
-      <c r="AG278" s="184"/>
+      <c r="AG278" s="173"/>
       <c r="AH278" s="96"/>
       <c r="AI278" s="99"/>
       <c r="AJ278" s="81"/>
@@ -67799,7 +67814,7 @@
       <c r="AD279" s="102"/>
       <c r="AE279" s="55"/>
       <c r="AF279" s="102"/>
-      <c r="AG279" s="184"/>
+      <c r="AG279" s="173"/>
       <c r="AH279" s="96"/>
       <c r="AI279" s="99"/>
       <c r="AJ279" s="81"/>
@@ -67839,7 +67854,7 @@
       <c r="AD280" s="102"/>
       <c r="AE280" s="55"/>
       <c r="AF280" s="102"/>
-      <c r="AG280" s="184"/>
+      <c r="AG280" s="173"/>
       <c r="AH280" s="96"/>
       <c r="AI280" s="99"/>
       <c r="AJ280" s="81"/>
@@ -67879,7 +67894,7 @@
       <c r="AD281" s="102"/>
       <c r="AE281" s="55"/>
       <c r="AF281" s="102"/>
-      <c r="AG281" s="184"/>
+      <c r="AG281" s="173"/>
       <c r="AH281" s="96"/>
       <c r="AI281" s="99"/>
       <c r="AJ281" s="81"/>
@@ -67919,7 +67934,7 @@
       <c r="AD282" s="102"/>
       <c r="AE282" s="55"/>
       <c r="AF282" s="102"/>
-      <c r="AG282" s="184"/>
+      <c r="AG282" s="173"/>
       <c r="AH282" s="96"/>
       <c r="AI282" s="99"/>
       <c r="AJ282" s="81"/>
@@ -67959,7 +67974,7 @@
       <c r="AD283" s="102"/>
       <c r="AE283" s="55"/>
       <c r="AF283" s="102"/>
-      <c r="AG283" s="184"/>
+      <c r="AG283" s="173"/>
       <c r="AH283" s="96"/>
       <c r="AI283" s="99"/>
       <c r="AJ283" s="81"/>
@@ -67999,7 +68014,7 @@
       <c r="AD284" s="102"/>
       <c r="AE284" s="55"/>
       <c r="AF284" s="102"/>
-      <c r="AG284" s="184"/>
+      <c r="AG284" s="173"/>
       <c r="AH284" s="96"/>
       <c r="AI284" s="99"/>
       <c r="AJ284" s="81"/>
@@ -68039,7 +68054,7 @@
       <c r="AD285" s="102"/>
       <c r="AE285" s="55"/>
       <c r="AF285" s="102"/>
-      <c r="AG285" s="184"/>
+      <c r="AG285" s="173"/>
       <c r="AH285" s="96"/>
       <c r="AI285" s="99"/>
       <c r="AJ285" s="81"/>
@@ -68079,7 +68094,7 @@
       <c r="AD286" s="102"/>
       <c r="AE286" s="55"/>
       <c r="AF286" s="102"/>
-      <c r="AG286" s="184"/>
+      <c r="AG286" s="173"/>
       <c r="AH286" s="96"/>
       <c r="AI286" s="99"/>
       <c r="AJ286" s="81"/>
@@ -68119,7 +68134,7 @@
       <c r="AD287" s="102"/>
       <c r="AE287" s="55"/>
       <c r="AF287" s="102"/>
-      <c r="AG287" s="184"/>
+      <c r="AG287" s="173"/>
       <c r="AH287" s="96"/>
       <c r="AI287" s="99"/>
       <c r="AJ287" s="81"/>
@@ -68159,7 +68174,7 @@
       <c r="AD288" s="102"/>
       <c r="AE288" s="55"/>
       <c r="AF288" s="102"/>
-      <c r="AG288" s="184"/>
+      <c r="AG288" s="173"/>
       <c r="AH288" s="96"/>
       <c r="AI288" s="99"/>
       <c r="AJ288" s="81"/>
@@ -68199,7 +68214,7 @@
       <c r="AD289" s="102"/>
       <c r="AE289" s="55"/>
       <c r="AF289" s="102"/>
-      <c r="AG289" s="184"/>
+      <c r="AG289" s="173"/>
       <c r="AH289" s="96"/>
       <c r="AI289" s="99"/>
       <c r="AJ289" s="81"/>
@@ -68239,7 +68254,7 @@
       <c r="AD290" s="102"/>
       <c r="AE290" s="55"/>
       <c r="AF290" s="102"/>
-      <c r="AG290" s="184"/>
+      <c r="AG290" s="173"/>
       <c r="AH290" s="96"/>
       <c r="AI290" s="99"/>
       <c r="AJ290" s="81"/>
@@ -68279,7 +68294,7 @@
       <c r="AD291" s="102"/>
       <c r="AE291" s="55"/>
       <c r="AF291" s="102"/>
-      <c r="AG291" s="184"/>
+      <c r="AG291" s="173"/>
       <c r="AH291" s="96"/>
       <c r="AI291" s="99"/>
       <c r="AJ291" s="81"/>
@@ -68319,7 +68334,7 @@
       <c r="AD292" s="102"/>
       <c r="AE292" s="55"/>
       <c r="AF292" s="102"/>
-      <c r="AG292" s="184"/>
+      <c r="AG292" s="173"/>
       <c r="AH292" s="96"/>
       <c r="AI292" s="99"/>
       <c r="AJ292" s="81"/>
@@ -68359,7 +68374,7 @@
       <c r="AD293" s="102"/>
       <c r="AE293" s="55"/>
       <c r="AF293" s="102"/>
-      <c r="AG293" s="184"/>
+      <c r="AG293" s="173"/>
       <c r="AH293" s="96"/>
       <c r="AI293" s="99"/>
       <c r="AJ293" s="81"/>
@@ -68399,7 +68414,7 @@
       <c r="AD294" s="102"/>
       <c r="AE294" s="55"/>
       <c r="AF294" s="102"/>
-      <c r="AG294" s="184"/>
+      <c r="AG294" s="173"/>
       <c r="AH294" s="96"/>
       <c r="AI294" s="99"/>
       <c r="AJ294" s="81"/>
@@ -68439,7 +68454,7 @@
       <c r="AD295" s="102"/>
       <c r="AE295" s="55"/>
       <c r="AF295" s="102"/>
-      <c r="AG295" s="184"/>
+      <c r="AG295" s="173"/>
       <c r="AH295" s="96"/>
       <c r="AI295" s="99"/>
       <c r="AJ295" s="81"/>
@@ -68479,7 +68494,7 @@
       <c r="AD296" s="102"/>
       <c r="AE296" s="55"/>
       <c r="AF296" s="102"/>
-      <c r="AG296" s="184"/>
+      <c r="AG296" s="173"/>
       <c r="AH296" s="96"/>
       <c r="AI296" s="99"/>
       <c r="AJ296" s="81"/>
@@ -68519,7 +68534,7 @@
       <c r="AD297" s="102"/>
       <c r="AE297" s="55"/>
       <c r="AF297" s="102"/>
-      <c r="AG297" s="184"/>
+      <c r="AG297" s="173"/>
       <c r="AH297" s="96"/>
       <c r="AI297" s="99"/>
       <c r="AJ297" s="81"/>
@@ -68559,7 +68574,7 @@
       <c r="AD298" s="102"/>
       <c r="AE298" s="55"/>
       <c r="AF298" s="102"/>
-      <c r="AG298" s="184"/>
+      <c r="AG298" s="173"/>
       <c r="AH298" s="96"/>
       <c r="AI298" s="99"/>
       <c r="AJ298" s="81"/>
@@ -68599,7 +68614,7 @@
       <c r="AD299" s="102"/>
       <c r="AE299" s="55"/>
       <c r="AF299" s="102"/>
-      <c r="AG299" s="184"/>
+      <c r="AG299" s="173"/>
       <c r="AH299" s="96"/>
       <c r="AI299" s="99"/>
       <c r="AJ299" s="81"/>
@@ -68639,7 +68654,7 @@
       <c r="AD300" s="102"/>
       <c r="AE300" s="55"/>
       <c r="AF300" s="102"/>
-      <c r="AG300" s="184"/>
+      <c r="AG300" s="173"/>
       <c r="AH300" s="96"/>
       <c r="AI300" s="99"/>
       <c r="AJ300" s="81"/>
@@ -68679,7 +68694,7 @@
       <c r="AD301" s="102"/>
       <c r="AE301" s="55"/>
       <c r="AF301" s="102"/>
-      <c r="AG301" s="184"/>
+      <c r="AG301" s="173"/>
       <c r="AH301" s="96"/>
       <c r="AI301" s="99"/>
       <c r="AJ301" s="81"/>
@@ -68719,7 +68734,7 @@
       <c r="AD302" s="102"/>
       <c r="AE302" s="55"/>
       <c r="AF302" s="102"/>
-      <c r="AG302" s="184"/>
+      <c r="AG302" s="173"/>
       <c r="AH302" s="96"/>
       <c r="AI302" s="99"/>
       <c r="AJ302" s="81"/>
@@ -68759,7 +68774,7 @@
       <c r="AD303" s="102"/>
       <c r="AE303" s="55"/>
       <c r="AF303" s="102"/>
-      <c r="AG303" s="184"/>
+      <c r="AG303" s="173"/>
       <c r="AH303" s="96"/>
       <c r="AI303" s="99"/>
       <c r="AJ303" s="81"/>
@@ -68799,7 +68814,7 @@
       <c r="AD304" s="102"/>
       <c r="AE304" s="55"/>
       <c r="AF304" s="102"/>
-      <c r="AG304" s="184"/>
+      <c r="AG304" s="173"/>
       <c r="AH304" s="96"/>
       <c r="AI304" s="99"/>
       <c r="AJ304" s="81"/>
@@ -68839,7 +68854,7 @@
       <c r="AD305" s="102"/>
       <c r="AE305" s="55"/>
       <c r="AF305" s="102"/>
-      <c r="AG305" s="184"/>
+      <c r="AG305" s="173"/>
       <c r="AH305" s="96"/>
       <c r="AI305" s="99"/>
       <c r="AJ305" s="81"/>
@@ -68879,7 +68894,7 @@
       <c r="AD306" s="102"/>
       <c r="AE306" s="55"/>
       <c r="AF306" s="102"/>
-      <c r="AG306" s="184"/>
+      <c r="AG306" s="173"/>
       <c r="AH306" s="96"/>
       <c r="AI306" s="99"/>
       <c r="AJ306" s="81"/>
@@ -68919,7 +68934,7 @@
       <c r="AD307" s="102"/>
       <c r="AE307" s="55"/>
       <c r="AF307" s="102"/>
-      <c r="AG307" s="184"/>
+      <c r="AG307" s="173"/>
       <c r="AH307" s="96"/>
       <c r="AI307" s="99"/>
       <c r="AJ307" s="81"/>
@@ -68959,7 +68974,7 @@
       <c r="AD308" s="102"/>
       <c r="AE308" s="55"/>
       <c r="AF308" s="102"/>
-      <c r="AG308" s="184"/>
+      <c r="AG308" s="173"/>
       <c r="AH308" s="96"/>
       <c r="AI308" s="99"/>
       <c r="AJ308" s="81"/>
@@ -68999,7 +69014,7 @@
       <c r="AD309" s="102"/>
       <c r="AE309" s="55"/>
       <c r="AF309" s="102"/>
-      <c r="AG309" s="184"/>
+      <c r="AG309" s="173"/>
       <c r="AH309" s="96"/>
       <c r="AI309" s="99"/>
       <c r="AJ309" s="81"/>
@@ -69039,7 +69054,7 @@
       <c r="AD310" s="102"/>
       <c r="AE310" s="55"/>
       <c r="AF310" s="102"/>
-      <c r="AG310" s="184"/>
+      <c r="AG310" s="173"/>
       <c r="AH310" s="96"/>
       <c r="AI310" s="99"/>
       <c r="AJ310" s="81"/>
@@ -69079,7 +69094,7 @@
       <c r="AD311" s="102"/>
       <c r="AE311" s="55"/>
       <c r="AF311" s="102"/>
-      <c r="AG311" s="184"/>
+      <c r="AG311" s="173"/>
       <c r="AH311" s="96"/>
       <c r="AI311" s="99"/>
       <c r="AJ311" s="81"/>
@@ -69119,7 +69134,7 @@
       <c r="AD312" s="102"/>
       <c r="AE312" s="55"/>
       <c r="AF312" s="102"/>
-      <c r="AG312" s="184"/>
+      <c r="AG312" s="173"/>
       <c r="AH312" s="96"/>
       <c r="AI312" s="99"/>
       <c r="AJ312" s="81"/>
@@ -69159,7 +69174,7 @@
       <c r="AD313" s="102"/>
       <c r="AE313" s="55"/>
       <c r="AF313" s="102"/>
-      <c r="AG313" s="184"/>
+      <c r="AG313" s="173"/>
       <c r="AH313" s="96"/>
       <c r="AI313" s="99"/>
       <c r="AJ313" s="81"/>
@@ -69199,7 +69214,7 @@
       <c r="AD314" s="102"/>
       <c r="AE314" s="55"/>
       <c r="AF314" s="102"/>
-      <c r="AG314" s="184"/>
+      <c r="AG314" s="173"/>
       <c r="AH314" s="96"/>
       <c r="AI314" s="99"/>
       <c r="AJ314" s="81"/>
@@ -69239,7 +69254,7 @@
       <c r="AD315" s="102"/>
       <c r="AE315" s="55"/>
       <c r="AF315" s="102"/>
-      <c r="AG315" s="184"/>
+      <c r="AG315" s="173"/>
       <c r="AH315" s="96"/>
       <c r="AI315" s="99"/>
       <c r="AJ315" s="81"/>
@@ -69279,7 +69294,7 @@
       <c r="AD316" s="102"/>
       <c r="AE316" s="55"/>
       <c r="AF316" s="102"/>
-      <c r="AG316" s="184"/>
+      <c r="AG316" s="173"/>
       <c r="AH316" s="96"/>
       <c r="AI316" s="99"/>
       <c r="AJ316" s="81"/>
@@ -69319,7 +69334,7 @@
       <c r="AD317" s="102"/>
       <c r="AE317" s="55"/>
       <c r="AF317" s="102"/>
-      <c r="AG317" s="184"/>
+      <c r="AG317" s="173"/>
       <c r="AH317" s="96"/>
       <c r="AI317" s="99"/>
       <c r="AJ317" s="81"/>
@@ -69359,7 +69374,7 @@
       <c r="AD318" s="102"/>
       <c r="AE318" s="55"/>
       <c r="AF318" s="102"/>
-      <c r="AG318" s="184"/>
+      <c r="AG318" s="173"/>
       <c r="AH318" s="96"/>
       <c r="AI318" s="99"/>
       <c r="AJ318" s="81"/>
@@ -69399,7 +69414,7 @@
       <c r="AD319" s="102"/>
       <c r="AE319" s="55"/>
       <c r="AF319" s="102"/>
-      <c r="AG319" s="184"/>
+      <c r="AG319" s="173"/>
       <c r="AH319" s="96"/>
       <c r="AI319" s="99"/>
       <c r="AJ319" s="81"/>
@@ -69439,7 +69454,7 @@
       <c r="AD320" s="102"/>
       <c r="AE320" s="55"/>
       <c r="AF320" s="102"/>
-      <c r="AG320" s="184"/>
+      <c r="AG320" s="173"/>
       <c r="AH320" s="96"/>
       <c r="AI320" s="99"/>
       <c r="AJ320" s="81"/>
@@ -69479,7 +69494,7 @@
       <c r="AD321" s="102"/>
       <c r="AE321" s="55"/>
       <c r="AF321" s="102"/>
-      <c r="AG321" s="184"/>
+      <c r="AG321" s="173"/>
       <c r="AH321" s="96"/>
       <c r="AI321" s="99"/>
       <c r="AJ321" s="81"/>
@@ -69519,7 +69534,7 @@
       <c r="AD322" s="102"/>
       <c r="AE322" s="55"/>
       <c r="AF322" s="102"/>
-      <c r="AG322" s="184"/>
+      <c r="AG322" s="173"/>
       <c r="AH322" s="96"/>
       <c r="AI322" s="99"/>
       <c r="AJ322" s="81"/>
@@ -69559,7 +69574,7 @@
       <c r="AD323" s="102"/>
       <c r="AE323" s="55"/>
       <c r="AF323" s="102"/>
-      <c r="AG323" s="184"/>
+      <c r="AG323" s="173"/>
       <c r="AH323" s="96"/>
       <c r="AI323" s="99"/>
       <c r="AJ323" s="81"/>
@@ -69599,7 +69614,7 @@
       <c r="AD324" s="102"/>
       <c r="AE324" s="55"/>
       <c r="AF324" s="102"/>
-      <c r="AG324" s="184"/>
+      <c r="AG324" s="173"/>
       <c r="AH324" s="96"/>
       <c r="AI324" s="99"/>
       <c r="AJ324" s="81"/>
@@ -69639,7 +69654,7 @@
       <c r="AD325" s="102"/>
       <c r="AE325" s="55"/>
       <c r="AF325" s="102"/>
-      <c r="AG325" s="184"/>
+      <c r="AG325" s="173"/>
       <c r="AH325" s="96"/>
       <c r="AI325" s="99"/>
       <c r="AJ325" s="81"/>
@@ -69679,7 +69694,7 @@
       <c r="AD326" s="102"/>
       <c r="AE326" s="55"/>
       <c r="AF326" s="102"/>
-      <c r="AG326" s="184"/>
+      <c r="AG326" s="173"/>
       <c r="AH326" s="96"/>
       <c r="AI326" s="99"/>
       <c r="AJ326" s="81"/>
@@ -69719,7 +69734,7 @@
       <c r="AD327" s="102"/>
       <c r="AE327" s="55"/>
       <c r="AF327" s="102"/>
-      <c r="AG327" s="184"/>
+      <c r="AG327" s="173"/>
       <c r="AH327" s="96"/>
       <c r="AI327" s="99"/>
       <c r="AJ327" s="81"/>
@@ -69759,7 +69774,7 @@
       <c r="AD328" s="102"/>
       <c r="AE328" s="55"/>
       <c r="AF328" s="102"/>
-      <c r="AG328" s="184"/>
+      <c r="AG328" s="173"/>
       <c r="AH328" s="96"/>
       <c r="AI328" s="99"/>
       <c r="AJ328" s="81"/>
@@ -69799,7 +69814,7 @@
       <c r="AD329" s="102"/>
       <c r="AE329" s="55"/>
       <c r="AF329" s="102"/>
-      <c r="AG329" s="184"/>
+      <c r="AG329" s="173"/>
       <c r="AH329" s="96"/>
       <c r="AI329" s="99"/>
       <c r="AJ329" s="81"/>
@@ -69839,7 +69854,7 @@
       <c r="AD330" s="102"/>
       <c r="AE330" s="55"/>
       <c r="AF330" s="102"/>
-      <c r="AG330" s="184"/>
+      <c r="AG330" s="173"/>
       <c r="AH330" s="96"/>
       <c r="AI330" s="99"/>
       <c r="AJ330" s="81"/>
@@ -69879,7 +69894,7 @@
       <c r="AD331" s="102"/>
       <c r="AE331" s="55"/>
       <c r="AF331" s="102"/>
-      <c r="AG331" s="184"/>
+      <c r="AG331" s="173"/>
       <c r="AH331" s="96"/>
       <c r="AI331" s="99"/>
       <c r="AJ331" s="81"/>
@@ -69919,7 +69934,7 @@
       <c r="AD332" s="102"/>
       <c r="AE332" s="55"/>
       <c r="AF332" s="102"/>
-      <c r="AG332" s="184"/>
+      <c r="AG332" s="173"/>
       <c r="AH332" s="96"/>
       <c r="AI332" s="99"/>
       <c r="AJ332" s="81"/>
@@ -69959,7 +69974,7 @@
       <c r="AD333" s="102"/>
       <c r="AE333" s="55"/>
       <c r="AF333" s="102"/>
-      <c r="AG333" s="184"/>
+      <c r="AG333" s="173"/>
       <c r="AH333" s="96"/>
       <c r="AI333" s="99"/>
       <c r="AJ333" s="81"/>
@@ -69999,7 +70014,7 @@
       <c r="AD334" s="102"/>
       <c r="AE334" s="55"/>
       <c r="AF334" s="102"/>
-      <c r="AG334" s="184"/>
+      <c r="AG334" s="173"/>
       <c r="AH334" s="96"/>
       <c r="AI334" s="99"/>
       <c r="AJ334" s="81"/>
@@ -70039,7 +70054,7 @@
       <c r="AD335" s="102"/>
       <c r="AE335" s="55"/>
       <c r="AF335" s="102"/>
-      <c r="AG335" s="184"/>
+      <c r="AG335" s="173"/>
       <c r="AH335" s="96"/>
       <c r="AI335" s="99"/>
       <c r="AJ335" s="81"/>
@@ -70079,7 +70094,7 @@
       <c r="AD336" s="102"/>
       <c r="AE336" s="55"/>
       <c r="AF336" s="102"/>
-      <c r="AG336" s="184"/>
+      <c r="AG336" s="173"/>
       <c r="AH336" s="96"/>
       <c r="AI336" s="99"/>
       <c r="AJ336" s="81"/>
@@ -70119,7 +70134,7 @@
       <c r="AD337" s="102"/>
       <c r="AE337" s="55"/>
       <c r="AF337" s="102"/>
-      <c r="AG337" s="184"/>
+      <c r="AG337" s="173"/>
       <c r="AH337" s="96"/>
       <c r="AI337" s="99"/>
       <c r="AJ337" s="81"/>
@@ -70159,7 +70174,7 @@
       <c r="AD338" s="102"/>
       <c r="AE338" s="55"/>
       <c r="AF338" s="102"/>
-      <c r="AG338" s="184"/>
+      <c r="AG338" s="173"/>
       <c r="AH338" s="96"/>
       <c r="AI338" s="99"/>
       <c r="AJ338" s="81"/>
@@ -70199,7 +70214,7 @@
       <c r="AD339" s="102"/>
       <c r="AE339" s="55"/>
       <c r="AF339" s="102"/>
-      <c r="AG339" s="184"/>
+      <c r="AG339" s="173"/>
       <c r="AH339" s="96"/>
       <c r="AI339" s="99"/>
       <c r="AJ339" s="81"/>
@@ -70239,7 +70254,7 @@
       <c r="AD340" s="102"/>
       <c r="AE340" s="55"/>
       <c r="AF340" s="102"/>
-      <c r="AG340" s="184"/>
+      <c r="AG340" s="173"/>
       <c r="AH340" s="96"/>
       <c r="AI340" s="99"/>
       <c r="AJ340" s="81"/>
@@ -70279,7 +70294,7 @@
       <c r="AD341" s="102"/>
       <c r="AE341" s="55"/>
       <c r="AF341" s="102"/>
-      <c r="AG341" s="184"/>
+      <c r="AG341" s="173"/>
       <c r="AH341" s="96"/>
       <c r="AI341" s="99"/>
       <c r="AJ341" s="81"/>
@@ -70319,7 +70334,7 @@
       <c r="AD342" s="102"/>
       <c r="AE342" s="55"/>
       <c r="AF342" s="102"/>
-      <c r="AG342" s="184"/>
+      <c r="AG342" s="173"/>
       <c r="AH342" s="96"/>
       <c r="AI342" s="99"/>
       <c r="AJ342" s="81"/>
@@ -70359,7 +70374,7 @@
       <c r="AD343" s="102"/>
       <c r="AE343" s="55"/>
       <c r="AF343" s="102"/>
-      <c r="AG343" s="184"/>
+      <c r="AG343" s="173"/>
       <c r="AH343" s="96"/>
       <c r="AI343" s="99"/>
       <c r="AJ343" s="81"/>
@@ -70399,7 +70414,7 @@
       <c r="AD344" s="102"/>
       <c r="AE344" s="55"/>
       <c r="AF344" s="102"/>
-      <c r="AG344" s="184"/>
+      <c r="AG344" s="173"/>
       <c r="AH344" s="96"/>
       <c r="AI344" s="99"/>
       <c r="AJ344" s="81"/>
@@ -70439,7 +70454,7 @@
       <c r="AD345" s="102"/>
       <c r="AE345" s="55"/>
       <c r="AF345" s="102"/>
-      <c r="AG345" s="184"/>
+      <c r="AG345" s="173"/>
       <c r="AH345" s="96"/>
       <c r="AI345" s="99"/>
       <c r="AJ345" s="81"/>
@@ -70479,7 +70494,7 @@
       <c r="AD346" s="102"/>
       <c r="AE346" s="55"/>
       <c r="AF346" s="102"/>
-      <c r="AG346" s="184"/>
+      <c r="AG346" s="173"/>
       <c r="AH346" s="96"/>
       <c r="AI346" s="99"/>
       <c r="AJ346" s="81"/>
@@ -70519,7 +70534,7 @@
       <c r="AD347" s="102"/>
       <c r="AE347" s="55"/>
       <c r="AF347" s="102"/>
-      <c r="AG347" s="184"/>
+      <c r="AG347" s="173"/>
       <c r="AH347" s="96"/>
       <c r="AI347" s="99"/>
       <c r="AJ347" s="81"/>
@@ -70559,7 +70574,7 @@
       <c r="AD348" s="102"/>
       <c r="AE348" s="55"/>
       <c r="AF348" s="102"/>
-      <c r="AG348" s="184"/>
+      <c r="AG348" s="173"/>
       <c r="AH348" s="96"/>
       <c r="AI348" s="99"/>
       <c r="AJ348" s="81"/>
@@ -70599,7 +70614,7 @@
       <c r="AD349" s="102"/>
       <c r="AE349" s="55"/>
       <c r="AF349" s="102"/>
-      <c r="AG349" s="184"/>
+      <c r="AG349" s="173"/>
       <c r="AH349" s="96"/>
       <c r="AI349" s="99"/>
       <c r="AJ349" s="81"/>
@@ -70639,7 +70654,7 @@
       <c r="AD350" s="102"/>
       <c r="AE350" s="55"/>
       <c r="AF350" s="102"/>
-      <c r="AG350" s="184"/>
+      <c r="AG350" s="173"/>
       <c r="AH350" s="96"/>
       <c r="AI350" s="99"/>
       <c r="AJ350" s="81"/>
@@ -70679,7 +70694,7 @@
       <c r="AD351" s="102"/>
       <c r="AE351" s="55"/>
       <c r="AF351" s="102"/>
-      <c r="AG351" s="184"/>
+      <c r="AG351" s="173"/>
       <c r="AH351" s="96"/>
       <c r="AI351" s="99"/>
       <c r="AJ351" s="81"/>
@@ -70719,7 +70734,7 @@
       <c r="AD352" s="102"/>
       <c r="AE352" s="55"/>
       <c r="AF352" s="102"/>
-      <c r="AG352" s="184"/>
+      <c r="AG352" s="173"/>
       <c r="AH352" s="96"/>
       <c r="AI352" s="99"/>
       <c r="AJ352" s="81"/>
@@ -70759,7 +70774,7 @@
       <c r="AD353" s="102"/>
       <c r="AE353" s="55"/>
       <c r="AF353" s="102"/>
-      <c r="AG353" s="184"/>
+      <c r="AG353" s="173"/>
       <c r="AH353" s="96"/>
       <c r="AI353" s="99"/>
       <c r="AJ353" s="81"/>
@@ -70799,7 +70814,7 @@
       <c r="AD354" s="102"/>
       <c r="AE354" s="55"/>
       <c r="AF354" s="102"/>
-      <c r="AG354" s="184"/>
+      <c r="AG354" s="173"/>
       <c r="AH354" s="96"/>
       <c r="AI354" s="99"/>
       <c r="AJ354" s="81"/>
@@ -70839,7 +70854,7 @@
       <c r="AD355" s="102"/>
       <c r="AE355" s="55"/>
       <c r="AF355" s="102"/>
-      <c r="AG355" s="184"/>
+      <c r="AG355" s="173"/>
       <c r="AH355" s="96"/>
       <c r="AI355" s="99"/>
       <c r="AJ355" s="81"/>
@@ -70879,7 +70894,7 @@
       <c r="AD356" s="102"/>
       <c r="AE356" s="55"/>
       <c r="AF356" s="102"/>
-      <c r="AG356" s="184"/>
+      <c r="AG356" s="173"/>
       <c r="AH356" s="96"/>
       <c r="AI356" s="99"/>
       <c r="AJ356" s="81"/>
@@ -70919,7 +70934,7 @@
       <c r="AD357" s="102"/>
       <c r="AE357" s="55"/>
       <c r="AF357" s="102"/>
-      <c r="AG357" s="184"/>
+      <c r="AG357" s="173"/>
       <c r="AH357" s="96"/>
       <c r="AI357" s="99"/>
       <c r="AJ357" s="81"/>
@@ -70959,7 +70974,7 @@
       <c r="AD358" s="102"/>
       <c r="AE358" s="55"/>
       <c r="AF358" s="102"/>
-      <c r="AG358" s="184"/>
+      <c r="AG358" s="173"/>
       <c r="AH358" s="96"/>
       <c r="AI358" s="99"/>
       <c r="AJ358" s="81"/>
@@ -70999,7 +71014,7 @@
       <c r="AD359" s="102"/>
       <c r="AE359" s="55"/>
       <c r="AF359" s="102"/>
-      <c r="AG359" s="184"/>
+      <c r="AG359" s="173"/>
       <c r="AH359" s="96"/>
       <c r="AI359" s="99"/>
       <c r="AJ359" s="81"/>
@@ -71039,7 +71054,7 @@
       <c r="AD360" s="102"/>
       <c r="AE360" s="55"/>
       <c r="AF360" s="102"/>
-      <c r="AG360" s="184"/>
+      <c r="AG360" s="173"/>
       <c r="AH360" s="96"/>
       <c r="AI360" s="99"/>
       <c r="AJ360" s="81"/>
@@ -71079,7 +71094,7 @@
       <c r="AD361" s="102"/>
       <c r="AE361" s="55"/>
       <c r="AF361" s="102"/>
-      <c r="AG361" s="184"/>
+      <c r="AG361" s="173"/>
       <c r="AH361" s="96"/>
       <c r="AI361" s="99"/>
       <c r="AJ361" s="81"/>
@@ -71119,7 +71134,7 @@
       <c r="AD362" s="102"/>
       <c r="AE362" s="55"/>
       <c r="AF362" s="102"/>
-      <c r="AG362" s="184"/>
+      <c r="AG362" s="173"/>
       <c r="AH362" s="96"/>
       <c r="AI362" s="99"/>
       <c r="AJ362" s="81"/>
@@ -71159,7 +71174,7 @@
       <c r="AD363" s="102"/>
       <c r="AE363" s="55"/>
       <c r="AF363" s="102"/>
-      <c r="AG363" s="184"/>
+      <c r="AG363" s="173"/>
       <c r="AH363" s="96"/>
       <c r="AI363" s="99"/>
       <c r="AJ363" s="81"/>
@@ -71199,7 +71214,7 @@
       <c r="AD364" s="102"/>
       <c r="AE364" s="55"/>
       <c r="AF364" s="102"/>
-      <c r="AG364" s="184"/>
+      <c r="AG364" s="173"/>
       <c r="AH364" s="96"/>
       <c r="AI364" s="99"/>
       <c r="AJ364" s="81"/>
@@ -71239,7 +71254,7 @@
       <c r="AD365" s="102"/>
       <c r="AE365" s="55"/>
       <c r="AF365" s="102"/>
-      <c r="AG365" s="184"/>
+      <c r="AG365" s="173"/>
       <c r="AH365" s="96"/>
       <c r="AI365" s="99"/>
       <c r="AJ365" s="81"/>
@@ -71279,7 +71294,7 @@
       <c r="AD366" s="102"/>
       <c r="AE366" s="55"/>
       <c r="AF366" s="102"/>
-      <c r="AG366" s="184"/>
+      <c r="AG366" s="173"/>
       <c r="AH366" s="96"/>
       <c r="AI366" s="99"/>
       <c r="AJ366" s="81"/>
@@ -71319,7 +71334,7 @@
       <c r="AD367" s="102"/>
       <c r="AE367" s="55"/>
       <c r="AF367" s="102"/>
-      <c r="AG367" s="184"/>
+      <c r="AG367" s="173"/>
       <c r="AH367" s="96"/>
       <c r="AI367" s="99"/>
       <c r="AJ367" s="81"/>
@@ -71359,7 +71374,7 @@
       <c r="AD368" s="102"/>
       <c r="AE368" s="55"/>
       <c r="AF368" s="102"/>
-      <c r="AG368" s="184"/>
+      <c r="AG368" s="173"/>
       <c r="AH368" s="96"/>
       <c r="AI368" s="99"/>
       <c r="AJ368" s="81"/>
@@ -71399,7 +71414,7 @@
       <c r="AD369" s="102"/>
       <c r="AE369" s="55"/>
       <c r="AF369" s="102"/>
-      <c r="AG369" s="184"/>
+      <c r="AG369" s="173"/>
       <c r="AH369" s="96"/>
       <c r="AI369" s="99"/>
       <c r="AJ369" s="81"/>
@@ -71439,7 +71454,7 @@
       <c r="AD370" s="102"/>
       <c r="AE370" s="55"/>
       <c r="AF370" s="102"/>
-      <c r="AG370" s="184"/>
+      <c r="AG370" s="173"/>
       <c r="AH370" s="96"/>
       <c r="AI370" s="99"/>
       <c r="AJ370" s="81"/>
@@ -71479,7 +71494,7 @@
       <c r="AD371" s="102"/>
       <c r="AE371" s="55"/>
       <c r="AF371" s="102"/>
-      <c r="AG371" s="184"/>
+      <c r="AG371" s="173"/>
       <c r="AH371" s="96"/>
       <c r="AI371" s="99"/>
       <c r="AJ371" s="81"/>
@@ -71519,7 +71534,7 @@
       <c r="AD372" s="102"/>
       <c r="AE372" s="55"/>
       <c r="AF372" s="102"/>
-      <c r="AG372" s="184"/>
+      <c r="AG372" s="173"/>
       <c r="AH372" s="96"/>
       <c r="AI372" s="99"/>
       <c r="AJ372" s="81"/>
@@ -71559,7 +71574,7 @@
       <c r="AD373" s="102"/>
       <c r="AE373" s="55"/>
       <c r="AF373" s="102"/>
-      <c r="AG373" s="184"/>
+      <c r="AG373" s="173"/>
       <c r="AH373" s="96"/>
       <c r="AI373" s="99"/>
       <c r="AJ373" s="81"/>
@@ -71599,7 +71614,7 @@
       <c r="AD374" s="102"/>
       <c r="AE374" s="55"/>
       <c r="AF374" s="102"/>
-      <c r="AG374" s="184"/>
+      <c r="AG374" s="173"/>
       <c r="AH374" s="96"/>
       <c r="AI374" s="99"/>
       <c r="AJ374" s="81"/>
@@ -71639,7 +71654,7 @@
       <c r="AD375" s="102"/>
       <c r="AE375" s="55"/>
       <c r="AF375" s="102"/>
-      <c r="AG375" s="184"/>
+      <c r="AG375" s="173"/>
       <c r="AH375" s="96"/>
       <c r="AI375" s="99"/>
       <c r="AJ375" s="81"/>
@@ -71679,7 +71694,7 @@
       <c r="AD376" s="102"/>
       <c r="AE376" s="55"/>
       <c r="AF376" s="102"/>
-      <c r="AG376" s="184"/>
+      <c r="AG376" s="173"/>
       <c r="AH376" s="96"/>
       <c r="AI376" s="99"/>
       <c r="AJ376" s="81"/>
@@ -71719,7 +71734,7 @@
       <c r="AD377" s="102"/>
       <c r="AE377" s="55"/>
       <c r="AF377" s="102"/>
-      <c r="AG377" s="184"/>
+      <c r="AG377" s="173"/>
       <c r="AH377" s="96"/>
       <c r="AI377" s="99"/>
       <c r="AJ377" s="81"/>
@@ -71759,7 +71774,7 @@
       <c r="AD378" s="102"/>
       <c r="AE378" s="55"/>
       <c r="AF378" s="102"/>
-      <c r="AG378" s="184"/>
+      <c r="AG378" s="173"/>
       <c r="AH378" s="96"/>
       <c r="AI378" s="99"/>
       <c r="AJ378" s="81"/>
@@ -71799,7 +71814,7 @@
       <c r="AD379" s="102"/>
       <c r="AE379" s="55"/>
       <c r="AF379" s="102"/>
-      <c r="AG379" s="184"/>
+      <c r="AG379" s="173"/>
       <c r="AH379" s="96"/>
       <c r="AI379" s="99"/>
       <c r="AJ379" s="81"/>
@@ -71839,7 +71854,7 @@
       <c r="AD380" s="102"/>
       <c r="AE380" s="55"/>
       <c r="AF380" s="102"/>
-      <c r="AG380" s="184"/>
+      <c r="AG380" s="173"/>
       <c r="AH380" s="96"/>
       <c r="AI380" s="99"/>
       <c r="AJ380" s="81"/>
@@ -71879,7 +71894,7 @@
       <c r="AD381" s="102"/>
       <c r="AE381" s="55"/>
       <c r="AF381" s="102"/>
-      <c r="AG381" s="184"/>
+      <c r="AG381" s="173"/>
       <c r="AH381" s="96"/>
       <c r="AI381" s="99"/>
       <c r="AJ381" s="81"/>
@@ -71919,7 +71934,7 @@
       <c r="AD382" s="102"/>
       <c r="AE382" s="55"/>
       <c r="AF382" s="102"/>
-      <c r="AG382" s="184"/>
+      <c r="AG382" s="173"/>
       <c r="AH382" s="96"/>
       <c r="AI382" s="99"/>
       <c r="AJ382" s="81"/>
@@ -71959,7 +71974,7 @@
       <c r="AD383" s="102"/>
       <c r="AE383" s="55"/>
       <c r="AF383" s="102"/>
-      <c r="AG383" s="184"/>
+      <c r="AG383" s="173"/>
       <c r="AH383" s="96"/>
       <c r="AI383" s="99"/>
       <c r="AJ383" s="81"/>
@@ -71999,7 +72014,7 @@
       <c r="AD384" s="102"/>
       <c r="AE384" s="55"/>
       <c r="AF384" s="102"/>
-      <c r="AG384" s="184"/>
+      <c r="AG384" s="173"/>
       <c r="AH384" s="96"/>
       <c r="AI384" s="99"/>
       <c r="AJ384" s="81"/>
@@ -72039,7 +72054,7 @@
       <c r="AD385" s="102"/>
       <c r="AE385" s="55"/>
       <c r="AF385" s="102"/>
-      <c r="AG385" s="184"/>
+      <c r="AG385" s="173"/>
       <c r="AH385" s="96"/>
       <c r="AI385" s="99"/>
       <c r="AJ385" s="81"/>
@@ -72079,7 +72094,7 @@
       <c r="AD386" s="102"/>
       <c r="AE386" s="55"/>
       <c r="AF386" s="102"/>
-      <c r="AG386" s="184"/>
+      <c r="AG386" s="173"/>
       <c r="AH386" s="96"/>
       <c r="AI386" s="99"/>
       <c r="AJ386" s="81"/>
@@ -72119,7 +72134,7 @@
       <c r="AD387" s="102"/>
       <c r="AE387" s="55"/>
       <c r="AF387" s="102"/>
-      <c r="AG387" s="184"/>
+      <c r="AG387" s="173"/>
       <c r="AH387" s="96"/>
       <c r="AI387" s="99"/>
       <c r="AJ387" s="81"/>
@@ -72159,7 +72174,7 @@
       <c r="AD388" s="102"/>
       <c r="AE388" s="55"/>
       <c r="AF388" s="102"/>
-      <c r="AG388" s="184"/>
+      <c r="AG388" s="173"/>
       <c r="AH388" s="96"/>
       <c r="AI388" s="99"/>
       <c r="AJ388" s="81"/>
@@ -72199,7 +72214,7 @@
       <c r="AD389" s="102"/>
       <c r="AE389" s="55"/>
       <c r="AF389" s="102"/>
-      <c r="AG389" s="184"/>
+      <c r="AG389" s="173"/>
       <c r="AH389" s="96"/>
       <c r="AI389" s="99"/>
       <c r="AJ389" s="81"/>
@@ -72239,7 +72254,7 @@
       <c r="AD390" s="102"/>
       <c r="AE390" s="55"/>
       <c r="AF390" s="102"/>
-      <c r="AG390" s="184"/>
+      <c r="AG390" s="173"/>
       <c r="AH390" s="96"/>
       <c r="AI390" s="99"/>
       <c r="AJ390" s="81"/>
@@ -72279,7 +72294,7 @@
       <c r="AD391" s="102"/>
       <c r="AE391" s="55"/>
       <c r="AF391" s="102"/>
-      <c r="AG391" s="184"/>
+      <c r="AG391" s="173"/>
       <c r="AH391" s="96"/>
       <c r="AI391" s="99"/>
       <c r="AJ391" s="81"/>
@@ -72318,7 +72333,7 @@
       <c r="AD392" s="102"/>
       <c r="AE392" s="55"/>
       <c r="AF392" s="102"/>
-      <c r="AG392" s="184"/>
+      <c r="AG392" s="173"/>
       <c r="AH392" s="96"/>
       <c r="AI392" s="99"/>
       <c r="AJ392" s="81"/>
@@ -72357,7 +72372,7 @@
       <c r="AD393" s="102"/>
       <c r="AE393" s="55"/>
       <c r="AF393" s="102"/>
-      <c r="AG393" s="184"/>
+      <c r="AG393" s="173"/>
       <c r="AH393" s="96"/>
       <c r="AI393" s="99"/>
       <c r="AJ393" s="81"/>
@@ -72396,7 +72411,7 @@
       <c r="AD394" s="102"/>
       <c r="AE394" s="55"/>
       <c r="AF394" s="102"/>
-      <c r="AG394" s="184"/>
+      <c r="AG394" s="173"/>
       <c r="AH394" s="96"/>
       <c r="AI394" s="99"/>
       <c r="AJ394" s="81"/>
@@ -72417,8 +72432,8 @@
       <c r="AC395" s="94"/>
       <c r="AD395" s="94"/>
       <c r="AE395" s="6"/>
-      <c r="AF395" s="185"/>
-      <c r="AG395" s="186"/>
+      <c r="AF395" s="174"/>
+      <c r="AG395" s="175"/>
       <c r="AH395" s="6"/>
       <c r="AI395" s="6"/>
       <c r="AK395" s="101"/>
@@ -72432,7 +72447,7 @@
     <mergeCell ref="S9:V9"/>
     <mergeCell ref="AH9:AL9"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O15:O394" xr:uid="{19465EDB-9F0A-D648-800B-EA415E10A078}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
@@ -72450,7 +72465,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="22">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="20">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$E$3:$E$5</xm:f>
@@ -72493,12 +72508,6 @@
           </x14:formula1>
           <xm:sqref>AK15:AK395</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3537F57E-BB5D-7D49-8715-24A5F9258908}">
-          <x14:formula1>
-            <xm:f>'Drop down lists'!$F$3:$F$203</xm:f>
-          </x14:formula1>
-          <xm:sqref>B395</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A198A72C-F977-B448-940D-6C736E9211D7}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$I$3:$I$7</xm:f>
@@ -72535,12 +72544,6 @@
           </x14:formula1>
           <xm:sqref>AI15:AI394</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7CF1B78-A6BE-5F4D-8ECA-CE067F34AEBE}">
-          <x14:formula1>
-            <xm:f>'Drop down lists'!$F$3:$F$205</xm:f>
-          </x14:formula1>
-          <xm:sqref>B15:B394</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C459A59-671B-2646-953F-0ABF3B6CC601}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$D$3:$D$54</xm:f>
@@ -72563,25 +72566,25 @@
           <x14:formula1>
             <xm:f>'Drop down lists'!$C$4:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D395:E395</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E7BA82AC-35CB-2742-9F9D-840BD5371448}">
-          <x14:formula1>
-            <xm:f>'Drop down lists'!$C$4:$C$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>D57:D394</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C185B3E1-973A-0240-8506-8FAB31A3BE5B}">
-          <x14:formula1>
-            <xm:f>'Drop down lists'!$C$3:$C$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>D15:D56</xm:sqref>
+          <xm:sqref>E395</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F07A25F4-11DD-A246-BBD8-B0F8F818D0DF}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$S$3:$S$5</xm:f>
           </x14:formula1>
           <xm:sqref>AF15:AF394</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{93BB54DC-B94D-084C-850A-B9C81C1203C0}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!$C$3:$C$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>D15:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2C9CEF4C-A6CD-694A-9B5A-3003D55D3858}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!$F$3:$F$209</xm:f>
+          </x14:formula1>
+          <xm:sqref>B15:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -72594,10 +72597,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:AN205"/>
+  <dimension ref="A2:AN209"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S205"/>
+    <sheetView topLeftCell="A145" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G208" sqref="G208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -72612,61 +72615,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:40" ht="36" x14ac:dyDescent="0.15">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="141" t="s">
         <v>489</v>
       </c>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="153" t="s">
+      <c r="E2" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="154" t="s">
+      <c r="F2" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="156" t="s">
+      <c r="I2" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="155" t="s">
+      <c r="J2" s="144" t="s">
         <v>529</v>
       </c>
-      <c r="K2" s="152" t="s">
+      <c r="K2" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="155" t="s">
+      <c r="L2" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="155" t="s">
+      <c r="M2" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="155" t="s">
+      <c r="N2" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="157" t="s">
+      <c r="O2" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="158" t="s">
+      <c r="P2" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="156" t="s">
+      <c r="Q2" s="145" t="s">
         <v>532</v>
       </c>
-      <c r="R2" s="158" t="s">
+      <c r="R2" s="147" t="s">
         <v>535</v>
       </c>
-      <c r="S2" s="158" t="s">
+      <c r="S2" s="147" t="s">
         <v>698</v>
       </c>
       <c r="T2" s="35"/>
@@ -72692,171 +72695,171 @@
       <c r="AN2" s="123"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="148" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="131" t="s">
         <v>495</v>
       </c>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="149" t="s">
         <v>560</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="150" t="s">
         <v>481</v>
       </c>
-      <c r="E3" s="162" t="s">
+      <c r="E3" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="162" t="s">
+      <c r="G3" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="162" t="s">
+      <c r="H3" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="159" t="s">
+      <c r="I3" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="159" t="s">
+      <c r="J3" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="162" t="s">
+      <c r="K3" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="162" t="s">
+      <c r="L3" s="151" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="164" t="s">
+      <c r="M3" s="153" t="s">
         <v>81</v>
       </c>
       <c r="N3" s="130" t="s">
         <v>505</v>
       </c>
-      <c r="O3" s="162">
+      <c r="O3" s="151">
         <v>5</v>
       </c>
-      <c r="P3" s="163" t="s">
+      <c r="P3" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="162">
+      <c r="Q3" s="148"/>
+      <c r="R3" s="151">
         <v>0</v>
       </c>
-      <c r="S3" s="162" t="s">
+      <c r="S3" s="151" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="148" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="131" t="s">
         <v>496</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="154" t="s">
         <v>499</v>
       </c>
-      <c r="D4" s="161" t="s">
+      <c r="D4" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="162" t="s">
+      <c r="E4" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="163" t="s">
+      <c r="F4" s="152" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="166" t="s">
+      <c r="G4" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="162" t="s">
+      <c r="H4" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="162" t="s">
+      <c r="I4" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="167" t="s">
+      <c r="J4" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="162" t="s">
+      <c r="K4" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="162" t="s">
+      <c r="L4" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="M4" s="168" t="s">
+      <c r="M4" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="N4" s="162" t="s">
+      <c r="N4" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="162">
+      <c r="O4" s="151">
         <v>10</v>
       </c>
-      <c r="P4" s="163" t="s">
+      <c r="P4" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="Q4" s="162" t="s">
+      <c r="Q4" s="151" t="s">
         <v>533</v>
       </c>
-      <c r="R4" s="162">
+      <c r="R4" s="151">
         <v>1</v>
       </c>
-      <c r="S4" s="163" t="s">
+      <c r="S4" s="152" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="151" t="s">
         <v>516</v>
       </c>
       <c r="B5" s="131" t="s">
         <v>497</v>
       </c>
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="149" t="s">
         <v>500</v>
       </c>
       <c r="D5" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="162" t="s">
+      <c r="E5" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="162" t="s">
+      <c r="F5" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="162" t="s">
+      <c r="G5" s="151" t="s">
         <v>99</v>
       </c>
       <c r="H5"/>
-      <c r="I5" s="162" t="s">
+      <c r="I5" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="J5" s="169"/>
-      <c r="K5" s="162" t="s">
+      <c r="J5" s="158"/>
+      <c r="K5" s="151" t="s">
         <v>97</v>
       </c>
       <c r="L5" t="s">
         <v>101</v>
       </c>
-      <c r="M5" s="168" t="s">
+      <c r="M5" s="157" t="s">
         <v>102</v>
       </c>
-      <c r="N5" s="162" t="s">
+      <c r="N5" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="O5" s="162">
+      <c r="O5" s="151">
         <v>15</v>
       </c>
       <c r="P5"/>
-      <c r="Q5" s="162" t="s">
+      <c r="Q5" s="151" t="s">
         <v>534</v>
       </c>
-      <c r="R5" s="162">
+      <c r="R5" s="151">
         <v>2</v>
       </c>
-      <c r="S5" s="162" t="s">
+      <c r="S5" s="151" t="s">
         <v>701</v>
       </c>
     </row>
@@ -72865,40 +72868,40 @@
       <c r="B6" s="131" t="s">
         <v>564</v>
       </c>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="149" t="s">
         <v>561</v>
       </c>
       <c r="D6" s="131" t="s">
         <v>96</v>
       </c>
       <c r="E6"/>
-      <c r="F6" s="162" t="s">
+      <c r="F6" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="166" t="s">
+      <c r="G6" s="155" t="s">
         <v>105</v>
       </c>
       <c r="H6"/>
-      <c r="I6" s="170" t="s">
+      <c r="I6" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="169"/>
+      <c r="J6" s="158"/>
       <c r="K6"/>
-      <c r="L6" s="162" t="s">
+      <c r="L6" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="M6" s="164" t="s">
+      <c r="M6" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="N6" s="162" t="s">
+      <c r="N6" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="O6" s="162">
+      <c r="O6" s="151">
         <v>20</v>
       </c>
       <c r="P6"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="162">
+      <c r="Q6" s="160"/>
+      <c r="R6" s="151">
         <v>3</v>
       </c>
       <c r="S6"/>
@@ -72908,38 +72911,38 @@
       <c r="B7" s="131" t="s">
         <v>539</v>
       </c>
-      <c r="C7" s="160" t="s">
+      <c r="C7" s="149" t="s">
         <v>562</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>124</v>
       </c>
       <c r="E7"/>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="162" t="s">
+      <c r="G7" s="151" t="s">
         <v>111</v>
       </c>
       <c r="H7"/>
-      <c r="I7" s="162" t="s">
+      <c r="I7" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="169"/>
+      <c r="J7" s="158"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7" s="168" t="s">
+      <c r="M7" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="N7" s="162" t="s">
+      <c r="N7" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="O7" s="162">
+      <c r="O7" s="151">
         <v>25</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7" s="162">
+      <c r="R7" s="151">
         <v>4</v>
       </c>
       <c r="S7"/>
@@ -72949,71 +72952,73 @@
       <c r="B8" s="131" t="s">
         <v>498</v>
       </c>
-      <c r="C8" s="160" t="s">
+      <c r="C8" s="149" t="s">
         <v>563</v>
       </c>
       <c r="D8" s="131" t="s">
         <v>482</v>
       </c>
       <c r="E8"/>
-      <c r="F8" s="162" t="s">
+      <c r="F8" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="170" t="s">
+      <c r="G8" s="159" t="s">
         <v>116</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="169"/>
+      <c r="J8" s="158"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" s="168" t="s">
+      <c r="M8" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="162" t="s">
+      <c r="N8" s="151" t="s">
         <v>114</v>
       </c>
-      <c r="O8" s="162">
+      <c r="O8" s="151">
         <v>30</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8" s="162">
+      <c r="R8" s="151">
         <v>5</v>
       </c>
       <c r="S8"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A9"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="173" t="s">
+      <c r="B9" s="161"/>
+      <c r="C9" s="131" t="s">
+        <v>705</v>
+      </c>
+      <c r="D9" s="162" t="s">
         <v>483</v>
       </c>
       <c r="E9"/>
-      <c r="F9" s="162" t="s">
+      <c r="F9" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="170" t="s">
+      <c r="G9" s="159" t="s">
         <v>121</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="169"/>
+      <c r="J9" s="158"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="M9" s="164" t="s">
+      <c r="M9" s="153" t="s">
         <v>122</v>
       </c>
-      <c r="N9" s="162" t="s">
+      <c r="N9" s="151" t="s">
         <v>118</v>
       </c>
-      <c r="O9" s="162">
+      <c r="O9" s="151">
         <v>35</v>
       </c>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9" s="162">
+      <c r="R9" s="151">
         <v>6</v>
       </c>
       <c r="S9"/>
@@ -73021,34 +73026,34 @@
     <row r="10" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A10"/>
       <c r="B10"/>
-      <c r="C10" s="172"/>
+      <c r="C10" s="161"/>
       <c r="D10" s="131" t="s">
         <v>503</v>
       </c>
       <c r="E10"/>
-      <c r="F10" s="162" t="s">
+      <c r="F10" s="151" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="151" t="s">
         <v>126</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="169"/>
+      <c r="J10" s="158"/>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="M10" s="168" t="s">
+      <c r="M10" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="N10" s="162" t="s">
+      <c r="N10" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="O10" s="162">
+      <c r="O10" s="151">
         <v>40</v>
       </c>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10" s="162">
+      <c r="R10" s="151">
         <v>7</v>
       </c>
       <c r="S10"/>
@@ -73061,29 +73066,29 @@
         <v>484</v>
       </c>
       <c r="E11"/>
-      <c r="F11" s="162" t="s">
+      <c r="F11" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="162" t="s">
+      <c r="G11" s="151" t="s">
         <v>131</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="169"/>
+      <c r="J11" s="158"/>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="M11" s="164" t="s">
+      <c r="M11" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="N11" s="162" t="s">
+      <c r="N11" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="O11" s="162">
+      <c r="O11" s="151">
         <v>45</v>
       </c>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11" s="162">
+      <c r="R11" s="151">
         <v>8</v>
       </c>
       <c r="S11"/>
@@ -73096,202 +73101,202 @@
         <v>485</v>
       </c>
       <c r="E12"/>
-      <c r="F12" s="162" t="s">
+      <c r="F12" s="151" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="162" t="s">
+      <c r="G12" s="151" t="s">
         <v>136</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="169"/>
+      <c r="J12" s="158"/>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="M12" s="168" t="s">
+      <c r="M12" s="157" t="s">
         <v>137</v>
       </c>
       <c r="N12" s="130" t="s">
         <v>506</v>
       </c>
-      <c r="O12" s="162">
+      <c r="O12" s="151">
         <v>50</v>
       </c>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12" s="162">
+      <c r="R12" s="151">
         <v>9</v>
       </c>
       <c r="S12"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A13"/>
-      <c r="B13" s="172"/>
+      <c r="B13" s="161"/>
       <c r="C13"/>
       <c r="D13" s="131" t="s">
         <v>486</v>
       </c>
       <c r="E13"/>
-      <c r="F13" s="162" t="s">
+      <c r="F13" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="162" t="s">
+      <c r="G13" s="151" t="s">
         <v>141</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" s="169"/>
+      <c r="J13" s="158"/>
       <c r="K13"/>
       <c r="L13"/>
-      <c r="M13" s="168" t="s">
+      <c r="M13" s="157" t="s">
         <v>142</v>
       </c>
       <c r="N13" s="130" t="s">
         <v>507</v>
       </c>
-      <c r="O13" s="162">
+      <c r="O13" s="151">
         <v>55</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13" s="162">
+      <c r="R13" s="151">
         <v>10</v>
       </c>
       <c r="S13"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A14"/>
-      <c r="B14" s="172"/>
-      <c r="C14" s="172"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
       <c r="D14" s="131" t="s">
         <v>504</v>
       </c>
       <c r="E14"/>
-      <c r="F14" s="162" t="s">
+      <c r="F14" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="162" t="s">
+      <c r="G14" s="151" t="s">
         <v>146</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" s="169"/>
+      <c r="J14" s="158"/>
       <c r="K14"/>
       <c r="L14"/>
-      <c r="M14" s="164" t="s">
+      <c r="M14" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="N14" s="162" t="s">
+      <c r="N14" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="O14" s="162">
+      <c r="O14" s="151">
         <v>60</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
-      <c r="R14" s="162">
+      <c r="R14" s="151">
         <v>11</v>
       </c>
       <c r="S14"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A15"/>
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
       <c r="D15" s="131" t="s">
         <v>487</v>
       </c>
       <c r="E15"/>
-      <c r="F15" s="162" t="s">
+      <c r="F15" s="151" t="s">
         <v>150</v>
       </c>
-      <c r="G15" s="162" t="s">
+      <c r="G15" s="151" t="s">
         <v>151</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15" s="169"/>
+      <c r="J15" s="158"/>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="M15" s="168" t="s">
+      <c r="M15" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="N15" s="162" t="s">
+      <c r="N15" s="151" t="s">
         <v>138</v>
       </c>
-      <c r="O15" s="162">
+      <c r="O15" s="151">
         <v>65</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
-      <c r="R15" s="162">
+      <c r="R15" s="151">
         <v>12</v>
       </c>
       <c r="S15"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A16"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="161"/>
       <c r="D16" s="131" t="s">
         <v>488</v>
       </c>
       <c r="E16"/>
-      <c r="F16" s="162" t="s">
+      <c r="F16" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="162" t="s">
+      <c r="G16" s="151" t="s">
         <v>156</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16" s="169"/>
+      <c r="J16" s="158"/>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16" s="168" t="s">
+      <c r="M16" s="157" t="s">
         <v>157</v>
       </c>
-      <c r="N16" s="162" t="s">
+      <c r="N16" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="O16" s="162">
+      <c r="O16" s="151">
         <v>70</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16" s="162">
+      <c r="R16" s="151">
         <v>13</v>
       </c>
       <c r="S16"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
       <c r="D17" s="131" t="s">
         <v>129</v>
       </c>
       <c r="E17"/>
-      <c r="F17" s="162" t="s">
+      <c r="F17" s="151" t="s">
         <v>160</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" s="169"/>
+      <c r="J17" s="158"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="M17" s="164" t="s">
+      <c r="M17" s="153" t="s">
         <v>161</v>
       </c>
-      <c r="N17" s="162" t="s">
+      <c r="N17" s="151" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="162">
+      <c r="O17" s="151">
         <v>75</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17" s="162">
+      <c r="R17" s="151">
         <v>14</v>
       </c>
       <c r="S17"/>
@@ -73299,32 +73304,32 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="C18" s="172"/>
+      <c r="C18" s="161"/>
       <c r="D18" s="131" t="s">
         <v>134</v>
       </c>
       <c r="E18"/>
-      <c r="F18" s="162" t="s">
+      <c r="F18" s="151" t="s">
         <v>164</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" s="169"/>
+      <c r="J18" s="158"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18" s="168" t="s">
+      <c r="M18" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="N18" s="162" t="s">
+      <c r="N18" s="151" t="s">
         <v>153</v>
       </c>
-      <c r="O18" s="162">
+      <c r="O18" s="151">
         <v>80</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18" s="162">
+      <c r="R18" s="151">
         <v>15</v>
       </c>
       <c r="S18"/>
@@ -73337,653 +73342,653 @@
         <v>139</v>
       </c>
       <c r="E19"/>
-      <c r="F19" s="162" t="s">
+      <c r="F19" s="151" t="s">
         <v>167</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19" s="169"/>
+      <c r="J19" s="158"/>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19" s="164" t="s">
+      <c r="M19" s="153" t="s">
         <v>168</v>
       </c>
-      <c r="N19" s="162" t="s">
+      <c r="N19" s="151" t="s">
         <v>158</v>
       </c>
-      <c r="O19" s="162">
+      <c r="O19" s="151">
         <v>85</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19" s="162">
+      <c r="R19" s="151">
         <v>16</v>
       </c>
       <c r="S19"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20"/>
-      <c r="B20" s="172"/>
+      <c r="B20" s="161"/>
       <c r="C20"/>
       <c r="D20" s="131" t="s">
         <v>144</v>
       </c>
       <c r="E20"/>
-      <c r="F20" s="162" t="s">
+      <c r="F20" s="151" t="s">
         <v>170</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
-      <c r="J20" s="169"/>
+      <c r="J20" s="158"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20" s="168" t="s">
+      <c r="M20" s="157" t="s">
         <v>171</v>
       </c>
-      <c r="N20" s="162" t="s">
+      <c r="N20" s="151" t="s">
         <v>162</v>
       </c>
-      <c r="O20" s="162">
+      <c r="O20" s="151">
         <v>90</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20" s="162">
+      <c r="R20" s="151">
         <v>17</v>
       </c>
       <c r="S20"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="172"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
       <c r="D21" s="131" t="s">
         <v>149</v>
       </c>
       <c r="E21"/>
-      <c r="F21" s="162" t="s">
+      <c r="F21" s="151" t="s">
         <v>174</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21" s="169"/>
+      <c r="J21" s="158"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21" s="168" t="s">
+      <c r="M21" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="N21" s="162" t="s">
+      <c r="N21" s="151" t="s">
         <v>166</v>
       </c>
-      <c r="O21" s="162">
+      <c r="O21" s="151">
         <v>95</v>
       </c>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21" s="162">
+      <c r="R21" s="151">
         <v>18</v>
       </c>
       <c r="S21"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="172"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
       <c r="D22" s="131" t="s">
         <v>154</v>
       </c>
       <c r="E22"/>
-      <c r="F22" s="162" t="s">
+      <c r="F22" s="151" t="s">
         <v>178</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22" s="169"/>
+      <c r="J22" s="158"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22" s="164" t="s">
+      <c r="M22" s="153" t="s">
         <v>179</v>
       </c>
-      <c r="N22" s="162" t="s">
+      <c r="N22" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="O22" s="162">
+      <c r="O22" s="151">
         <v>100</v>
       </c>
       <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22" s="162">
+      <c r="R22" s="151">
         <v>19</v>
       </c>
       <c r="S22"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="172"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="161"/>
       <c r="D23" s="131" t="s">
         <v>159</v>
       </c>
       <c r="E23"/>
-      <c r="F23" s="162" t="s">
+      <c r="F23" s="151" t="s">
         <v>182</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23" s="169"/>
+      <c r="J23" s="158"/>
       <c r="K23"/>
       <c r="L23"/>
-      <c r="M23" s="168" t="s">
+      <c r="M23" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="N23" s="162" t="s">
+      <c r="N23" s="151" t="s">
         <v>172</v>
       </c>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23" s="162">
+      <c r="R23" s="151">
         <v>20</v>
       </c>
       <c r="S23"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="172"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="161"/>
       <c r="D24" s="131" t="s">
         <v>163</v>
       </c>
       <c r="E24"/>
-      <c r="F24" s="162" t="s">
+      <c r="F24" s="151" t="s">
         <v>186</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" s="169"/>
+      <c r="J24" s="158"/>
       <c r="K24"/>
       <c r="L24"/>
-      <c r="M24" s="168" t="s">
+      <c r="M24" s="157" t="s">
         <v>187</v>
       </c>
-      <c r="N24" s="162" t="s">
+      <c r="N24" s="151" t="s">
         <v>176</v>
       </c>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24" s="162">
+      <c r="R24" s="151">
         <v>21</v>
       </c>
       <c r="S24"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="172"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
       <c r="D25" s="131" t="s">
         <v>173</v>
       </c>
       <c r="E25"/>
-      <c r="F25" s="162" t="s">
+      <c r="F25" s="151" t="s">
         <v>190</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25" s="169"/>
+      <c r="J25" s="158"/>
       <c r="K25"/>
       <c r="L25"/>
-      <c r="M25" s="164" t="s">
+      <c r="M25" s="153" t="s">
         <v>191</v>
       </c>
-      <c r="N25" s="162" t="s">
+      <c r="N25" s="151" t="s">
         <v>180</v>
       </c>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25" s="162">
+      <c r="R25" s="151">
         <v>22</v>
       </c>
       <c r="S25"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="172"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
       <c r="D26" s="131" t="s">
         <v>177</v>
       </c>
       <c r="E26"/>
-      <c r="F26" s="162" t="s">
+      <c r="F26" s="151" t="s">
         <v>194</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" s="169"/>
+      <c r="J26" s="158"/>
       <c r="K26"/>
       <c r="L26"/>
-      <c r="M26" s="168" t="s">
+      <c r="M26" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="N26" s="162" t="s">
+      <c r="N26" s="151" t="s">
         <v>184</v>
       </c>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
-      <c r="R26" s="162">
+      <c r="R26" s="151">
         <v>23</v>
       </c>
       <c r="S26"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
       <c r="D27" s="131" t="s">
         <v>181</v>
       </c>
       <c r="E27"/>
-      <c r="F27" s="162" t="s">
+      <c r="F27" s="151" t="s">
         <v>198</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27" s="169"/>
+      <c r="J27" s="158"/>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27" s="164" t="s">
+      <c r="M27" s="153" t="s">
         <v>199</v>
       </c>
-      <c r="N27" s="162" t="s">
+      <c r="N27" s="151" t="s">
         <v>188</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
-      <c r="R27" s="162">
+      <c r="R27" s="151">
         <v>24</v>
       </c>
       <c r="S27"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="161"/>
       <c r="D28" s="131" t="s">
         <v>185</v>
       </c>
       <c r="E28"/>
-      <c r="F28" s="162" t="s">
+      <c r="F28" s="151" t="s">
         <v>202</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28" s="169"/>
+      <c r="J28" s="158"/>
       <c r="K28"/>
       <c r="L28"/>
-      <c r="M28" s="168" t="s">
+      <c r="M28" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="N28" s="166" t="s">
+      <c r="N28" s="155" t="s">
         <v>494</v>
       </c>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
-      <c r="R28" s="162">
+      <c r="R28" s="151">
         <v>25</v>
       </c>
       <c r="S28"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
       <c r="D29" s="131" t="s">
         <v>189</v>
       </c>
       <c r="E29"/>
-      <c r="F29" s="162" t="s">
+      <c r="F29" s="151" t="s">
         <v>205</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
-      <c r="J29" s="169"/>
+      <c r="J29" s="158"/>
       <c r="K29"/>
       <c r="L29"/>
-      <c r="M29" s="168" t="s">
+      <c r="M29" s="157" t="s">
         <v>206</v>
       </c>
-      <c r="N29" s="162" t="s">
+      <c r="N29" s="151" t="s">
         <v>192</v>
       </c>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29" s="162">
+      <c r="R29" s="151">
         <v>26</v>
       </c>
       <c r="S29"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
       <c r="D30" s="131" t="s">
         <v>193</v>
       </c>
       <c r="E30"/>
-      <c r="F30" s="162" t="s">
+      <c r="F30" s="151" t="s">
         <v>209</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30" s="169"/>
+      <c r="J30" s="158"/>
       <c r="K30"/>
       <c r="L30"/>
-      <c r="M30" s="164" t="s">
+      <c r="M30" s="153" t="s">
         <v>210</v>
       </c>
-      <c r="N30" s="162" t="s">
+      <c r="N30" s="151" t="s">
         <v>196</v>
       </c>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
-      <c r="R30" s="162">
+      <c r="R30" s="151">
         <v>27</v>
       </c>
       <c r="S30"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
       <c r="D31" s="131" t="s">
         <v>197</v>
       </c>
       <c r="E31"/>
-      <c r="F31" s="162" t="s">
+      <c r="F31" s="151" t="s">
         <v>213</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31" s="169"/>
+      <c r="J31" s="158"/>
       <c r="K31"/>
       <c r="L31"/>
-      <c r="M31" s="168" t="s">
+      <c r="M31" s="157" t="s">
         <v>214</v>
       </c>
-      <c r="N31" s="162" t="s">
+      <c r="N31" s="151" t="s">
         <v>200</v>
       </c>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
-      <c r="R31" s="162">
+      <c r="R31" s="151">
         <v>28</v>
       </c>
       <c r="S31"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="172"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
       <c r="D32" s="131" t="s">
         <v>201</v>
       </c>
       <c r="E32"/>
-      <c r="F32" s="162" t="s">
+      <c r="F32" s="151" t="s">
         <v>217</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32" s="169"/>
+      <c r="J32" s="158"/>
       <c r="K32"/>
       <c r="L32"/>
-      <c r="M32" s="168" t="s">
+      <c r="M32" s="157" t="s">
         <v>218</v>
       </c>
-      <c r="N32" s="162" t="s">
+      <c r="N32" s="151" t="s">
         <v>207</v>
       </c>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
-      <c r="R32" s="162">
+      <c r="R32" s="151">
         <v>29</v>
       </c>
       <c r="S32"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="161"/>
       <c r="D33" s="131" t="s">
         <v>204</v>
       </c>
       <c r="E33"/>
-      <c r="F33" s="162" t="s">
+      <c r="F33" s="151" t="s">
         <v>221</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33" s="169"/>
+      <c r="J33" s="158"/>
       <c r="K33"/>
       <c r="L33"/>
-      <c r="M33" s="164" t="s">
+      <c r="M33" s="153" t="s">
         <v>222</v>
       </c>
-      <c r="N33" s="162" t="s">
+      <c r="N33" s="151" t="s">
         <v>211</v>
       </c>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33" s="162">
+      <c r="R33" s="151">
         <v>30</v>
       </c>
       <c r="S33"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34"/>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
       <c r="D34" s="131" t="s">
         <v>208</v>
       </c>
       <c r="E34"/>
-      <c r="F34" s="162" t="s">
+      <c r="F34" s="151" t="s">
         <v>225</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34" s="169"/>
+      <c r="J34" s="158"/>
       <c r="K34"/>
       <c r="L34"/>
-      <c r="M34" s="168" t="s">
+      <c r="M34" s="157" t="s">
         <v>226</v>
       </c>
-      <c r="N34" s="162" t="s">
+      <c r="N34" s="151" t="s">
         <v>215</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
-      <c r="R34" s="162">
+      <c r="R34" s="151">
         <v>31</v>
       </c>
       <c r="S34"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35"/>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
       <c r="D35" s="131" t="s">
         <v>515</v>
       </c>
       <c r="E35"/>
-      <c r="F35" s="162" t="s">
+      <c r="F35" s="151" t="s">
         <v>229</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35" s="169"/>
+      <c r="J35" s="158"/>
       <c r="K35"/>
       <c r="L35"/>
-      <c r="M35" s="164" t="s">
+      <c r="M35" s="153" t="s">
         <v>230</v>
       </c>
-      <c r="N35" s="162" t="s">
+      <c r="N35" s="151" t="s">
         <v>219</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
-      <c r="R35" s="162">
+      <c r="R35" s="151">
         <v>32</v>
       </c>
       <c r="S35"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36"/>
-      <c r="B36" s="172"/>
-      <c r="C36" s="172"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
       <c r="D36" s="131" t="s">
         <v>527</v>
       </c>
       <c r="E36"/>
-      <c r="F36" s="162" t="s">
+      <c r="F36" s="151" t="s">
         <v>233</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="J36" s="169"/>
+      <c r="J36" s="158"/>
       <c r="K36"/>
       <c r="L36"/>
-      <c r="M36" s="168" t="s">
+      <c r="M36" s="157" t="s">
         <v>234</v>
       </c>
-      <c r="N36" s="162" t="s">
+      <c r="N36" s="151" t="s">
         <v>223</v>
       </c>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36" s="162">
+      <c r="R36" s="151">
         <v>33</v>
       </c>
       <c r="S36"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37"/>
-      <c r="B37" s="172"/>
-      <c r="C37" s="172"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="161"/>
       <c r="D37" s="131" t="s">
         <v>212</v>
       </c>
       <c r="E37"/>
-      <c r="F37" s="162" t="s">
+      <c r="F37" s="151" t="s">
         <v>236</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37" s="169"/>
+      <c r="J37" s="158"/>
       <c r="K37"/>
       <c r="L37"/>
-      <c r="M37" s="168" t="s">
+      <c r="M37" s="157" t="s">
         <v>237</v>
       </c>
-      <c r="N37" s="162" t="s">
+      <c r="N37" s="151" t="s">
         <v>227</v>
       </c>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37" s="162">
+      <c r="R37" s="151">
         <v>34</v>
       </c>
       <c r="S37"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38"/>
-      <c r="B38" s="172"/>
-      <c r="C38" s="172"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="161"/>
       <c r="D38" s="131" t="s">
         <v>216</v>
       </c>
       <c r="E38"/>
-      <c r="F38" s="162" t="s">
+      <c r="F38" s="151" t="s">
         <v>240</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38" s="169"/>
+      <c r="J38" s="158"/>
       <c r="K38"/>
       <c r="L38"/>
-      <c r="M38" s="164" t="s">
+      <c r="M38" s="153" t="s">
         <v>241</v>
       </c>
-      <c r="N38" s="162" t="s">
+      <c r="N38" s="151" t="s">
         <v>231</v>
       </c>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38" s="162">
+      <c r="R38" s="151">
         <v>35</v>
       </c>
       <c r="S38"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39"/>
-      <c r="B39" s="172"/>
-      <c r="C39" s="172"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
       <c r="D39" s="131" t="s">
         <v>220</v>
       </c>
       <c r="E39"/>
-      <c r="F39" s="162" t="s">
+      <c r="F39" s="151" t="s">
         <v>244</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39" s="169"/>
+      <c r="J39" s="158"/>
       <c r="K39"/>
       <c r="L39"/>
-      <c r="M39" s="168" t="s">
+      <c r="M39" s="157" t="s">
         <v>245</v>
       </c>
-      <c r="N39" s="162" t="s">
+      <c r="N39" s="151" t="s">
         <v>235</v>
       </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
-      <c r="R39" s="162">
+      <c r="R39" s="151">
         <v>36</v>
       </c>
       <c r="S39"/>
@@ -73991,30 +73996,30 @@
     <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40"/>
       <c r="B40"/>
-      <c r="C40" s="172"/>
+      <c r="C40" s="161"/>
       <c r="D40" s="131" t="s">
         <v>224</v>
       </c>
       <c r="E40"/>
-      <c r="F40" s="162" t="s">
+      <c r="F40" s="151" t="s">
         <v>247</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40" s="169"/>
+      <c r="J40" s="158"/>
       <c r="K40"/>
       <c r="L40"/>
-      <c r="M40" s="168" t="s">
+      <c r="M40" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="N40" s="166" t="s">
+      <c r="N40" s="155" t="s">
         <v>510</v>
       </c>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40" s="162">
+      <c r="R40" s="151">
         <v>37</v>
       </c>
       <c r="S40"/>
@@ -74027,25 +74032,25 @@
         <v>228</v>
       </c>
       <c r="E41"/>
-      <c r="F41" s="162" t="s">
+      <c r="F41" s="151" t="s">
         <v>251</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41" s="169"/>
+      <c r="J41" s="158"/>
       <c r="K41"/>
       <c r="L41"/>
-      <c r="M41" s="164" t="s">
+      <c r="M41" s="153" t="s">
         <v>252</v>
       </c>
-      <c r="N41" s="162" t="s">
+      <c r="N41" s="151" t="s">
         <v>238</v>
       </c>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41" s="162">
+      <c r="R41" s="151">
         <v>38</v>
       </c>
       <c r="S41"/>
@@ -74058,25 +74063,25 @@
         <v>514</v>
       </c>
       <c r="E42"/>
-      <c r="F42" s="162" t="s">
+      <c r="F42" s="151" t="s">
         <v>253</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42" s="169"/>
+      <c r="J42" s="158"/>
       <c r="K42"/>
       <c r="L42"/>
-      <c r="M42" s="168" t="s">
+      <c r="M42" s="157" t="s">
         <v>254</v>
       </c>
-      <c r="N42" s="162" t="s">
+      <c r="N42" s="151" t="s">
         <v>242</v>
       </c>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42" s="162">
+      <c r="R42" s="151">
         <v>39</v>
       </c>
       <c r="S42"/>
@@ -74089,25 +74094,25 @@
         <v>559</v>
       </c>
       <c r="E43"/>
-      <c r="F43" s="162" t="s">
+      <c r="F43" s="151" t="s">
         <v>255</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43" s="169"/>
+      <c r="J43" s="158"/>
       <c r="K43"/>
       <c r="L43"/>
-      <c r="M43" s="164" t="s">
+      <c r="M43" s="153" t="s">
         <v>256</v>
       </c>
-      <c r="N43" s="166" t="s">
+      <c r="N43" s="155" t="s">
         <v>246</v>
       </c>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
-      <c r="R43" s="162">
+      <c r="R43" s="151">
         <v>40</v>
       </c>
       <c r="S43"/>
@@ -74120,25 +74125,25 @@
         <v>232</v>
       </c>
       <c r="E44"/>
-      <c r="F44" s="162" t="s">
+      <c r="F44" s="151" t="s">
         <v>257</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44" s="169"/>
+      <c r="J44" s="158"/>
       <c r="K44"/>
       <c r="L44"/>
-      <c r="M44" s="168" t="s">
+      <c r="M44" s="157" t="s">
         <v>258</v>
       </c>
-      <c r="N44" s="174" t="s">
+      <c r="N44" s="163" t="s">
         <v>249</v>
       </c>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
-      <c r="R44" s="162">
+      <c r="R44" s="151">
         <v>41</v>
       </c>
       <c r="S44"/>
@@ -74151,23 +74156,23 @@
         <v>239</v>
       </c>
       <c r="E45"/>
-      <c r="F45" s="162" t="s">
+      <c r="F45" s="151" t="s">
         <v>259</v>
       </c>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="J45" s="169"/>
+      <c r="J45" s="158"/>
       <c r="K45"/>
       <c r="L45"/>
-      <c r="M45" s="168" t="s">
+      <c r="M45" s="157" t="s">
         <v>260</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45" s="162">
+      <c r="R45" s="151">
         <v>42</v>
       </c>
       <c r="S45"/>
@@ -74180,23 +74185,23 @@
         <v>243</v>
       </c>
       <c r="E46"/>
-      <c r="F46" s="162" t="s">
+      <c r="F46" s="151" t="s">
         <v>261</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46" s="169"/>
+      <c r="J46" s="158"/>
       <c r="K46"/>
       <c r="L46"/>
-      <c r="M46" s="164" t="s">
+      <c r="M46" s="153" t="s">
         <v>262</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46" s="162">
+      <c r="R46" s="151">
         <v>43</v>
       </c>
       <c r="S46"/>
@@ -74209,23 +74214,23 @@
         <v>525</v>
       </c>
       <c r="E47"/>
-      <c r="F47" s="162" t="s">
+      <c r="F47" s="151" t="s">
         <v>263</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47" s="169"/>
+      <c r="J47" s="158"/>
       <c r="K47"/>
       <c r="L47"/>
-      <c r="M47" s="168" t="s">
+      <c r="M47" s="157" t="s">
         <v>264</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47" s="162">
+      <c r="R47" s="151">
         <v>44</v>
       </c>
       <c r="S47"/>
@@ -74238,23 +74243,23 @@
         <v>522</v>
       </c>
       <c r="E48"/>
-      <c r="F48" s="162" t="s">
+      <c r="F48" s="151" t="s">
         <v>265</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
-      <c r="J48" s="169"/>
+      <c r="J48" s="158"/>
       <c r="K48"/>
       <c r="L48"/>
-      <c r="M48" s="168" t="s">
+      <c r="M48" s="157" t="s">
         <v>266</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48" s="162">
+      <c r="R48" s="151">
         <v>45</v>
       </c>
       <c r="S48"/>
@@ -74267,23 +74272,23 @@
         <v>250</v>
       </c>
       <c r="E49"/>
-      <c r="F49" s="162" t="s">
+      <c r="F49" s="151" t="s">
         <v>267</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-      <c r="J49" s="169"/>
+      <c r="J49" s="158"/>
       <c r="K49"/>
       <c r="L49"/>
-      <c r="M49" s="164" t="s">
+      <c r="M49" s="153" t="s">
         <v>268</v>
       </c>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49" s="162">
+      <c r="R49" s="151">
         <v>46</v>
       </c>
       <c r="S49"/>
@@ -74296,23 +74301,23 @@
         <v>526</v>
       </c>
       <c r="E50"/>
-      <c r="F50" s="162" t="s">
+      <c r="F50" s="151" t="s">
         <v>269</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50" s="169"/>
+      <c r="J50" s="158"/>
       <c r="K50"/>
       <c r="L50"/>
-      <c r="M50" s="168" t="s">
+      <c r="M50" s="157" t="s">
         <v>270</v>
       </c>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
-      <c r="R50" s="162">
+      <c r="R50" s="151">
         <v>47</v>
       </c>
       <c r="S50"/>
@@ -74325,23 +74330,23 @@
         <v>511</v>
       </c>
       <c r="E51"/>
-      <c r="F51" s="162" t="s">
+      <c r="F51" s="151" t="s">
         <v>271</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51" s="169"/>
+      <c r="J51" s="158"/>
       <c r="K51"/>
       <c r="L51"/>
-      <c r="M51" s="164" t="s">
+      <c r="M51" s="153" t="s">
         <v>272</v>
       </c>
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
-      <c r="R51" s="162">
+      <c r="R51" s="151">
         <v>48</v>
       </c>
       <c r="S51"/>
@@ -74354,23 +74359,23 @@
         <v>513</v>
       </c>
       <c r="E52"/>
-      <c r="F52" s="162" t="s">
+      <c r="F52" s="151" t="s">
         <v>273</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-      <c r="J52" s="169"/>
+      <c r="J52" s="158"/>
       <c r="K52"/>
       <c r="L52"/>
-      <c r="M52" s="168" t="s">
+      <c r="M52" s="157" t="s">
         <v>274</v>
       </c>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="R52" s="162">
+      <c r="R52" s="151">
         <v>49</v>
       </c>
       <c r="S52"/>
@@ -74383,23 +74388,23 @@
         <v>512</v>
       </c>
       <c r="E53"/>
-      <c r="F53" s="162" t="s">
+      <c r="F53" s="151" t="s">
         <v>275</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
-      <c r="J53" s="169"/>
+      <c r="J53" s="158"/>
       <c r="K53"/>
       <c r="L53"/>
-      <c r="M53" s="168" t="s">
+      <c r="M53" s="157" t="s">
         <v>276</v>
       </c>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53" s="162">
+      <c r="R53" s="151">
         <v>50</v>
       </c>
       <c r="S53"/>
@@ -74412,23 +74417,23 @@
         <v>528</v>
       </c>
       <c r="E54"/>
-      <c r="F54" s="162" t="s">
+      <c r="F54" s="151" t="s">
         <v>277</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54" s="169"/>
+      <c r="J54" s="158"/>
       <c r="K54"/>
       <c r="L54"/>
-      <c r="M54" s="164" t="s">
+      <c r="M54" s="153" t="s">
         <v>278</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="R54" s="162">
+      <c r="R54" s="151">
         <v>51</v>
       </c>
       <c r="S54"/>
@@ -74439,23 +74444,23 @@
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
-      <c r="F55" s="162" t="s">
+      <c r="F55" s="151" t="s">
         <v>279</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="J55" s="169"/>
+      <c r="J55" s="158"/>
       <c r="K55"/>
       <c r="L55"/>
-      <c r="M55" s="168" t="s">
+      <c r="M55" s="157" t="s">
         <v>280</v>
       </c>
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="R55" s="162">
+      <c r="R55" s="151">
         <v>52</v>
       </c>
       <c r="S55"/>
@@ -74466,23 +74471,23 @@
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
-      <c r="F56" s="162" t="s">
+      <c r="F56" s="151" t="s">
         <v>281</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="J56" s="169"/>
+      <c r="J56" s="158"/>
       <c r="K56"/>
       <c r="L56"/>
-      <c r="M56" s="168" t="s">
+      <c r="M56" s="157" t="s">
         <v>282</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56" s="162">
+      <c r="R56" s="151">
         <v>53</v>
       </c>
       <c r="S56"/>
@@ -74493,23 +74498,23 @@
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
-      <c r="F57" s="162" t="s">
+      <c r="F57" s="151" t="s">
         <v>283</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-      <c r="J57" s="169"/>
+      <c r="J57" s="158"/>
       <c r="K57"/>
       <c r="L57"/>
-      <c r="M57" s="164" t="s">
+      <c r="M57" s="153" t="s">
         <v>284</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="R57" s="162">
+      <c r="R57" s="151">
         <v>54</v>
       </c>
       <c r="S57"/>
@@ -74520,23 +74525,23 @@
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
-      <c r="F58" s="162" t="s">
+      <c r="F58" s="151" t="s">
         <v>285</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58" s="169"/>
+      <c r="J58" s="158"/>
       <c r="K58"/>
       <c r="L58"/>
-      <c r="M58" s="168" t="s">
+      <c r="M58" s="157" t="s">
         <v>286</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58" s="162">
+      <c r="R58" s="151">
         <v>55</v>
       </c>
       <c r="S58"/>
@@ -74547,23 +74552,23 @@
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
-      <c r="F59" s="162" t="s">
+      <c r="F59" s="151" t="s">
         <v>287</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
-      <c r="J59" s="169"/>
+      <c r="J59" s="158"/>
       <c r="K59"/>
       <c r="L59"/>
-      <c r="M59" s="164" t="s">
+      <c r="M59" s="153" t="s">
         <v>288</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
-      <c r="R59" s="162">
+      <c r="R59" s="151">
         <v>56</v>
       </c>
       <c r="S59"/>
@@ -74574,23 +74579,23 @@
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60"/>
-      <c r="F60" s="162" t="s">
+      <c r="F60" s="151" t="s">
         <v>289</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
-      <c r="J60" s="169"/>
+      <c r="J60" s="158"/>
       <c r="K60"/>
       <c r="L60"/>
-      <c r="M60" s="168" t="s">
+      <c r="M60" s="157" t="s">
         <v>290</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60" s="162">
+      <c r="R60" s="151">
         <v>57</v>
       </c>
       <c r="S60"/>
@@ -74601,23 +74606,23 @@
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61"/>
-      <c r="F61" s="162" t="s">
+      <c r="F61" s="151" t="s">
         <v>291</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
-      <c r="J61" s="169"/>
+      <c r="J61" s="158"/>
       <c r="K61"/>
       <c r="L61"/>
-      <c r="M61" s="168" t="s">
+      <c r="M61" s="157" t="s">
         <v>292</v>
       </c>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61" s="162">
+      <c r="R61" s="151">
         <v>58</v>
       </c>
       <c r="S61"/>
@@ -74628,23 +74633,23 @@
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
-      <c r="F62" s="162" t="s">
+      <c r="F62" s="151" t="s">
         <v>293</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
-      <c r="J62" s="169"/>
+      <c r="J62" s="158"/>
       <c r="K62"/>
       <c r="L62"/>
-      <c r="M62" s="164" t="s">
+      <c r="M62" s="153" t="s">
         <v>294</v>
       </c>
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
-      <c r="R62" s="162">
+      <c r="R62" s="151">
         <v>59</v>
       </c>
       <c r="S62"/>
@@ -74655,23 +74660,23 @@
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
-      <c r="F63" s="162" t="s">
+      <c r="F63" s="151" t="s">
         <v>295</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
-      <c r="J63" s="169"/>
+      <c r="J63" s="158"/>
       <c r="K63"/>
       <c r="L63"/>
-      <c r="M63" s="168" t="s">
+      <c r="M63" s="157" t="s">
         <v>296</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
-      <c r="R63" s="162">
+      <c r="R63" s="151">
         <v>60</v>
       </c>
       <c r="S63"/>
@@ -74682,23 +74687,23 @@
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
-      <c r="F64" s="162" t="s">
+      <c r="F64" s="151" t="s">
         <v>297</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
-      <c r="J64" s="169"/>
+      <c r="J64" s="158"/>
       <c r="K64"/>
       <c r="L64"/>
-      <c r="M64" s="168" t="s">
+      <c r="M64" s="157" t="s">
         <v>298</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="R64" s="162">
+      <c r="R64" s="151">
         <v>61</v>
       </c>
       <c r="S64"/>
@@ -74709,23 +74714,23 @@
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
-      <c r="F65" s="162" t="s">
+      <c r="F65" s="151" t="s">
         <v>299</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
-      <c r="J65" s="169"/>
+      <c r="J65" s="158"/>
       <c r="K65"/>
       <c r="L65"/>
-      <c r="M65" s="164" t="s">
+      <c r="M65" s="153" t="s">
         <v>300</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65" s="162">
+      <c r="R65" s="151">
         <v>62</v>
       </c>
       <c r="S65"/>
@@ -74736,23 +74741,23 @@
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
-      <c r="F66" s="162" t="s">
+      <c r="F66" s="151" t="s">
         <v>301</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66" s="169"/>
+      <c r="J66" s="158"/>
       <c r="K66"/>
       <c r="L66"/>
-      <c r="M66" s="168" t="s">
+      <c r="M66" s="157" t="s">
         <v>302</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="R66" s="162">
+      <c r="R66" s="151">
         <v>63</v>
       </c>
       <c r="S66"/>
@@ -74763,23 +74768,23 @@
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
-      <c r="F67" s="162" t="s">
+      <c r="F67" s="151" t="s">
         <v>303</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="J67" s="169"/>
+      <c r="J67" s="158"/>
       <c r="K67"/>
       <c r="L67"/>
-      <c r="M67" s="164" t="s">
+      <c r="M67" s="153" t="s">
         <v>304</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
-      <c r="R67" s="162">
+      <c r="R67" s="151">
         <v>64</v>
       </c>
       <c r="S67"/>
@@ -74790,23 +74795,23 @@
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
-      <c r="F68" s="162" t="s">
+      <c r="F68" s="151" t="s">
         <v>305</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="J68" s="169"/>
+      <c r="J68" s="158"/>
       <c r="K68"/>
       <c r="L68"/>
-      <c r="M68" s="168" t="s">
+      <c r="M68" s="157" t="s">
         <v>306</v>
       </c>
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="R68" s="162">
+      <c r="R68" s="151">
         <v>65</v>
       </c>
       <c r="S68"/>
@@ -74817,23 +74822,23 @@
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
-      <c r="F69" s="162" t="s">
+      <c r="F69" s="151" t="s">
         <v>307</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-      <c r="J69" s="169"/>
+      <c r="J69" s="158"/>
       <c r="K69"/>
       <c r="L69"/>
-      <c r="M69" s="168" t="s">
+      <c r="M69" s="157" t="s">
         <v>308</v>
       </c>
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69" s="162">
+      <c r="R69" s="151">
         <v>66</v>
       </c>
       <c r="S69"/>
@@ -74844,23 +74849,23 @@
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
-      <c r="F70" s="162" t="s">
+      <c r="F70" s="151" t="s">
         <v>309</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="J70" s="169"/>
+      <c r="J70" s="158"/>
       <c r="K70"/>
       <c r="L70"/>
-      <c r="M70" s="164" t="s">
+      <c r="M70" s="153" t="s">
         <v>310</v>
       </c>
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
-      <c r="R70" s="162">
+      <c r="R70" s="151">
         <v>67</v>
       </c>
       <c r="S70"/>
@@ -74871,23 +74876,23 @@
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
-      <c r="F71" s="162" t="s">
+      <c r="F71" s="151" t="s">
         <v>311</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" s="169"/>
+      <c r="J71" s="158"/>
       <c r="K71"/>
       <c r="L71"/>
-      <c r="M71" s="168" t="s">
+      <c r="M71" s="157" t="s">
         <v>312</v>
       </c>
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
-      <c r="R71" s="162">
+      <c r="R71" s="151">
         <v>68</v>
       </c>
       <c r="S71"/>
@@ -74898,23 +74903,23 @@
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
-      <c r="F72" s="162" t="s">
+      <c r="F72" s="151" t="s">
         <v>313</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72" s="169"/>
+      <c r="J72" s="158"/>
       <c r="K72"/>
       <c r="L72"/>
-      <c r="M72" s="168" t="s">
+      <c r="M72" s="157" t="s">
         <v>314</v>
       </c>
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="R72" s="162">
+      <c r="R72" s="151">
         <v>69</v>
       </c>
       <c r="S72"/>
@@ -74925,23 +74930,23 @@
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
-      <c r="F73" s="162" t="s">
+      <c r="F73" s="151" t="s">
         <v>315</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73"/>
-      <c r="J73" s="169"/>
+      <c r="J73" s="158"/>
       <c r="K73"/>
       <c r="L73"/>
-      <c r="M73" s="164" t="s">
+      <c r="M73" s="153" t="s">
         <v>316</v>
       </c>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="R73" s="162">
+      <c r="R73" s="151">
         <v>70</v>
       </c>
       <c r="S73"/>
@@ -74952,23 +74957,23 @@
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
-      <c r="F74" s="162" t="s">
+      <c r="F74" s="151" t="s">
         <v>317</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="J74" s="169"/>
+      <c r="J74" s="158"/>
       <c r="K74"/>
       <c r="L74"/>
-      <c r="M74" s="168" t="s">
+      <c r="M74" s="157" t="s">
         <v>318</v>
       </c>
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
-      <c r="R74" s="162">
+      <c r="R74" s="151">
         <v>71</v>
       </c>
       <c r="S74"/>
@@ -74979,23 +74984,23 @@
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
-      <c r="F75" s="162" t="s">
+      <c r="F75" s="151" t="s">
         <v>319</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="J75" s="169"/>
+      <c r="J75" s="158"/>
       <c r="K75"/>
       <c r="L75"/>
-      <c r="M75" s="164" t="s">
+      <c r="M75" s="153" t="s">
         <v>320</v>
       </c>
       <c r="N75"/>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
-      <c r="R75" s="162">
+      <c r="R75" s="151">
         <v>72</v>
       </c>
       <c r="S75"/>
@@ -75006,23 +75011,23 @@
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
-      <c r="F76" s="162" t="s">
+      <c r="F76" s="151" t="s">
         <v>321</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76"/>
-      <c r="J76" s="169"/>
+      <c r="J76" s="158"/>
       <c r="K76"/>
       <c r="L76"/>
-      <c r="M76" s="168" t="s">
+      <c r="M76" s="157" t="s">
         <v>322</v>
       </c>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
-      <c r="R76" s="162">
+      <c r="R76" s="151">
         <v>73</v>
       </c>
       <c r="S76"/>
@@ -75033,23 +75038,23 @@
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
-      <c r="F77" s="162" t="s">
+      <c r="F77" s="151" t="s">
         <v>323</v>
       </c>
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77"/>
-      <c r="J77" s="169"/>
+      <c r="J77" s="158"/>
       <c r="K77"/>
       <c r="L77"/>
-      <c r="M77" s="168" t="s">
+      <c r="M77" s="157" t="s">
         <v>324</v>
       </c>
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="R77" s="162">
+      <c r="R77" s="151">
         <v>74</v>
       </c>
       <c r="S77"/>
@@ -75060,23 +75065,23 @@
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78"/>
-      <c r="F78" s="162" t="s">
+      <c r="F78" s="151" t="s">
         <v>325</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78"/>
-      <c r="J78" s="169"/>
+      <c r="J78" s="158"/>
       <c r="K78"/>
       <c r="L78"/>
-      <c r="M78" s="164" t="s">
+      <c r="M78" s="153" t="s">
         <v>326</v>
       </c>
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
-      <c r="R78" s="162">
+      <c r="R78" s="151">
         <v>75</v>
       </c>
       <c r="S78"/>
@@ -75087,23 +75092,23 @@
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
-      <c r="F79" s="162" t="s">
+      <c r="F79" s="151" t="s">
         <v>327</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79"/>
-      <c r="J79" s="169"/>
+      <c r="J79" s="158"/>
       <c r="K79"/>
       <c r="L79"/>
-      <c r="M79" s="168" t="s">
+      <c r="M79" s="157" t="s">
         <v>328</v>
       </c>
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
-      <c r="R79" s="162">
+      <c r="R79" s="151">
         <v>76</v>
       </c>
       <c r="S79"/>
@@ -75114,23 +75119,23 @@
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
-      <c r="F80" s="162" t="s">
+      <c r="F80" s="151" t="s">
         <v>329</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80"/>
-      <c r="J80" s="169"/>
+      <c r="J80" s="158"/>
       <c r="K80"/>
       <c r="L80"/>
-      <c r="M80" s="168" t="s">
+      <c r="M80" s="157" t="s">
         <v>330</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
-      <c r="R80" s="162">
+      <c r="R80" s="151">
         <v>77</v>
       </c>
       <c r="S80"/>
@@ -75141,23 +75146,23 @@
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
-      <c r="F81" s="162" t="s">
+      <c r="F81" s="151" t="s">
         <v>331</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81"/>
-      <c r="J81" s="169"/>
+      <c r="J81" s="158"/>
       <c r="K81"/>
       <c r="L81"/>
-      <c r="M81" s="164" t="s">
+      <c r="M81" s="153" t="s">
         <v>332</v>
       </c>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="R81" s="162">
+      <c r="R81" s="151">
         <v>78</v>
       </c>
       <c r="S81"/>
@@ -75168,23 +75173,23 @@
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
-      <c r="F82" s="162" t="s">
+      <c r="F82" s="151" t="s">
         <v>333</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82"/>
-      <c r="J82" s="169"/>
+      <c r="J82" s="158"/>
       <c r="K82"/>
       <c r="L82"/>
-      <c r="M82" s="168" t="s">
+      <c r="M82" s="157" t="s">
         <v>334</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="R82" s="162">
+      <c r="R82" s="151">
         <v>79</v>
       </c>
       <c r="S82"/>
@@ -75195,23 +75200,23 @@
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83"/>
-      <c r="F83" s="162" t="s">
+      <c r="F83" s="151" t="s">
         <v>335</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83"/>
-      <c r="J83" s="169"/>
+      <c r="J83" s="158"/>
       <c r="K83"/>
       <c r="L83"/>
-      <c r="M83" s="164" t="s">
+      <c r="M83" s="153" t="s">
         <v>336</v>
       </c>
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
-      <c r="R83" s="162">
+      <c r="R83" s="151">
         <v>80</v>
       </c>
       <c r="S83"/>
@@ -75222,23 +75227,23 @@
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84"/>
-      <c r="F84" s="162" t="s">
+      <c r="F84" s="151" t="s">
         <v>337</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84"/>
-      <c r="J84" s="169"/>
+      <c r="J84" s="158"/>
       <c r="K84"/>
       <c r="L84"/>
-      <c r="M84" s="168" t="s">
+      <c r="M84" s="157" t="s">
         <v>338</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
-      <c r="R84" s="162">
+      <c r="R84" s="151">
         <v>81</v>
       </c>
       <c r="S84"/>
@@ -75249,23 +75254,23 @@
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85"/>
-      <c r="F85" s="162" t="s">
+      <c r="F85" s="151" t="s">
         <v>339</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85"/>
-      <c r="J85" s="169"/>
+      <c r="J85" s="158"/>
       <c r="K85"/>
       <c r="L85"/>
-      <c r="M85" s="168" t="s">
+      <c r="M85" s="157" t="s">
         <v>340</v>
       </c>
       <c r="N85"/>
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
-      <c r="R85" s="162">
+      <c r="R85" s="151">
         <v>82</v>
       </c>
       <c r="S85"/>
@@ -75276,23 +75281,23 @@
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86"/>
-      <c r="F86" s="162" t="s">
+      <c r="F86" s="151" t="s">
         <v>341</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86"/>
-      <c r="J86" s="169"/>
+      <c r="J86" s="158"/>
       <c r="K86"/>
       <c r="L86"/>
-      <c r="M86" s="164" t="s">
+      <c r="M86" s="153" t="s">
         <v>342</v>
       </c>
       <c r="N86"/>
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
-      <c r="R86" s="162">
+      <c r="R86" s="151">
         <v>83</v>
       </c>
       <c r="S86"/>
@@ -75303,23 +75308,23 @@
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
-      <c r="F87" s="162" t="s">
+      <c r="F87" s="151" t="s">
         <v>343</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87"/>
-      <c r="J87" s="169"/>
+      <c r="J87" s="158"/>
       <c r="K87"/>
       <c r="L87"/>
-      <c r="M87" s="168" t="s">
+      <c r="M87" s="157" t="s">
         <v>344</v>
       </c>
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
-      <c r="R87" s="162">
+      <c r="R87" s="151">
         <v>84</v>
       </c>
       <c r="S87"/>
@@ -75330,23 +75335,23 @@
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88"/>
-      <c r="F88" s="162" t="s">
+      <c r="F88" s="151" t="s">
         <v>345</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
       <c r="I88"/>
-      <c r="J88" s="169"/>
+      <c r="J88" s="158"/>
       <c r="K88"/>
       <c r="L88"/>
-      <c r="M88" s="168" t="s">
+      <c r="M88" s="157" t="s">
         <v>346</v>
       </c>
       <c r="N88"/>
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
-      <c r="R88" s="162">
+      <c r="R88" s="151">
         <v>85</v>
       </c>
       <c r="S88"/>
@@ -75357,23 +75362,23 @@
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89"/>
-      <c r="F89" s="162" t="s">
+      <c r="F89" s="151" t="s">
         <v>347</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
       <c r="I89"/>
-      <c r="J89" s="169"/>
+      <c r="J89" s="158"/>
       <c r="K89"/>
       <c r="L89"/>
-      <c r="M89" s="164" t="s">
+      <c r="M89" s="153" t="s">
         <v>348</v>
       </c>
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
-      <c r="R89" s="162">
+      <c r="R89" s="151">
         <v>86</v>
       </c>
       <c r="S89"/>
@@ -75384,23 +75389,23 @@
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
-      <c r="F90" s="162" t="s">
+      <c r="F90" s="151" t="s">
         <v>349</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90"/>
-      <c r="J90" s="169"/>
+      <c r="J90" s="158"/>
       <c r="K90"/>
       <c r="L90"/>
-      <c r="M90" s="168" t="s">
+      <c r="M90" s="157" t="s">
         <v>350</v>
       </c>
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
-      <c r="R90" s="162">
+      <c r="R90" s="151">
         <v>87</v>
       </c>
       <c r="S90"/>
@@ -75411,23 +75416,23 @@
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
-      <c r="F91" s="162" t="s">
+      <c r="F91" s="151" t="s">
         <v>351</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91"/>
-      <c r="J91" s="169"/>
+      <c r="J91" s="158"/>
       <c r="K91"/>
       <c r="L91"/>
-      <c r="M91" s="164" t="s">
+      <c r="M91" s="153" t="s">
         <v>352</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
-      <c r="R91" s="162">
+      <c r="R91" s="151">
         <v>88</v>
       </c>
       <c r="S91"/>
@@ -75438,23 +75443,23 @@
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
-      <c r="F92" s="162" t="s">
+      <c r="F92" s="151" t="s">
         <v>353</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92"/>
-      <c r="J92" s="169"/>
+      <c r="J92" s="158"/>
       <c r="K92"/>
       <c r="L92"/>
-      <c r="M92" s="168" t="s">
+      <c r="M92" s="157" t="s">
         <v>354</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
-      <c r="R92" s="162">
+      <c r="R92" s="151">
         <v>89</v>
       </c>
       <c r="S92"/>
@@ -75465,23 +75470,23 @@
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
-      <c r="F93" s="162" t="s">
+      <c r="F93" s="151" t="s">
         <v>355</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
-      <c r="J93" s="169"/>
+      <c r="J93" s="158"/>
       <c r="K93"/>
       <c r="L93"/>
-      <c r="M93" s="168" t="s">
+      <c r="M93" s="157" t="s">
         <v>356</v>
       </c>
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
-      <c r="R93" s="162">
+      <c r="R93" s="151">
         <v>90</v>
       </c>
       <c r="S93"/>
@@ -75492,23 +75497,23 @@
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94"/>
-      <c r="F94" s="162" t="s">
+      <c r="F94" s="151" t="s">
         <v>357</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94"/>
-      <c r="J94" s="169"/>
+      <c r="J94" s="158"/>
       <c r="K94"/>
       <c r="L94"/>
-      <c r="M94" s="164" t="s">
+      <c r="M94" s="153" t="s">
         <v>358</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
-      <c r="R94" s="162">
+      <c r="R94" s="151">
         <v>91</v>
       </c>
       <c r="S94"/>
@@ -75519,23 +75524,23 @@
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
-      <c r="F95" s="162" t="s">
+      <c r="F95" s="151" t="s">
         <v>359</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95"/>
-      <c r="J95" s="169"/>
+      <c r="J95" s="158"/>
       <c r="K95"/>
       <c r="L95"/>
-      <c r="M95" s="168" t="s">
+      <c r="M95" s="157" t="s">
         <v>360</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95"/>
-      <c r="R95" s="162">
+      <c r="R95" s="151">
         <v>92</v>
       </c>
       <c r="S95"/>
@@ -75546,23 +75551,23 @@
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
-      <c r="F96" s="162" t="s">
+      <c r="F96" s="151" t="s">
         <v>361</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96"/>
-      <c r="J96" s="169"/>
+      <c r="J96" s="158"/>
       <c r="K96"/>
       <c r="L96"/>
-      <c r="M96" s="168" t="s">
+      <c r="M96" s="157" t="s">
         <v>362</v>
       </c>
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96"/>
-      <c r="R96" s="162">
+      <c r="R96" s="151">
         <v>93</v>
       </c>
       <c r="S96"/>
@@ -75573,23 +75578,23 @@
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
-      <c r="F97" s="162" t="s">
+      <c r="F97" s="151" t="s">
         <v>363</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97"/>
-      <c r="J97" s="169"/>
+      <c r="J97" s="158"/>
       <c r="K97"/>
       <c r="L97"/>
-      <c r="M97" s="164" t="s">
+      <c r="M97" s="153" t="s">
         <v>364</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97"/>
-      <c r="R97" s="162">
+      <c r="R97" s="151">
         <v>94</v>
       </c>
       <c r="S97"/>
@@ -75600,23 +75605,23 @@
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
-      <c r="F98" s="162" t="s">
+      <c r="F98" s="151" t="s">
         <v>365</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98"/>
-      <c r="J98" s="169"/>
+      <c r="J98" s="158"/>
       <c r="K98"/>
       <c r="L98"/>
-      <c r="M98" s="168" t="s">
+      <c r="M98" s="157" t="s">
         <v>366</v>
       </c>
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98"/>
-      <c r="R98" s="162">
+      <c r="R98" s="151">
         <v>95</v>
       </c>
       <c r="S98"/>
@@ -75627,13 +75632,13 @@
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99"/>
-      <c r="F99" s="162" t="s">
+      <c r="F99" s="151" t="s">
         <v>367</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
       <c r="I99"/>
-      <c r="J99" s="169"/>
+      <c r="J99" s="158"/>
       <c r="K99"/>
       <c r="L99"/>
       <c r="M99"/>
@@ -75641,7 +75646,7 @@
       <c r="O99"/>
       <c r="P99"/>
       <c r="Q99"/>
-      <c r="R99" s="162">
+      <c r="R99" s="151">
         <v>96</v>
       </c>
       <c r="S99"/>
@@ -75652,13 +75657,13 @@
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
-      <c r="F100" s="162" t="s">
+      <c r="F100" s="151" t="s">
         <v>368</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
       <c r="I100"/>
-      <c r="J100" s="169"/>
+      <c r="J100" s="158"/>
       <c r="K100"/>
       <c r="L100"/>
       <c r="M100"/>
@@ -75666,7 +75671,7 @@
       <c r="O100"/>
       <c r="P100"/>
       <c r="Q100"/>
-      <c r="R100" s="162">
+      <c r="R100" s="151">
         <v>97</v>
       </c>
       <c r="S100"/>
@@ -75677,13 +75682,13 @@
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
-      <c r="F101" s="162" t="s">
+      <c r="F101" s="151" t="s">
         <v>369</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101"/>
-      <c r="J101" s="169"/>
+      <c r="J101" s="158"/>
       <c r="K101"/>
       <c r="L101"/>
       <c r="M101"/>
@@ -75691,7 +75696,7 @@
       <c r="O101"/>
       <c r="P101"/>
       <c r="Q101"/>
-      <c r="R101" s="162">
+      <c r="R101" s="151">
         <v>98</v>
       </c>
       <c r="S101"/>
@@ -75702,13 +75707,13 @@
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
-      <c r="F102" s="162" t="s">
+      <c r="F102" s="151" t="s">
         <v>370</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102"/>
-      <c r="J102" s="169"/>
+      <c r="J102" s="158"/>
       <c r="K102"/>
       <c r="L102"/>
       <c r="M102"/>
@@ -75716,7 +75721,7 @@
       <c r="O102"/>
       <c r="P102"/>
       <c r="Q102"/>
-      <c r="R102" s="162">
+      <c r="R102" s="151">
         <v>99</v>
       </c>
       <c r="S102"/>
@@ -75727,13 +75732,13 @@
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
-      <c r="F103" s="162" t="s">
+      <c r="F103" s="151" t="s">
         <v>371</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103"/>
-      <c r="J103" s="169"/>
+      <c r="J103" s="158"/>
       <c r="K103"/>
       <c r="L103"/>
       <c r="M103"/>
@@ -75741,7 +75746,7 @@
       <c r="O103"/>
       <c r="P103"/>
       <c r="Q103"/>
-      <c r="R103" s="162">
+      <c r="R103" s="151">
         <v>100</v>
       </c>
       <c r="S103"/>
@@ -75752,13 +75757,13 @@
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
-      <c r="F104" s="162" t="s">
+      <c r="F104" s="151" t="s">
         <v>380</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104"/>
-      <c r="J104" s="169"/>
+      <c r="J104" s="158"/>
       <c r="K104"/>
       <c r="L104"/>
       <c r="M104"/>
@@ -75766,7 +75771,7 @@
       <c r="O104"/>
       <c r="P104"/>
       <c r="Q104"/>
-      <c r="R104" s="162">
+      <c r="R104" s="151">
         <v>101</v>
       </c>
       <c r="S104"/>
@@ -75777,13 +75782,13 @@
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
-      <c r="F105" s="162" t="s">
+      <c r="F105" s="151" t="s">
         <v>381</v>
       </c>
       <c r="G105"/>
       <c r="H105"/>
       <c r="I105"/>
-      <c r="J105" s="169"/>
+      <c r="J105" s="158"/>
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
@@ -75791,7 +75796,7 @@
       <c r="O105"/>
       <c r="P105"/>
       <c r="Q105"/>
-      <c r="R105" s="162">
+      <c r="R105" s="151">
         <v>102</v>
       </c>
       <c r="S105"/>
@@ -75802,13 +75807,13 @@
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
-      <c r="F106" s="162" t="s">
+      <c r="F106" s="151" t="s">
         <v>382</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106"/>
-      <c r="J106" s="169"/>
+      <c r="J106" s="158"/>
       <c r="K106"/>
       <c r="L106"/>
       <c r="M106"/>
@@ -75816,7 +75821,7 @@
       <c r="O106"/>
       <c r="P106"/>
       <c r="Q106"/>
-      <c r="R106" s="162">
+      <c r="R106" s="151">
         <v>103</v>
       </c>
       <c r="S106"/>
@@ -75827,13 +75832,13 @@
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107"/>
-      <c r="F107" s="162" t="s">
+      <c r="F107" s="151" t="s">
         <v>383</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107"/>
-      <c r="J107" s="169"/>
+      <c r="J107" s="158"/>
       <c r="K107"/>
       <c r="L107"/>
       <c r="M107"/>
@@ -75841,7 +75846,7 @@
       <c r="O107"/>
       <c r="P107"/>
       <c r="Q107"/>
-      <c r="R107" s="162">
+      <c r="R107" s="151">
         <v>104</v>
       </c>
       <c r="S107"/>
@@ -75852,13 +75857,13 @@
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
-      <c r="F108" s="162" t="s">
+      <c r="F108" s="151" t="s">
         <v>384</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108"/>
-      <c r="J108" s="169"/>
+      <c r="J108" s="158"/>
       <c r="K108"/>
       <c r="L108"/>
       <c r="M108"/>
@@ -75866,7 +75871,7 @@
       <c r="O108"/>
       <c r="P108"/>
       <c r="Q108"/>
-      <c r="R108" s="162">
+      <c r="R108" s="151">
         <v>105</v>
       </c>
       <c r="S108"/>
@@ -75877,13 +75882,13 @@
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109"/>
-      <c r="F109" s="162" t="s">
+      <c r="F109" s="151" t="s">
         <v>385</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109"/>
-      <c r="J109" s="169"/>
+      <c r="J109" s="158"/>
       <c r="K109"/>
       <c r="L109"/>
       <c r="M109"/>
@@ -75891,7 +75896,7 @@
       <c r="O109"/>
       <c r="P109"/>
       <c r="Q109"/>
-      <c r="R109" s="162">
+      <c r="R109" s="151">
         <v>106</v>
       </c>
       <c r="S109"/>
@@ -75902,13 +75907,13 @@
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110"/>
-      <c r="F110" s="162" t="s">
+      <c r="F110" s="151" t="s">
         <v>386</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110"/>
-      <c r="J110" s="169"/>
+      <c r="J110" s="158"/>
       <c r="K110"/>
       <c r="L110"/>
       <c r="M110"/>
@@ -75916,7 +75921,7 @@
       <c r="O110"/>
       <c r="P110"/>
       <c r="Q110"/>
-      <c r="R110" s="162">
+      <c r="R110" s="151">
         <v>107</v>
       </c>
       <c r="S110"/>
@@ -75927,13 +75932,13 @@
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
-      <c r="F111" s="162" t="s">
+      <c r="F111" s="151" t="s">
         <v>387</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
       <c r="I111"/>
-      <c r="J111" s="169"/>
+      <c r="J111" s="158"/>
       <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
@@ -75941,7 +75946,7 @@
       <c r="O111"/>
       <c r="P111"/>
       <c r="Q111"/>
-      <c r="R111" s="162">
+      <c r="R111" s="151">
         <v>108</v>
       </c>
       <c r="S111"/>
@@ -75952,13 +75957,13 @@
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112"/>
-      <c r="F112" s="162" t="s">
+      <c r="F112" s="151" t="s">
         <v>388</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
       <c r="I112"/>
-      <c r="J112" s="169"/>
+      <c r="J112" s="158"/>
       <c r="K112"/>
       <c r="L112"/>
       <c r="M112"/>
@@ -75966,7 +75971,7 @@
       <c r="O112"/>
       <c r="P112"/>
       <c r="Q112"/>
-      <c r="R112" s="162">
+      <c r="R112" s="151">
         <v>109</v>
       </c>
       <c r="S112"/>
@@ -75977,13 +75982,13 @@
       <c r="C113"/>
       <c r="D113"/>
       <c r="E113"/>
-      <c r="F113" s="162" t="s">
+      <c r="F113" s="151" t="s">
         <v>389</v>
       </c>
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113"/>
-      <c r="J113" s="169"/>
+      <c r="J113" s="158"/>
       <c r="K113"/>
       <c r="L113"/>
       <c r="M113"/>
@@ -75991,7 +75996,7 @@
       <c r="O113"/>
       <c r="P113"/>
       <c r="Q113"/>
-      <c r="R113" s="162">
+      <c r="R113" s="151">
         <v>110</v>
       </c>
       <c r="S113"/>
@@ -76002,13 +76007,13 @@
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
-      <c r="F114" s="162" t="s">
+      <c r="F114" s="151" t="s">
         <v>390</v>
       </c>
       <c r="G114"/>
       <c r="H114"/>
       <c r="I114"/>
-      <c r="J114" s="169"/>
+      <c r="J114" s="158"/>
       <c r="K114"/>
       <c r="L114"/>
       <c r="M114"/>
@@ -76016,7 +76021,7 @@
       <c r="O114"/>
       <c r="P114"/>
       <c r="Q114"/>
-      <c r="R114" s="162">
+      <c r="R114" s="151">
         <v>111</v>
       </c>
       <c r="S114"/>
@@ -76027,13 +76032,13 @@
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
-      <c r="F115" s="162" t="s">
+      <c r="F115" s="151" t="s">
         <v>391</v>
       </c>
       <c r="G115"/>
       <c r="H115"/>
       <c r="I115"/>
-      <c r="J115" s="169"/>
+      <c r="J115" s="158"/>
       <c r="K115"/>
       <c r="L115"/>
       <c r="M115"/>
@@ -76041,7 +76046,7 @@
       <c r="O115"/>
       <c r="P115"/>
       <c r="Q115"/>
-      <c r="R115" s="162">
+      <c r="R115" s="151">
         <v>112</v>
       </c>
       <c r="S115"/>
@@ -76052,13 +76057,13 @@
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
-      <c r="F116" s="162" t="s">
+      <c r="F116" s="151" t="s">
         <v>392</v>
       </c>
       <c r="G116"/>
       <c r="H116"/>
       <c r="I116"/>
-      <c r="J116" s="169"/>
+      <c r="J116" s="158"/>
       <c r="K116"/>
       <c r="L116"/>
       <c r="M116"/>
@@ -76066,7 +76071,7 @@
       <c r="O116"/>
       <c r="P116"/>
       <c r="Q116"/>
-      <c r="R116" s="162">
+      <c r="R116" s="151">
         <v>113</v>
       </c>
       <c r="S116"/>
@@ -76077,13 +76082,13 @@
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117"/>
-      <c r="F117" s="162" t="s">
+      <c r="F117" s="151" t="s">
         <v>393</v>
       </c>
       <c r="G117"/>
       <c r="H117"/>
       <c r="I117"/>
-      <c r="J117" s="169"/>
+      <c r="J117" s="158"/>
       <c r="K117"/>
       <c r="L117"/>
       <c r="M117"/>
@@ -76091,7 +76096,7 @@
       <c r="O117"/>
       <c r="P117"/>
       <c r="Q117"/>
-      <c r="R117" s="162">
+      <c r="R117" s="151">
         <v>114</v>
       </c>
       <c r="S117"/>
@@ -76102,13 +76107,13 @@
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118"/>
-      <c r="F118" s="162" t="s">
+      <c r="F118" s="151" t="s">
         <v>394</v>
       </c>
       <c r="G118"/>
       <c r="H118"/>
       <c r="I118"/>
-      <c r="J118" s="169"/>
+      <c r="J118" s="158"/>
       <c r="K118"/>
       <c r="L118"/>
       <c r="M118"/>
@@ -76116,7 +76121,7 @@
       <c r="O118"/>
       <c r="P118"/>
       <c r="Q118"/>
-      <c r="R118" s="162">
+      <c r="R118" s="151">
         <v>115</v>
       </c>
       <c r="S118"/>
@@ -76127,13 +76132,13 @@
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119"/>
-      <c r="F119" s="162" t="s">
+      <c r="F119" s="151" t="s">
         <v>395</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
       <c r="I119"/>
-      <c r="J119" s="169"/>
+      <c r="J119" s="158"/>
       <c r="K119"/>
       <c r="L119"/>
       <c r="M119"/>
@@ -76141,7 +76146,7 @@
       <c r="O119"/>
       <c r="P119"/>
       <c r="Q119"/>
-      <c r="R119" s="162">
+      <c r="R119" s="151">
         <v>116</v>
       </c>
       <c r="S119"/>
@@ -76152,13 +76157,13 @@
       <c r="C120"/>
       <c r="D120"/>
       <c r="E120"/>
-      <c r="F120" s="162" t="s">
+      <c r="F120" s="151" t="s">
         <v>396</v>
       </c>
       <c r="G120"/>
       <c r="H120"/>
       <c r="I120"/>
-      <c r="J120" s="169"/>
+      <c r="J120" s="158"/>
       <c r="K120"/>
       <c r="L120"/>
       <c r="M120"/>
@@ -76166,7 +76171,7 @@
       <c r="O120"/>
       <c r="P120"/>
       <c r="Q120"/>
-      <c r="R120" s="162">
+      <c r="R120" s="151">
         <v>117</v>
       </c>
       <c r="S120"/>
@@ -76177,13 +76182,13 @@
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121"/>
-      <c r="F121" s="162" t="s">
+      <c r="F121" s="151" t="s">
         <v>397</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121"/>
-      <c r="J121" s="169"/>
+      <c r="J121" s="158"/>
       <c r="K121"/>
       <c r="L121"/>
       <c r="M121"/>
@@ -76191,7 +76196,7 @@
       <c r="O121"/>
       <c r="P121"/>
       <c r="Q121"/>
-      <c r="R121" s="162">
+      <c r="R121" s="151">
         <v>118</v>
       </c>
       <c r="S121"/>
@@ -76202,13 +76207,13 @@
       <c r="C122"/>
       <c r="D122"/>
       <c r="E122"/>
-      <c r="F122" s="162" t="s">
+      <c r="F122" s="151" t="s">
         <v>398</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122"/>
-      <c r="J122" s="169"/>
+      <c r="J122" s="158"/>
       <c r="K122"/>
       <c r="L122"/>
       <c r="M122"/>
@@ -76216,7 +76221,7 @@
       <c r="O122"/>
       <c r="P122"/>
       <c r="Q122"/>
-      <c r="R122" s="162">
+      <c r="R122" s="151">
         <v>119</v>
       </c>
       <c r="S122"/>
@@ -76227,13 +76232,13 @@
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
-      <c r="F123" s="162" t="s">
+      <c r="F123" s="151" t="s">
         <v>399</v>
       </c>
       <c r="G123"/>
       <c r="H123"/>
       <c r="I123"/>
-      <c r="J123" s="169"/>
+      <c r="J123" s="158"/>
       <c r="K123"/>
       <c r="L123"/>
       <c r="M123"/>
@@ -76241,7 +76246,7 @@
       <c r="O123"/>
       <c r="P123"/>
       <c r="Q123"/>
-      <c r="R123" s="162">
+      <c r="R123" s="151">
         <v>120</v>
       </c>
       <c r="S123"/>
@@ -76252,13 +76257,13 @@
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
-      <c r="F124" s="162" t="s">
+      <c r="F124" s="151" t="s">
         <v>400</v>
       </c>
       <c r="G124"/>
       <c r="H124"/>
       <c r="I124"/>
-      <c r="J124" s="169"/>
+      <c r="J124" s="158"/>
       <c r="K124"/>
       <c r="L124"/>
       <c r="M124"/>
@@ -76275,13 +76280,13 @@
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
-      <c r="F125" s="162" t="s">
+      <c r="F125" s="151" t="s">
         <v>401</v>
       </c>
       <c r="G125"/>
       <c r="H125"/>
       <c r="I125"/>
-      <c r="J125" s="169"/>
+      <c r="J125" s="158"/>
       <c r="K125"/>
       <c r="L125"/>
       <c r="M125"/>
@@ -76298,13 +76303,13 @@
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
-      <c r="F126" s="162" t="s">
+      <c r="F126" s="151" t="s">
         <v>402</v>
       </c>
       <c r="G126"/>
       <c r="H126"/>
       <c r="I126"/>
-      <c r="J126" s="169"/>
+      <c r="J126" s="158"/>
       <c r="K126"/>
       <c r="L126"/>
       <c r="M126"/>
@@ -76321,13 +76326,13 @@
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
-      <c r="F127" s="162" t="s">
+      <c r="F127" s="151" t="s">
         <v>403</v>
       </c>
       <c r="G127"/>
       <c r="H127"/>
       <c r="I127"/>
-      <c r="J127" s="169"/>
+      <c r="J127" s="158"/>
       <c r="K127"/>
       <c r="L127"/>
       <c r="M127"/>
@@ -76344,13 +76349,13 @@
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
-      <c r="F128" s="162" t="s">
+      <c r="F128" s="151" t="s">
         <v>404</v>
       </c>
       <c r="G128"/>
       <c r="H128"/>
       <c r="I128"/>
-      <c r="J128" s="169"/>
+      <c r="J128" s="158"/>
       <c r="K128"/>
       <c r="L128"/>
       <c r="M128"/>
@@ -76367,13 +76372,13 @@
       <c r="C129"/>
       <c r="D129"/>
       <c r="E129"/>
-      <c r="F129" s="162" t="s">
+      <c r="F129" s="151" t="s">
         <v>405</v>
       </c>
       <c r="G129"/>
       <c r="H129"/>
       <c r="I129"/>
-      <c r="J129" s="169"/>
+      <c r="J129" s="158"/>
       <c r="K129"/>
       <c r="L129"/>
       <c r="M129"/>
@@ -76390,13 +76395,13 @@
       <c r="C130"/>
       <c r="D130"/>
       <c r="E130"/>
-      <c r="F130" s="162" t="s">
+      <c r="F130" s="151" t="s">
         <v>406</v>
       </c>
       <c r="G130"/>
       <c r="H130"/>
       <c r="I130"/>
-      <c r="J130" s="169"/>
+      <c r="J130" s="158"/>
       <c r="K130"/>
       <c r="L130"/>
       <c r="M130"/>
@@ -76413,13 +76418,13 @@
       <c r="C131"/>
       <c r="D131"/>
       <c r="E131"/>
-      <c r="F131" s="162" t="s">
+      <c r="F131" s="151" t="s">
         <v>407</v>
       </c>
       <c r="G131"/>
       <c r="H131"/>
       <c r="I131"/>
-      <c r="J131" s="169"/>
+      <c r="J131" s="158"/>
       <c r="K131"/>
       <c r="L131"/>
       <c r="M131"/>
@@ -76436,13 +76441,13 @@
       <c r="C132"/>
       <c r="D132"/>
       <c r="E132"/>
-      <c r="F132" s="162" t="s">
+      <c r="F132" s="151" t="s">
         <v>408</v>
       </c>
       <c r="G132"/>
       <c r="H132"/>
       <c r="I132"/>
-      <c r="J132" s="169"/>
+      <c r="J132" s="158"/>
       <c r="K132"/>
       <c r="L132"/>
       <c r="M132"/>
@@ -76459,13 +76464,13 @@
       <c r="C133"/>
       <c r="D133"/>
       <c r="E133"/>
-      <c r="F133" s="162" t="s">
+      <c r="F133" s="151" t="s">
         <v>409</v>
       </c>
       <c r="G133"/>
       <c r="H133"/>
       <c r="I133"/>
-      <c r="J133" s="169"/>
+      <c r="J133" s="158"/>
       <c r="K133"/>
       <c r="L133"/>
       <c r="M133"/>
@@ -76482,13 +76487,13 @@
       <c r="C134"/>
       <c r="D134"/>
       <c r="E134"/>
-      <c r="F134" s="162" t="s">
+      <c r="F134" s="151" t="s">
         <v>410</v>
       </c>
       <c r="G134"/>
       <c r="H134"/>
       <c r="I134"/>
-      <c r="J134" s="169"/>
+      <c r="J134" s="158"/>
       <c r="K134"/>
       <c r="L134"/>
       <c r="M134"/>
@@ -76505,13 +76510,13 @@
       <c r="C135"/>
       <c r="D135"/>
       <c r="E135"/>
-      <c r="F135" s="162" t="s">
+      <c r="F135" s="151" t="s">
         <v>411</v>
       </c>
       <c r="G135"/>
       <c r="H135"/>
       <c r="I135"/>
-      <c r="J135" s="169"/>
+      <c r="J135" s="158"/>
       <c r="K135"/>
       <c r="L135"/>
       <c r="M135"/>
@@ -76528,13 +76533,13 @@
       <c r="C136"/>
       <c r="D136"/>
       <c r="E136"/>
-      <c r="F136" s="162" t="s">
+      <c r="F136" s="151" t="s">
         <v>412</v>
       </c>
       <c r="G136"/>
       <c r="H136"/>
       <c r="I136"/>
-      <c r="J136" s="169"/>
+      <c r="J136" s="158"/>
       <c r="K136"/>
       <c r="L136"/>
       <c r="M136"/>
@@ -76551,13 +76556,13 @@
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137"/>
-      <c r="F137" s="162" t="s">
+      <c r="F137" s="151" t="s">
         <v>413</v>
       </c>
       <c r="G137"/>
       <c r="H137"/>
       <c r="I137"/>
-      <c r="J137" s="169"/>
+      <c r="J137" s="158"/>
       <c r="K137"/>
       <c r="L137"/>
       <c r="M137"/>
@@ -76574,13 +76579,13 @@
       <c r="C138"/>
       <c r="D138"/>
       <c r="E138"/>
-      <c r="F138" s="162" t="s">
+      <c r="F138" s="151" t="s">
         <v>414</v>
       </c>
       <c r="G138"/>
       <c r="H138"/>
       <c r="I138"/>
-      <c r="J138" s="169"/>
+      <c r="J138" s="158"/>
       <c r="K138"/>
       <c r="L138"/>
       <c r="M138"/>
@@ -76597,13 +76602,13 @@
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
-      <c r="F139" s="162" t="s">
+      <c r="F139" s="151" t="s">
         <v>415</v>
       </c>
       <c r="G139"/>
       <c r="H139"/>
       <c r="I139"/>
-      <c r="J139" s="169"/>
+      <c r="J139" s="158"/>
       <c r="K139"/>
       <c r="L139"/>
       <c r="M139"/>
@@ -76620,13 +76625,13 @@
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
-      <c r="F140" s="162" t="s">
+      <c r="F140" s="151" t="s">
         <v>416</v>
       </c>
       <c r="G140"/>
       <c r="H140"/>
       <c r="I140"/>
-      <c r="J140" s="169"/>
+      <c r="J140" s="158"/>
       <c r="K140"/>
       <c r="L140"/>
       <c r="M140"/>
@@ -76643,13 +76648,13 @@
       <c r="C141"/>
       <c r="D141"/>
       <c r="E141"/>
-      <c r="F141" s="162" t="s">
+      <c r="F141" s="151" t="s">
         <v>417</v>
       </c>
       <c r="G141"/>
       <c r="H141"/>
       <c r="I141"/>
-      <c r="J141" s="169"/>
+      <c r="J141" s="158"/>
       <c r="K141"/>
       <c r="L141"/>
       <c r="M141"/>
@@ -76666,13 +76671,13 @@
       <c r="C142"/>
       <c r="D142"/>
       <c r="E142"/>
-      <c r="F142" s="162" t="s">
+      <c r="F142" s="151" t="s">
         <v>418</v>
       </c>
       <c r="G142"/>
       <c r="H142"/>
       <c r="I142"/>
-      <c r="J142" s="169"/>
+      <c r="J142" s="158"/>
       <c r="K142"/>
       <c r="L142"/>
       <c r="M142"/>
@@ -76689,13 +76694,13 @@
       <c r="C143"/>
       <c r="D143"/>
       <c r="E143"/>
-      <c r="F143" s="162" t="s">
+      <c r="F143" s="151" t="s">
         <v>419</v>
       </c>
       <c r="G143"/>
       <c r="H143"/>
       <c r="I143"/>
-      <c r="J143" s="169"/>
+      <c r="J143" s="158"/>
       <c r="K143"/>
       <c r="L143"/>
       <c r="M143"/>
@@ -76712,13 +76717,13 @@
       <c r="C144"/>
       <c r="D144"/>
       <c r="E144"/>
-      <c r="F144" s="162" t="s">
+      <c r="F144" s="151" t="s">
         <v>420</v>
       </c>
       <c r="G144"/>
       <c r="H144"/>
       <c r="I144"/>
-      <c r="J144" s="169"/>
+      <c r="J144" s="158"/>
       <c r="K144"/>
       <c r="L144"/>
       <c r="M144"/>
@@ -76735,13 +76740,13 @@
       <c r="C145"/>
       <c r="D145"/>
       <c r="E145"/>
-      <c r="F145" s="162" t="s">
+      <c r="F145" s="151" t="s">
         <v>421</v>
       </c>
       <c r="G145"/>
       <c r="H145"/>
       <c r="I145"/>
-      <c r="J145" s="169"/>
+      <c r="J145" s="158"/>
       <c r="K145"/>
       <c r="L145"/>
       <c r="M145"/>
@@ -76758,13 +76763,13 @@
       <c r="C146"/>
       <c r="D146"/>
       <c r="E146"/>
-      <c r="F146" s="162" t="s">
+      <c r="F146" s="151" t="s">
         <v>422</v>
       </c>
       <c r="G146"/>
       <c r="H146"/>
       <c r="I146"/>
-      <c r="J146" s="169"/>
+      <c r="J146" s="158"/>
       <c r="K146"/>
       <c r="L146"/>
       <c r="M146"/>
@@ -76781,13 +76786,13 @@
       <c r="C147"/>
       <c r="D147"/>
       <c r="E147"/>
-      <c r="F147" s="162" t="s">
+      <c r="F147" s="151" t="s">
         <v>423</v>
       </c>
       <c r="G147"/>
       <c r="H147"/>
       <c r="I147"/>
-      <c r="J147" s="169"/>
+      <c r="J147" s="158"/>
       <c r="K147"/>
       <c r="L147"/>
       <c r="M147"/>
@@ -76804,13 +76809,13 @@
       <c r="C148"/>
       <c r="D148"/>
       <c r="E148"/>
-      <c r="F148" s="162" t="s">
+      <c r="F148" s="151" t="s">
         <v>424</v>
       </c>
       <c r="G148"/>
       <c r="H148"/>
       <c r="I148"/>
-      <c r="J148" s="169"/>
+      <c r="J148" s="158"/>
       <c r="K148"/>
       <c r="L148"/>
       <c r="M148"/>
@@ -76827,13 +76832,13 @@
       <c r="C149"/>
       <c r="D149"/>
       <c r="E149"/>
-      <c r="F149" s="162" t="s">
+      <c r="F149" s="151" t="s">
         <v>425</v>
       </c>
       <c r="G149"/>
       <c r="H149"/>
       <c r="I149"/>
-      <c r="J149" s="169"/>
+      <c r="J149" s="158"/>
       <c r="K149"/>
       <c r="L149"/>
       <c r="M149"/>
@@ -76850,13 +76855,13 @@
       <c r="C150"/>
       <c r="D150"/>
       <c r="E150"/>
-      <c r="F150" s="162" t="s">
+      <c r="F150" s="151" t="s">
         <v>426</v>
       </c>
       <c r="G150"/>
       <c r="H150"/>
       <c r="I150"/>
-      <c r="J150" s="169"/>
+      <c r="J150" s="158"/>
       <c r="K150"/>
       <c r="L150"/>
       <c r="M150"/>
@@ -76873,13 +76878,13 @@
       <c r="C151"/>
       <c r="D151"/>
       <c r="E151"/>
-      <c r="F151" s="162" t="s">
+      <c r="F151" s="151" t="s">
         <v>427</v>
       </c>
       <c r="G151"/>
       <c r="H151"/>
       <c r="I151"/>
-      <c r="J151" s="169"/>
+      <c r="J151" s="158"/>
       <c r="K151"/>
       <c r="L151"/>
       <c r="M151"/>
@@ -76896,13 +76901,13 @@
       <c r="C152"/>
       <c r="D152"/>
       <c r="E152"/>
-      <c r="F152" s="162" t="s">
+      <c r="F152" s="151" t="s">
         <v>428</v>
       </c>
       <c r="G152"/>
       <c r="H152"/>
       <c r="I152"/>
-      <c r="J152" s="169"/>
+      <c r="J152" s="158"/>
       <c r="K152"/>
       <c r="L152"/>
       <c r="M152"/>
@@ -76919,13 +76924,13 @@
       <c r="C153"/>
       <c r="D153"/>
       <c r="E153"/>
-      <c r="F153" s="162" t="s">
+      <c r="F153" s="151" t="s">
         <v>429</v>
       </c>
       <c r="G153"/>
       <c r="H153"/>
       <c r="I153"/>
-      <c r="J153" s="169"/>
+      <c r="J153" s="158"/>
       <c r="K153"/>
       <c r="L153"/>
       <c r="M153"/>
@@ -76942,13 +76947,13 @@
       <c r="C154"/>
       <c r="D154"/>
       <c r="E154"/>
-      <c r="F154" s="162" t="s">
+      <c r="F154" s="151" t="s">
         <v>430</v>
       </c>
       <c r="G154"/>
       <c r="H154"/>
       <c r="I154"/>
-      <c r="J154" s="169"/>
+      <c r="J154" s="158"/>
       <c r="K154"/>
       <c r="L154"/>
       <c r="M154"/>
@@ -76965,13 +76970,13 @@
       <c r="C155"/>
       <c r="D155"/>
       <c r="E155"/>
-      <c r="F155" s="162" t="s">
+      <c r="F155" s="151" t="s">
         <v>431</v>
       </c>
       <c r="G155"/>
       <c r="H155"/>
       <c r="I155"/>
-      <c r="J155" s="169"/>
+      <c r="J155" s="158"/>
       <c r="K155"/>
       <c r="L155"/>
       <c r="M155"/>
@@ -76988,13 +76993,13 @@
       <c r="C156"/>
       <c r="D156"/>
       <c r="E156"/>
-      <c r="F156" s="162" t="s">
+      <c r="F156" s="151" t="s">
         <v>432</v>
       </c>
       <c r="G156"/>
       <c r="H156"/>
       <c r="I156"/>
-      <c r="J156" s="169"/>
+      <c r="J156" s="158"/>
       <c r="K156"/>
       <c r="L156"/>
       <c r="M156"/>
@@ -77011,13 +77016,13 @@
       <c r="C157"/>
       <c r="D157"/>
       <c r="E157"/>
-      <c r="F157" s="162" t="s">
+      <c r="F157" s="151" t="s">
         <v>433</v>
       </c>
       <c r="G157"/>
       <c r="H157"/>
       <c r="I157"/>
-      <c r="J157" s="169"/>
+      <c r="J157" s="158"/>
       <c r="K157"/>
       <c r="L157"/>
       <c r="M157"/>
@@ -77034,13 +77039,13 @@
       <c r="C158"/>
       <c r="D158"/>
       <c r="E158"/>
-      <c r="F158" s="162" t="s">
+      <c r="F158" s="151" t="s">
         <v>434</v>
       </c>
       <c r="G158"/>
       <c r="H158"/>
       <c r="I158"/>
-      <c r="J158" s="169"/>
+      <c r="J158" s="158"/>
       <c r="K158"/>
       <c r="L158"/>
       <c r="M158"/>
@@ -77057,13 +77062,13 @@
       <c r="C159"/>
       <c r="D159"/>
       <c r="E159"/>
-      <c r="F159" s="162" t="s">
+      <c r="F159" s="151" t="s">
         <v>435</v>
       </c>
       <c r="G159"/>
       <c r="H159"/>
       <c r="I159"/>
-      <c r="J159" s="169"/>
+      <c r="J159" s="158"/>
       <c r="K159"/>
       <c r="L159"/>
       <c r="M159"/>
@@ -77080,13 +77085,13 @@
       <c r="C160"/>
       <c r="D160"/>
       <c r="E160"/>
-      <c r="F160" s="162" t="s">
+      <c r="F160" s="151" t="s">
         <v>436</v>
       </c>
       <c r="G160"/>
       <c r="H160"/>
       <c r="I160"/>
-      <c r="J160" s="169"/>
+      <c r="J160" s="158"/>
       <c r="K160"/>
       <c r="L160"/>
       <c r="M160"/>
@@ -77103,13 +77108,13 @@
       <c r="C161"/>
       <c r="D161"/>
       <c r="E161"/>
-      <c r="F161" s="162" t="s">
+      <c r="F161" s="151" t="s">
         <v>437</v>
       </c>
       <c r="G161"/>
       <c r="H161"/>
       <c r="I161"/>
-      <c r="J161" s="169"/>
+      <c r="J161" s="158"/>
       <c r="K161"/>
       <c r="L161"/>
       <c r="M161"/>
@@ -77126,13 +77131,13 @@
       <c r="C162"/>
       <c r="D162"/>
       <c r="E162"/>
-      <c r="F162" s="162" t="s">
+      <c r="F162" s="151" t="s">
         <v>438</v>
       </c>
       <c r="G162"/>
       <c r="H162"/>
       <c r="I162"/>
-      <c r="J162" s="169"/>
+      <c r="J162" s="158"/>
       <c r="K162"/>
       <c r="L162"/>
       <c r="M162"/>
@@ -77149,13 +77154,13 @@
       <c r="C163"/>
       <c r="D163"/>
       <c r="E163"/>
-      <c r="F163" s="162" t="s">
+      <c r="F163" s="151" t="s">
         <v>439</v>
       </c>
       <c r="G163"/>
       <c r="H163"/>
       <c r="I163"/>
-      <c r="J163" s="169"/>
+      <c r="J163" s="158"/>
       <c r="K163"/>
       <c r="L163"/>
       <c r="M163"/>
@@ -77172,13 +77177,13 @@
       <c r="C164"/>
       <c r="D164"/>
       <c r="E164"/>
-      <c r="F164" s="162" t="s">
+      <c r="F164" s="151" t="s">
         <v>440</v>
       </c>
       <c r="G164"/>
       <c r="H164"/>
       <c r="I164"/>
-      <c r="J164" s="169"/>
+      <c r="J164" s="158"/>
       <c r="K164"/>
       <c r="L164"/>
       <c r="M164"/>
@@ -77195,13 +77200,13 @@
       <c r="C165"/>
       <c r="D165"/>
       <c r="E165"/>
-      <c r="F165" s="162" t="s">
+      <c r="F165" s="151" t="s">
         <v>441</v>
       </c>
       <c r="G165"/>
       <c r="H165"/>
       <c r="I165"/>
-      <c r="J165" s="169"/>
+      <c r="J165" s="158"/>
       <c r="K165"/>
       <c r="L165"/>
       <c r="M165"/>
@@ -77218,13 +77223,13 @@
       <c r="C166"/>
       <c r="D166"/>
       <c r="E166"/>
-      <c r="F166" s="162" t="s">
+      <c r="F166" s="151" t="s">
         <v>442</v>
       </c>
       <c r="G166"/>
       <c r="H166"/>
       <c r="I166"/>
-      <c r="J166" s="169"/>
+      <c r="J166" s="158"/>
       <c r="K166"/>
       <c r="L166"/>
       <c r="M166"/>
@@ -77241,13 +77246,13 @@
       <c r="C167"/>
       <c r="D167"/>
       <c r="E167"/>
-      <c r="F167" s="162" t="s">
+      <c r="F167" s="151" t="s">
         <v>443</v>
       </c>
       <c r="G167"/>
       <c r="H167"/>
       <c r="I167"/>
-      <c r="J167" s="169"/>
+      <c r="J167" s="158"/>
       <c r="K167"/>
       <c r="L167"/>
       <c r="M167"/>
@@ -77264,13 +77269,13 @@
       <c r="C168"/>
       <c r="D168"/>
       <c r="E168"/>
-      <c r="F168" s="162" t="s">
+      <c r="F168" s="151" t="s">
         <v>444</v>
       </c>
       <c r="G168"/>
       <c r="H168"/>
       <c r="I168"/>
-      <c r="J168" s="169"/>
+      <c r="J168" s="158"/>
       <c r="K168"/>
       <c r="L168"/>
       <c r="M168"/>
@@ -77287,13 +77292,13 @@
       <c r="C169"/>
       <c r="D169"/>
       <c r="E169"/>
-      <c r="F169" s="162" t="s">
+      <c r="F169" s="151" t="s">
         <v>445</v>
       </c>
       <c r="G169"/>
       <c r="H169"/>
       <c r="I169"/>
-      <c r="J169" s="169"/>
+      <c r="J169" s="158"/>
       <c r="K169"/>
       <c r="L169"/>
       <c r="M169"/>
@@ -77310,13 +77315,13 @@
       <c r="C170"/>
       <c r="D170"/>
       <c r="E170"/>
-      <c r="F170" s="162" t="s">
+      <c r="F170" s="151" t="s">
         <v>446</v>
       </c>
       <c r="G170"/>
       <c r="H170"/>
       <c r="I170"/>
-      <c r="J170" s="169"/>
+      <c r="J170" s="158"/>
       <c r="K170"/>
       <c r="L170"/>
       <c r="M170"/>
@@ -77333,13 +77338,13 @@
       <c r="C171"/>
       <c r="D171"/>
       <c r="E171"/>
-      <c r="F171" s="162" t="s">
+      <c r="F171" s="151" t="s">
         <v>447</v>
       </c>
       <c r="G171"/>
       <c r="H171"/>
       <c r="I171"/>
-      <c r="J171" s="169"/>
+      <c r="J171" s="158"/>
       <c r="K171"/>
       <c r="L171"/>
       <c r="M171"/>
@@ -77356,13 +77361,13 @@
       <c r="C172"/>
       <c r="D172"/>
       <c r="E172"/>
-      <c r="F172" s="162" t="s">
+      <c r="F172" s="151" t="s">
         <v>448</v>
       </c>
       <c r="G172"/>
       <c r="H172"/>
       <c r="I172"/>
-      <c r="J172" s="169"/>
+      <c r="J172" s="158"/>
       <c r="K172"/>
       <c r="L172"/>
       <c r="M172"/>
@@ -77379,13 +77384,13 @@
       <c r="C173"/>
       <c r="D173"/>
       <c r="E173"/>
-      <c r="F173" s="162" t="s">
+      <c r="F173" s="151" t="s">
         <v>449</v>
       </c>
       <c r="G173"/>
       <c r="H173"/>
       <c r="I173"/>
-      <c r="J173" s="169"/>
+      <c r="J173" s="158"/>
       <c r="K173"/>
       <c r="L173"/>
       <c r="M173"/>
@@ -77402,13 +77407,13 @@
       <c r="C174"/>
       <c r="D174"/>
       <c r="E174"/>
-      <c r="F174" s="162" t="s">
+      <c r="F174" s="151" t="s">
         <v>450</v>
       </c>
       <c r="G174"/>
       <c r="H174"/>
       <c r="I174"/>
-      <c r="J174" s="169"/>
+      <c r="J174" s="158"/>
       <c r="K174"/>
       <c r="L174"/>
       <c r="M174"/>
@@ -77425,13 +77430,13 @@
       <c r="C175"/>
       <c r="D175"/>
       <c r="E175"/>
-      <c r="F175" s="162" t="s">
+      <c r="F175" s="151" t="s">
         <v>451</v>
       </c>
       <c r="G175"/>
       <c r="H175"/>
       <c r="I175"/>
-      <c r="J175" s="169"/>
+      <c r="J175" s="158"/>
       <c r="K175"/>
       <c r="L175"/>
       <c r="M175"/>
@@ -77448,13 +77453,13 @@
       <c r="C176"/>
       <c r="D176"/>
       <c r="E176"/>
-      <c r="F176" s="162" t="s">
+      <c r="F176" s="151" t="s">
         <v>452</v>
       </c>
       <c r="G176"/>
       <c r="H176"/>
       <c r="I176"/>
-      <c r="J176" s="169"/>
+      <c r="J176" s="158"/>
       <c r="K176"/>
       <c r="L176"/>
       <c r="M176"/>
@@ -77471,13 +77476,13 @@
       <c r="C177"/>
       <c r="D177"/>
       <c r="E177"/>
-      <c r="F177" s="162" t="s">
+      <c r="F177" s="151" t="s">
         <v>453</v>
       </c>
       <c r="G177"/>
       <c r="H177"/>
       <c r="I177"/>
-      <c r="J177" s="169"/>
+      <c r="J177" s="158"/>
       <c r="K177"/>
       <c r="L177"/>
       <c r="M177"/>
@@ -77494,13 +77499,13 @@
       <c r="C178"/>
       <c r="D178"/>
       <c r="E178"/>
-      <c r="F178" s="162" t="s">
+      <c r="F178" s="151" t="s">
         <v>454</v>
       </c>
       <c r="G178"/>
       <c r="H178"/>
       <c r="I178"/>
-      <c r="J178" s="169"/>
+      <c r="J178" s="158"/>
       <c r="K178"/>
       <c r="L178"/>
       <c r="M178"/>
@@ -77517,13 +77522,13 @@
       <c r="C179"/>
       <c r="D179"/>
       <c r="E179"/>
-      <c r="F179" s="162" t="s">
+      <c r="F179" s="151" t="s">
         <v>455</v>
       </c>
       <c r="G179"/>
       <c r="H179"/>
       <c r="I179"/>
-      <c r="J179" s="169"/>
+      <c r="J179" s="158"/>
       <c r="K179"/>
       <c r="L179"/>
       <c r="M179"/>
@@ -77540,13 +77545,13 @@
       <c r="C180"/>
       <c r="D180"/>
       <c r="E180"/>
-      <c r="F180" s="162" t="s">
+      <c r="F180" s="151" t="s">
         <v>456</v>
       </c>
       <c r="G180"/>
       <c r="H180"/>
       <c r="I180"/>
-      <c r="J180" s="169"/>
+      <c r="J180" s="158"/>
       <c r="K180"/>
       <c r="L180"/>
       <c r="M180"/>
@@ -77563,13 +77568,13 @@
       <c r="C181"/>
       <c r="D181"/>
       <c r="E181"/>
-      <c r="F181" s="162" t="s">
+      <c r="F181" s="151" t="s">
         <v>457</v>
       </c>
       <c r="G181"/>
       <c r="H181"/>
       <c r="I181"/>
-      <c r="J181" s="169"/>
+      <c r="J181" s="158"/>
       <c r="K181"/>
       <c r="L181"/>
       <c r="M181"/>
@@ -77586,13 +77591,13 @@
       <c r="C182"/>
       <c r="D182"/>
       <c r="E182"/>
-      <c r="F182" s="162" t="s">
+      <c r="F182" s="151" t="s">
         <v>458</v>
       </c>
       <c r="G182"/>
       <c r="H182"/>
       <c r="I182"/>
-      <c r="J182" s="169"/>
+      <c r="J182" s="158"/>
       <c r="K182"/>
       <c r="L182"/>
       <c r="M182"/>
@@ -77609,13 +77614,13 @@
       <c r="C183"/>
       <c r="D183"/>
       <c r="E183"/>
-      <c r="F183" s="162" t="s">
+      <c r="F183" s="151" t="s">
         <v>459</v>
       </c>
       <c r="G183"/>
       <c r="H183"/>
       <c r="I183"/>
-      <c r="J183" s="169"/>
+      <c r="J183" s="158"/>
       <c r="K183"/>
       <c r="L183"/>
       <c r="M183"/>
@@ -77632,13 +77637,13 @@
       <c r="C184"/>
       <c r="D184"/>
       <c r="E184"/>
-      <c r="F184" s="162" t="s">
+      <c r="F184" s="151" t="s">
         <v>460</v>
       </c>
       <c r="G184"/>
       <c r="H184"/>
       <c r="I184"/>
-      <c r="J184" s="169"/>
+      <c r="J184" s="158"/>
       <c r="K184"/>
       <c r="L184"/>
       <c r="M184"/>
@@ -77655,13 +77660,13 @@
       <c r="C185"/>
       <c r="D185"/>
       <c r="E185"/>
-      <c r="F185" s="162" t="s">
+      <c r="F185" s="151" t="s">
         <v>461</v>
       </c>
       <c r="G185"/>
       <c r="H185"/>
       <c r="I185"/>
-      <c r="J185" s="169"/>
+      <c r="J185" s="158"/>
       <c r="K185"/>
       <c r="L185"/>
       <c r="M185"/>
@@ -77678,13 +77683,13 @@
       <c r="C186"/>
       <c r="D186"/>
       <c r="E186"/>
-      <c r="F186" s="162" t="s">
+      <c r="F186" s="151" t="s">
         <v>462</v>
       </c>
       <c r="G186"/>
       <c r="H186"/>
       <c r="I186"/>
-      <c r="J186" s="169"/>
+      <c r="J186" s="158"/>
       <c r="K186"/>
       <c r="L186"/>
       <c r="M186"/>
@@ -77701,13 +77706,13 @@
       <c r="C187"/>
       <c r="D187"/>
       <c r="E187"/>
-      <c r="F187" s="162" t="s">
+      <c r="F187" s="151" t="s">
         <v>463</v>
       </c>
       <c r="G187"/>
       <c r="H187"/>
       <c r="I187"/>
-      <c r="J187" s="169"/>
+      <c r="J187" s="158"/>
       <c r="K187"/>
       <c r="L187"/>
       <c r="M187"/>
@@ -77724,13 +77729,13 @@
       <c r="C188"/>
       <c r="D188"/>
       <c r="E188"/>
-      <c r="F188" s="162" t="s">
+      <c r="F188" s="151" t="s">
         <v>464</v>
       </c>
       <c r="G188"/>
       <c r="H188"/>
       <c r="I188"/>
-      <c r="J188" s="169"/>
+      <c r="J188" s="158"/>
       <c r="K188"/>
       <c r="L188"/>
       <c r="M188"/>
@@ -77747,13 +77752,13 @@
       <c r="C189"/>
       <c r="D189"/>
       <c r="E189"/>
-      <c r="F189" s="162" t="s">
+      <c r="F189" s="151" t="s">
         <v>465</v>
       </c>
       <c r="G189"/>
       <c r="H189"/>
       <c r="I189"/>
-      <c r="J189" s="169"/>
+      <c r="J189" s="158"/>
       <c r="K189"/>
       <c r="L189"/>
       <c r="M189"/>
@@ -77770,13 +77775,13 @@
       <c r="C190"/>
       <c r="D190"/>
       <c r="E190"/>
-      <c r="F190" s="162" t="s">
+      <c r="F190" s="151" t="s">
         <v>466</v>
       </c>
       <c r="G190"/>
       <c r="H190"/>
       <c r="I190"/>
-      <c r="J190" s="169"/>
+      <c r="J190" s="158"/>
       <c r="K190"/>
       <c r="L190"/>
       <c r="M190"/>
@@ -77793,13 +77798,13 @@
       <c r="C191"/>
       <c r="D191"/>
       <c r="E191"/>
-      <c r="F191" s="162" t="s">
+      <c r="F191" s="151" t="s">
         <v>467</v>
       </c>
       <c r="G191"/>
       <c r="H191"/>
       <c r="I191"/>
-      <c r="J191" s="169"/>
+      <c r="J191" s="158"/>
       <c r="K191"/>
       <c r="L191"/>
       <c r="M191"/>
@@ -77816,13 +77821,13 @@
       <c r="C192"/>
       <c r="D192"/>
       <c r="E192"/>
-      <c r="F192" s="162" t="s">
+      <c r="F192" s="151" t="s">
         <v>468</v>
       </c>
       <c r="G192"/>
       <c r="H192"/>
       <c r="I192"/>
-      <c r="J192" s="169"/>
+      <c r="J192" s="158"/>
       <c r="K192"/>
       <c r="L192"/>
       <c r="M192"/>
@@ -77839,13 +77844,13 @@
       <c r="C193"/>
       <c r="D193"/>
       <c r="E193"/>
-      <c r="F193" s="162" t="s">
+      <c r="F193" s="151" t="s">
         <v>469</v>
       </c>
       <c r="G193"/>
       <c r="H193"/>
       <c r="I193"/>
-      <c r="J193" s="169"/>
+      <c r="J193" s="158"/>
       <c r="K193"/>
       <c r="L193"/>
       <c r="M193"/>
@@ -77862,13 +77867,13 @@
       <c r="C194"/>
       <c r="D194"/>
       <c r="E194"/>
-      <c r="F194" s="162" t="s">
+      <c r="F194" s="151" t="s">
         <v>470</v>
       </c>
       <c r="G194"/>
       <c r="H194"/>
       <c r="I194"/>
-      <c r="J194" s="169"/>
+      <c r="J194" s="158"/>
       <c r="K194"/>
       <c r="L194"/>
       <c r="M194"/>
@@ -77885,13 +77890,13 @@
       <c r="C195"/>
       <c r="D195"/>
       <c r="E195"/>
-      <c r="F195" s="162" t="s">
+      <c r="F195" s="151" t="s">
         <v>471</v>
       </c>
       <c r="G195"/>
       <c r="H195"/>
       <c r="I195"/>
-      <c r="J195" s="169"/>
+      <c r="J195" s="158"/>
       <c r="K195"/>
       <c r="L195"/>
       <c r="M195"/>
@@ -77908,13 +77913,13 @@
       <c r="C196"/>
       <c r="D196"/>
       <c r="E196"/>
-      <c r="F196" s="162" t="s">
+      <c r="F196" s="151" t="s">
         <v>472</v>
       </c>
       <c r="G196"/>
       <c r="H196"/>
       <c r="I196"/>
-      <c r="J196" s="169"/>
+      <c r="J196" s="158"/>
       <c r="K196"/>
       <c r="L196"/>
       <c r="M196"/>
@@ -77931,13 +77936,13 @@
       <c r="C197"/>
       <c r="D197"/>
       <c r="E197"/>
-      <c r="F197" s="162" t="s">
+      <c r="F197" s="151" t="s">
         <v>473</v>
       </c>
       <c r="G197"/>
       <c r="H197"/>
       <c r="I197"/>
-      <c r="J197" s="169"/>
+      <c r="J197" s="158"/>
       <c r="K197"/>
       <c r="L197"/>
       <c r="M197"/>
@@ -77954,13 +77959,13 @@
       <c r="C198"/>
       <c r="D198"/>
       <c r="E198"/>
-      <c r="F198" s="162" t="s">
+      <c r="F198" s="151" t="s">
         <v>474</v>
       </c>
       <c r="G198"/>
       <c r="H198"/>
       <c r="I198"/>
-      <c r="J198" s="169"/>
+      <c r="J198" s="158"/>
       <c r="K198"/>
       <c r="L198"/>
       <c r="M198"/>
@@ -77977,13 +77982,13 @@
       <c r="C199"/>
       <c r="D199"/>
       <c r="E199"/>
-      <c r="F199" s="162" t="s">
+      <c r="F199" s="151" t="s">
         <v>475</v>
       </c>
       <c r="G199"/>
       <c r="H199"/>
       <c r="I199"/>
-      <c r="J199" s="169"/>
+      <c r="J199" s="158"/>
       <c r="K199"/>
       <c r="L199"/>
       <c r="M199"/>
@@ -78000,13 +78005,13 @@
       <c r="C200"/>
       <c r="D200"/>
       <c r="E200"/>
-      <c r="F200" s="162" t="s">
+      <c r="F200" s="151" t="s">
         <v>476</v>
       </c>
       <c r="G200"/>
       <c r="H200"/>
       <c r="I200"/>
-      <c r="J200" s="169"/>
+      <c r="J200" s="158"/>
       <c r="K200"/>
       <c r="L200"/>
       <c r="M200"/>
@@ -78023,13 +78028,13 @@
       <c r="C201"/>
       <c r="D201"/>
       <c r="E201"/>
-      <c r="F201" s="162" t="s">
+      <c r="F201" s="151" t="s">
         <v>477</v>
       </c>
       <c r="G201"/>
       <c r="H201"/>
       <c r="I201"/>
-      <c r="J201" s="169"/>
+      <c r="J201" s="158"/>
       <c r="K201"/>
       <c r="L201"/>
       <c r="M201"/>
@@ -78046,13 +78051,13 @@
       <c r="C202"/>
       <c r="D202"/>
       <c r="E202"/>
-      <c r="F202" s="162" t="s">
+      <c r="F202" s="151" t="s">
         <v>478</v>
       </c>
       <c r="G202"/>
       <c r="H202"/>
       <c r="I202"/>
-      <c r="J202" s="169"/>
+      <c r="J202" s="158"/>
       <c r="K202"/>
       <c r="L202"/>
       <c r="M202"/>
@@ -78069,13 +78074,13 @@
       <c r="C203"/>
       <c r="D203"/>
       <c r="E203"/>
-      <c r="F203" s="162" t="s">
+      <c r="F203" s="151" t="s">
         <v>479</v>
       </c>
       <c r="G203"/>
       <c r="H203"/>
       <c r="I203"/>
-      <c r="J203" s="169"/>
+      <c r="J203" s="158"/>
       <c r="K203"/>
       <c r="L203"/>
       <c r="M203"/>
@@ -78092,13 +78097,13 @@
       <c r="C204"/>
       <c r="D204"/>
       <c r="E204"/>
-      <c r="F204" s="162" t="s">
+      <c r="F204" s="151" t="s">
         <v>509</v>
       </c>
       <c r="G204"/>
       <c r="H204"/>
       <c r="I204"/>
-      <c r="J204" s="169"/>
+      <c r="J204" s="158"/>
       <c r="K204"/>
       <c r="L204"/>
       <c r="M204"/>
@@ -78115,13 +78120,13 @@
       <c r="C205"/>
       <c r="D205"/>
       <c r="E205"/>
-      <c r="F205" s="162" t="s">
+      <c r="F205" s="151" t="s">
         <v>537</v>
       </c>
       <c r="G205"/>
       <c r="H205"/>
       <c r="I205"/>
-      <c r="J205" s="169"/>
+      <c r="J205" s="158"/>
       <c r="K205"/>
       <c r="L205"/>
       <c r="M205"/>
@@ -78131,6 +78136,26 @@
       <c r="Q205"/>
       <c r="R205"/>
       <c r="S205"/>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F206" s="151" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F207" s="151" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F208" s="151" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="209" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F209" s="151" t="s">
+        <v>709</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="41" type="noConversion"/>
